--- a/09-Excell/W'keitsbaum - Z0.xlsx
+++ b/09-Excell/W'keitsbaum - Z0.xlsx
@@ -798,63 +798,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4520688351.2953234</v>
+            <v>4521254929.1747208</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4522088320.0944185</v>
+            <v>4522654897.9738159</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4522845243.2858286</v>
+            <v>4523411821.165226</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4949777925.9710617</v>
+            <v>4950398285.826932</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4951296258.5749168</v>
+            <v>4951916618.4307871</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4952112942.7433853</v>
+            <v>4952733302.5992546</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5357731535.533144</v>
+            <v>5358403027.6673222</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5359362400.4653139</v>
+            <v>5360033892.5994921</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5360235901.3431072</v>
+            <v>5360907393.4772854</v>
           </cell>
         </row>
       </sheetData>
@@ -881,63 +881,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4254034194.911767</v>
+            <v>4254600772.7911649</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4254053404.8643627</v>
+            <v>4254619982.7437601</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4254063791.1377048</v>
+            <v>4254630369.0171027</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4657700162.5812502</v>
+            <v>4658320522.4371204</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4657720996.6868973</v>
+            <v>4658341356.5427675</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4657732202.9826565</v>
+            <v>4658352562.8385258</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5041483691.4446363</v>
+            <v>5042155183.5788145</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5041506069.6857805</v>
+            <v>5042177561.8199587</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5041518055.6037006</v>
+            <v>5042189547.7378788</v>
           </cell>
         </row>
       </sheetData>
@@ -964,63 +964,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4254017361.3856978</v>
+            <v>4254583939.2650957</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4254033270.7190895</v>
+            <v>4254599848.5984869</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4254041872.441792</v>
+            <v>4254608450.3211899</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4657758868.5888748</v>
+            <v>4658379228.4447451</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4657776123.0161095</v>
+            <v>4658396482.8719797</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4657785403.8663778</v>
+            <v>4658405763.7222471</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5041691225.3202419</v>
+            <v>5042362717.4544201</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5041709758.5721264</v>
+            <v>5042381250.7063046</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5041719685.0911455</v>
+            <v>5042391177.2253237</v>
           </cell>
         </row>
       </sheetData>
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA45" sqref="AA45"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1477,27 +1477,27 @@
       <c r="V9" s="56"/>
       <c r="W9" s="27">
         <f>'[1]SB1-SU1'!$AD$56</f>
-        <v>4520688351.2953234</v>
+        <v>4521254929.1747208</v>
       </c>
       <c r="X9" s="27">
         <f>W9*S9</f>
-        <v>56508604.391191542</v>
+        <v>56515686.614684016</v>
       </c>
       <c r="Y9" s="27">
         <f>'[2]SB1-SU1'!$AD$56</f>
-        <v>4254034194.911767</v>
+        <v>4254600772.7911649</v>
       </c>
       <c r="Z9" s="27">
         <f>Y9*S9</f>
-        <v>53175427.436397091</v>
+        <v>53182509.659889564</v>
       </c>
       <c r="AA9" s="27">
         <f>'[3]SB1-SU1'!$AD$56</f>
-        <v>4254017361.3856978</v>
+        <v>4254583939.2650957</v>
       </c>
       <c r="AB9" s="27">
         <f>AA9*S9</f>
-        <v>53175217.017321229</v>
+        <v>53182299.240813702</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1578,27 +1578,27 @@
       <c r="V12" s="56"/>
       <c r="W12" s="27">
         <f>'[1]SB1-SU2'!$AD$56</f>
-        <v>4522088320.0944185</v>
+        <v>4522654897.9738159</v>
       </c>
       <c r="X12" s="27">
         <f>W12*S12</f>
-        <v>650050196.01357257</v>
+        <v>650131641.58373594</v>
       </c>
       <c r="Y12" s="27">
         <f>'[2]SB1-SU2'!$AD$56</f>
-        <v>4254053404.8643627</v>
+        <v>4254619982.7437601</v>
       </c>
       <c r="Z12" s="27">
         <f>Y12*S12</f>
-        <v>611520176.94925213</v>
+        <v>611601622.5194155</v>
       </c>
       <c r="AA12" s="27">
         <f>'[3]SB1-SU2'!$AD$56</f>
-        <v>4254033270.7190895</v>
+        <v>4254599848.5984869</v>
       </c>
       <c r="AB12" s="27">
         <f>AA12*S12</f>
-        <v>611517282.66586912</v>
+        <v>611598728.23603249</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
@@ -1677,27 +1677,27 @@
       <c r="V15" s="56"/>
       <c r="W15" s="27">
         <f>'[1]SB1-SU3'!$AD$56</f>
-        <v>4522845243.2858286</v>
+        <v>4523411821.165226</v>
       </c>
       <c r="X15" s="27">
         <f>W15*S15</f>
-        <v>424016741.55804646</v>
+        <v>424069858.23423994</v>
       </c>
       <c r="Y15" s="27">
         <f>'[2]SB1-SU3'!$AD$56</f>
-        <v>4254063791.1377048</v>
+        <v>4254630369.0171027</v>
       </c>
       <c r="Z15" s="27">
         <f>Y15*S15</f>
-        <v>398818480.41915983</v>
+        <v>398871597.09535336</v>
       </c>
       <c r="AA15" s="27">
         <f>'[3]SB1-SU3'!$AD$56</f>
-        <v>4254041872.441792</v>
+        <v>4254608450.3211899</v>
       </c>
       <c r="AB15" s="27">
         <f>AA15*S15</f>
-        <v>398816425.54141802</v>
+        <v>398869542.21761155</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.3">
@@ -1780,27 +1780,27 @@
       <c r="V18" s="56"/>
       <c r="W18" s="27">
         <f>'[1]SB2-SU1'!$AD$56</f>
-        <v>4949777925.9710617</v>
+        <v>4950398285.826932</v>
       </c>
       <c r="X18" s="27">
         <f>W18*S18</f>
-        <v>123744448.14927655</v>
+        <v>123759957.1456733</v>
       </c>
       <c r="Y18" s="27">
         <f>'[2]SB2-SU1'!$AD$56</f>
-        <v>4657700162.5812502</v>
+        <v>4658320522.4371204</v>
       </c>
       <c r="Z18" s="27">
         <f>Y18*S18</f>
-        <v>116442504.06453127</v>
+        <v>116458013.06092802</v>
       </c>
       <c r="AA18" s="27">
         <f>'[3]SB2-SU1'!$AD$56</f>
-        <v>4657758868.5888748</v>
+        <v>4658379228.4447451</v>
       </c>
       <c r="AB18" s="27">
         <f>AA18*S18</f>
-        <v>116443971.71472187</v>
+        <v>116459480.71111864</v>
       </c>
     </row>
     <row r="19" spans="7:28" x14ac:dyDescent="0.3">
@@ -1879,27 +1879,27 @@
       <c r="V21" s="56"/>
       <c r="W21" s="27">
         <f>'[1]SB2-SU2'!$AD$56</f>
-        <v>4951296258.5749168</v>
+        <v>4951916618.4307871</v>
       </c>
       <c r="X21" s="27">
         <f>W21*S21</f>
-        <v>1423497674.3402884</v>
+        <v>1423676027.7988513</v>
       </c>
       <c r="Y21" s="27">
         <f>'[2]SB2-SU2'!$AD$56</f>
-        <v>4657720996.6868973</v>
+        <v>4658341356.5427675</v>
       </c>
       <c r="Z21" s="27">
         <f>Y21*S21</f>
-        <v>1339094786.547483</v>
+        <v>1339273140.0060456</v>
       </c>
       <c r="AA21" s="27">
         <f>'[3]SB2-SU2'!$AD$56</f>
-        <v>4657776123.0161095</v>
+        <v>4658396482.8719797</v>
       </c>
       <c r="AB21" s="27">
         <f>AA21*S21</f>
-        <v>1339110635.3671315</v>
+        <v>1339288988.8256941</v>
       </c>
     </row>
     <row r="22" spans="7:28" x14ac:dyDescent="0.3">
@@ -1978,27 +1978,27 @@
       <c r="V24" s="56"/>
       <c r="W24" s="27">
         <f>'[1]SB2-SU3'!$AD$56</f>
-        <v>4952112942.7433853</v>
+        <v>4952733302.5992546</v>
       </c>
       <c r="X24" s="27">
         <f>W24*S24</f>
-        <v>928521176.76438475</v>
+        <v>928637494.23736024</v>
       </c>
       <c r="Y24" s="27">
         <f>'[2]SB2-SU3'!$AD$56</f>
-        <v>4657732202.9826565</v>
+        <v>4658352562.8385258</v>
       </c>
       <c r="Z24" s="27">
         <f>Y24*S24</f>
-        <v>873324788.05924809</v>
+        <v>873441105.53222358</v>
       </c>
       <c r="AA24" s="27">
         <f>'[3]SB2-SU3'!$AD$56</f>
-        <v>4657785403.8663778</v>
+        <v>4658405763.7222471</v>
       </c>
       <c r="AB24" s="27">
         <f>AA24*S24</f>
-        <v>873334763.22494578</v>
+        <v>873451080.69792128</v>
       </c>
     </row>
     <row r="25" spans="7:28" x14ac:dyDescent="0.3">
@@ -2081,27 +2081,27 @@
       <c r="V27" s="56"/>
       <c r="W27" s="27">
         <f>'[1]SB3-SU1'!$AD$56</f>
-        <v>5357731535.533144</v>
+        <v>5358403027.6673222</v>
       </c>
       <c r="X27" s="27">
         <f>W27*S27</f>
-        <v>66971644.194164306</v>
+        <v>66980037.845841527</v>
       </c>
       <c r="Y27" s="27">
         <f>'[2]SB3-SU1'!$AD$56</f>
-        <v>5041483691.4446363</v>
+        <v>5042155183.5788145</v>
       </c>
       <c r="Z27" s="27">
         <f>Y27*S27</f>
-        <v>63018546.143057957</v>
+        <v>63026939.794735186</v>
       </c>
       <c r="AA27" s="27">
         <f>'[3]SB3-SU1'!$AD$56</f>
-        <v>5041691225.3202419</v>
+        <v>5042362717.4544201</v>
       </c>
       <c r="AB27" s="27">
         <f>AA27*S27</f>
-        <v>63021140.316503026</v>
+        <v>63029533.968180254</v>
       </c>
     </row>
     <row r="28" spans="7:28" x14ac:dyDescent="0.3">
@@ -2167,27 +2167,27 @@
       <c r="V30" s="56"/>
       <c r="W30" s="27">
         <f>'[1]SB3-SU2'!$AD$56</f>
-        <v>5359362400.4653139</v>
+        <v>5360033892.5994921</v>
       </c>
       <c r="X30" s="27">
         <f>W30*S30</f>
-        <v>770408345.06688881</v>
+        <v>770504872.0611769</v>
       </c>
       <c r="Y30" s="27">
         <f>'[2]SB3-SU2'!$AD$56</f>
-        <v>5041506069.6857805</v>
+        <v>5042177561.8199587</v>
       </c>
       <c r="Z30" s="27">
         <f>Y30*S30</f>
-        <v>724716497.51733088</v>
+        <v>724813024.51161897</v>
       </c>
       <c r="AA30" s="27">
         <f>'[3]SB3-SU2'!$AD$56</f>
-        <v>5041709758.5721264</v>
+        <v>5042381250.7063046</v>
       </c>
       <c r="AB30" s="27">
         <f>AA30*S30</f>
-        <v>724745777.79474306</v>
+        <v>724842304.78903127</v>
       </c>
     </row>
     <row r="31" spans="7:28" x14ac:dyDescent="0.3">
@@ -2251,27 +2251,27 @@
       <c r="V33" s="56"/>
       <c r="W33" s="27">
         <f>'[1]SB3-SU3'!$AD$56</f>
-        <v>5360235901.3431072</v>
+        <v>5360907393.4772854</v>
       </c>
       <c r="X33" s="27">
         <f>W33*S33</f>
-        <v>502522115.7509163</v>
+        <v>502585068.1384955</v>
       </c>
       <c r="Y33" s="27">
         <f>'[2]SB3-SU3'!$AD$56</f>
-        <v>5041518055.6037006</v>
+        <v>5042189547.7378788</v>
       </c>
       <c r="Z33" s="27">
         <f>Y33*S33</f>
-        <v>472642317.71284693</v>
+        <v>472705270.10042614</v>
       </c>
       <c r="AA33" s="27">
         <f>'[3]SB3-SU3'!$AD$56</f>
-        <v>5041719685.0911455</v>
+        <v>5042391177.2253237</v>
       </c>
       <c r="AB33" s="27">
         <f>AA33*S33</f>
-        <v>472661220.47729492</v>
+        <v>472724172.86487412</v>
       </c>
     </row>
     <row r="34" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2295,17 +2295,17 @@
       <c r="W35" s="73"/>
       <c r="X35" s="28">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
-        <v>4946240946.2287302</v>
+        <v>4946860643.660059</v>
       </c>
       <c r="Y35" s="73"/>
       <c r="Z35" s="28">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
-        <v>4652753524.8493071</v>
+        <v>4653373222.2806358</v>
       </c>
       <c r="AA35" s="73"/>
       <c r="AB35" s="28">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
-        <v>4652826434.1199484</v>
+        <v>4653446131.5512772</v>
       </c>
       <c r="AC35" s="2"/>
     </row>

--- a/09-Excell/W'keitsbaum - Z0.xlsx
+++ b/09-Excell/W'keitsbaum - Z0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="W'keitsbaum" sheetId="6" r:id="rId1"/>
@@ -982,72 +982,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1093,6 +1027,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,6 +1081,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1121,9 +1124,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1458,11 +1458,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="186859016"/>
-        <c:axId val="186859408"/>
+        <c:axId val="185880336"/>
+        <c:axId val="185880728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186859016"/>
+        <c:axId val="185880336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1505,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186859408"/>
+        <c:crossAx val="185880728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1513,7 +1513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186859408"/>
+        <c:axId val="185880728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1564,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186859016"/>
+        <c:crossAx val="185880336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1694,7 +1694,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1805,7 +1804,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1926,7 +1924,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2066,8 +2063,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="474942384"/>
-        <c:axId val="474943952"/>
+        <c:axId val="490153088"/>
+        <c:axId val="490152304"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2193,7 +2190,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="474942384"/>
+        <c:axId val="490153088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,7 +2200,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474943952"/>
+        <c:crossAx val="490152304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2211,7 +2208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474943952"/>
+        <c:axId val="490152304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,7 +2259,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474942384"/>
+        <c:crossAx val="490153088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2406,7 +2403,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2517,7 +2513,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2601,9 +2596,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2751,7 +2744,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2805,11 +2797,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="474944736"/>
-        <c:axId val="474945128"/>
+        <c:axId val="490156224"/>
+        <c:axId val="490156616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="474944736"/>
+        <c:axId val="490156224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,7 +2811,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474945128"/>
+        <c:crossAx val="490156616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2827,7 +2819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474945128"/>
+        <c:axId val="490156616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,7 +2870,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474944736"/>
+        <c:crossAx val="490156224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3228,11 +3220,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="474947480"/>
-        <c:axId val="474941600"/>
+        <c:axId val="490158968"/>
+        <c:axId val="490157008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="474947480"/>
+        <c:axId val="490158968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,7 +3267,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474941600"/>
+        <c:crossAx val="490157008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3283,7 +3275,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474941600"/>
+        <c:axId val="490157008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,7 +3326,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474947480"/>
+        <c:crossAx val="490158968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3478,7 +3470,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3589,7 +3580,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3710,7 +3700,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3831,7 +3820,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3899,11 +3887,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="474947872"/>
-        <c:axId val="474948264"/>
+        <c:axId val="490151520"/>
+        <c:axId val="489354872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="474947872"/>
+        <c:axId val="490151520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3913,7 +3901,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474948264"/>
+        <c:crossAx val="489354872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3921,7 +3909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474948264"/>
+        <c:axId val="489354872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3972,7 +3960,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474947872"/>
+        <c:crossAx val="490151520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4322,11 +4310,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="474949048"/>
-        <c:axId val="475395008"/>
+        <c:axId val="489356048"/>
+        <c:axId val="489356832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="474949048"/>
+        <c:axId val="489356048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4369,7 +4357,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475395008"/>
+        <c:crossAx val="489356832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4377,7 +4365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475395008"/>
+        <c:axId val="489356832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4428,7 +4416,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474949048"/>
+        <c:crossAx val="489356048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4670,7 +4658,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4791,7 +4778,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4859,8 +4845,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="475392264"/>
-        <c:axId val="475393440"/>
+        <c:axId val="491271776"/>
+        <c:axId val="491273344"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -4999,7 +4985,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="475392264"/>
+        <c:axId val="491271776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5042,7 +5028,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475393440"/>
+        <c:crossAx val="491273344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5050,7 +5036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475393440"/>
+        <c:axId val="491273344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5101,7 +5087,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475392264"/>
+        <c:crossAx val="491271776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5518,11 +5504,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="474355504"/>
-        <c:axId val="474358640"/>
+        <c:axId val="489361144"/>
+        <c:axId val="489361536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="474355504"/>
+        <c:axId val="489361144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5565,7 +5551,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474358640"/>
+        <c:crossAx val="489361536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5573,7 +5559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474358640"/>
+        <c:axId val="489361536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5624,7 +5610,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474355504"/>
+        <c:crossAx val="489361144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200000000"/>
@@ -5998,11 +5984,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="474358248"/>
-        <c:axId val="474361384"/>
+        <c:axId val="489357616"/>
+        <c:axId val="489356440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="474358248"/>
+        <c:axId val="489357616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6045,7 +6031,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474361384"/>
+        <c:crossAx val="489356440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6053,7 +6039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474361384"/>
+        <c:axId val="489356440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6104,7 +6090,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474358248"/>
+        <c:crossAx val="489357616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6647,11 +6633,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="474357464"/>
-        <c:axId val="474359816"/>
+        <c:axId val="489359968"/>
+        <c:axId val="489360752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="474357464"/>
+        <c:axId val="489359968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6661,7 +6647,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474359816"/>
+        <c:crossAx val="489360752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6669,7 +6655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474359816"/>
+        <c:axId val="489360752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6720,7 +6706,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474357464"/>
+        <c:crossAx val="489359968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7136,11 +7122,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="474359424"/>
-        <c:axId val="474360992"/>
+        <c:axId val="489357224"/>
+        <c:axId val="489358792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="474359424"/>
+        <c:axId val="489357224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7183,7 +7169,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474360992"/>
+        <c:crossAx val="489358792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7191,7 +7177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474360992"/>
+        <c:axId val="489358792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7242,7 +7228,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474359424"/>
+        <c:crossAx val="489357224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7860,11 +7846,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="474357072"/>
-        <c:axId val="474362560"/>
+        <c:axId val="489359576"/>
+        <c:axId val="489360360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="474357072"/>
+        <c:axId val="489359576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7874,7 +7860,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474362560"/>
+        <c:crossAx val="489360360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7882,7 +7868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474362560"/>
+        <c:axId val="489360360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7933,7 +7919,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474357072"/>
+        <c:crossAx val="489359576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8555,11 +8541,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="474357856"/>
-        <c:axId val="474360208"/>
+        <c:axId val="490155832"/>
+        <c:axId val="490153872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="474357856"/>
+        <c:axId val="490155832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8569,7 +8555,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474360208"/>
+        <c:crossAx val="490153872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8577,7 +8563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474360208"/>
+        <c:axId val="490153872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8628,7 +8614,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474357856"/>
+        <c:crossAx val="490155832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9252,11 +9238,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="474945520"/>
-        <c:axId val="474941992"/>
+        <c:axId val="490155440"/>
+        <c:axId val="490158184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="474945520"/>
+        <c:axId val="490155440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9266,7 +9252,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474941992"/>
+        <c:crossAx val="490158184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9274,7 +9260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474941992"/>
+        <c:axId val="490158184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9325,7 +9311,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474945520"/>
+        <c:crossAx val="490155440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9464,7 +9450,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9575,7 +9560,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -9683,7 +9667,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9804,7 +9787,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9944,11 +9926,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="474943168"/>
-        <c:axId val="474943560"/>
+        <c:axId val="490151912"/>
+        <c:axId val="490155048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="474943168"/>
+        <c:axId val="490151912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9958,7 +9940,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474943560"/>
+        <c:crossAx val="490155048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9966,7 +9948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474943560"/>
+        <c:axId val="490155048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10017,7 +9999,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474943168"/>
+        <c:crossAx val="490151912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19752,6 +19734,7 @@
       <sheetName val="SB3-SU1"/>
       <sheetName val="SB3-SU2"/>
       <sheetName val="SB3-SU3"/>
+      <sheetName val="Show File"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -19952,6 +19935,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -20824,8 +20808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU61"/>
   <sheetViews>
-    <sheetView topLeftCell="AO7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AS28" sqref="AS28"/>
+    <sheetView tabSelected="1" topLeftCell="X2" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC4:AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20844,7 +20828,8 @@
     <col min="18" max="18" width="11.3984375" customWidth="1"/>
     <col min="20" max="20" width="3.3984375" customWidth="1"/>
     <col min="22" max="22" width="2.19921875" customWidth="1"/>
-    <col min="23" max="29" width="16.69921875" customWidth="1"/>
+    <col min="23" max="28" width="16.69921875" customWidth="1"/>
+    <col min="29" max="29" width="22" customWidth="1"/>
     <col min="31" max="31" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18.69921875" customWidth="1"/>
     <col min="33" max="33" width="19.59765625" customWidth="1"/>
@@ -20858,49 +20843,49 @@
   <sheetData>
     <row r="1" spans="2:47" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:47" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
       <c r="E2" s="6"/>
-      <c r="AP2" s="90" t="s">
+      <c r="AP2" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="AQ2" s="91"/>
+      <c r="AQ2" s="108"/>
     </row>
     <row r="3" spans="2:47" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="6"/>
-      <c r="W3" s="90" t="s">
+      <c r="W3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="90" t="s">
+      <c r="X3" s="108"/>
+      <c r="Y3" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="90" t="s">
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="91"/>
+      <c r="AB3" s="108"/>
       <c r="AC3" s="34"/>
-      <c r="AP3" s="92"/>
-      <c r="AQ3" s="93"/>
+      <c r="AP3" s="111"/>
+      <c r="AQ3" s="112"/>
     </row>
     <row r="4" spans="2:47" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="6"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="95"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="110"/>
       <c r="AC4" s="34"/>
       <c r="AQ4" s="31" t="s">
         <v>29</v>
@@ -20919,32 +20904,32 @@
       </c>
     </row>
     <row r="5" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="118"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="128" t="s">
+      <c r="G5" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="130"/>
-      <c r="L5" s="127" t="s">
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
+      <c r="L5" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="Q5" s="90" t="s">
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="Q5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="91"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="93"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="108"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="111"/>
+      <c r="AB5" s="112"/>
       <c r="AC5" s="34"/>
       <c r="AP5" t="s">
         <v>4</v>
@@ -20975,16 +20960,17 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="133"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="93"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="122"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="112"/>
+      <c r="AC6" s="36"/>
       <c r="AP6" t="s">
         <v>23</v>
       </c>
@@ -21010,7 +20996,7 @@
       </c>
     </row>
     <row r="7" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V7" s="99"/>
+      <c r="V7" s="115"/>
       <c r="W7" s="42" t="s">
         <v>6</v>
       </c>
@@ -21061,25 +21047,25 @@
       </c>
     </row>
     <row r="8" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="122"/>
+      <c r="C8" s="100"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="102"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="103"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="128"/>
+      <c r="Y8" s="127"/>
+      <c r="Z8" s="128"/>
+      <c r="AA8" s="127"/>
+      <c r="AB8" s="128"/>
       <c r="AC8" s="32"/>
     </row>
     <row r="9" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="123"/>
-      <c r="C9" s="124"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
       <c r="D9" s="30" t="str">
         <f>IF(X35&lt;Z35,"Variante 1",IF(Z35&lt;AB35,"Variante 2","Variante 3"))</f>
         <v>Variante 2</v>
@@ -21114,7 +21100,7 @@
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="115"/>
       <c r="W9" s="27">
         <f>'[5]SB1-SU1'!$AD$56</f>
         <v>657121111.05117357</v>
@@ -21159,8 +21145,8 @@
       <c r="AT9" s="31"/>
     </row>
     <row r="10" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="125"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="104"/>
       <c r="G10" s="3"/>
       <c r="H10" s="105"/>
       <c r="I10" s="105"/>
@@ -21176,13 +21162,13 @@
       <c r="S10" s="105"/>
       <c r="T10" s="105"/>
       <c r="U10" s="105"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="104"/>
-      <c r="AB10" s="99"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="115"/>
       <c r="AC10" s="32"/>
       <c r="AD10" s="23" t="s">
         <v>15</v>
@@ -21202,10 +21188,10 @@
     </row>
     <row r="11" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="3"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
       <c r="L11" s="3"/>
       <c r="M11" s="106"/>
       <c r="N11" s="106"/>
@@ -21216,13 +21202,13 @@
       <c r="S11" s="106"/>
       <c r="T11" s="106"/>
       <c r="U11" s="106"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="104"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="99"/>
+      <c r="V11" s="115"/>
+      <c r="W11" s="114"/>
+      <c r="X11" s="115"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="115"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="115"/>
       <c r="AC11" s="32"/>
       <c r="AD11" s="23" t="s">
         <v>16</v>
@@ -21242,10 +21228,10 @@
     </row>
     <row r="12" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
       <c r="L12" s="16"/>
       <c r="M12" s="14"/>
       <c r="N12" s="17" t="s">
@@ -21265,7 +21251,7 @@
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="99"/>
+      <c r="V12" s="115"/>
       <c r="W12" s="27">
         <f>'[5]SB1-SU2'!$AD$56</f>
         <v>657388000.59881794</v>
@@ -21305,10 +21291,10 @@
     </row>
     <row r="13" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G13" s="3"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
       <c r="L13" s="3"/>
       <c r="M13" s="105"/>
       <c r="N13" s="105"/>
@@ -21319,13 +21305,13 @@
       <c r="S13" s="105"/>
       <c r="T13" s="105"/>
       <c r="U13" s="105"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="104"/>
-      <c r="AB13" s="99"/>
+      <c r="V13" s="115"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="114"/>
+      <c r="AB13" s="115"/>
       <c r="AC13" s="32"/>
       <c r="AD13" s="23" t="s">
         <v>21</v>
@@ -21341,10 +21327,10 @@
     </row>
     <row r="14" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="3"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
       <c r="L14" s="3"/>
       <c r="M14" s="106"/>
       <c r="N14" s="106"/>
@@ -21355,13 +21341,13 @@
       <c r="S14" s="106"/>
       <c r="T14" s="106"/>
       <c r="U14" s="106"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="104"/>
-      <c r="AB14" s="99"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="115"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="115"/>
       <c r="AC14" s="32"/>
       <c r="AD14" s="23" t="s">
         <v>20</v>
@@ -21377,10 +21363,10 @@
     </row>
     <row r="15" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
       <c r="L15" s="16"/>
       <c r="M15" s="14"/>
       <c r="N15" s="17" t="s">
@@ -21400,7 +21386,7 @@
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="115"/>
       <c r="W15" s="27">
         <f>'[5]SB1-SU3'!$AD$56</f>
         <v>657654890.1464901</v>
@@ -21440,27 +21426,27 @@
     </row>
     <row r="16" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16" s="3"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="103"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="115"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="128"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="128"/>
       <c r="AC16" s="32"/>
       <c r="AD16" s="23" t="s">
         <v>18</v>
@@ -21490,13 +21476,13 @@
       <c r="S17" s="106"/>
       <c r="T17" s="106"/>
       <c r="U17" s="106"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="104"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="104"/>
-      <c r="AB17" s="99"/>
+      <c r="V17" s="115"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="115"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="115"/>
+      <c r="AA17" s="114"/>
+      <c r="AB17" s="115"/>
       <c r="AC17" s="32"/>
       <c r="AD17" s="23" t="s">
         <v>19</v>
@@ -21539,7 +21525,7 @@
       </c>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="99"/>
+      <c r="V18" s="115"/>
       <c r="W18" s="27">
         <f>'[5]SB2-SU1'!$AD$56</f>
         <v>720852183.57174861</v>
@@ -21582,21 +21568,21 @@
       <c r="S19" s="105"/>
       <c r="T19" s="105"/>
       <c r="U19" s="105"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="102"/>
-      <c r="X19" s="103"/>
-      <c r="Y19" s="102"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="102"/>
-      <c r="AB19" s="103"/>
+      <c r="V19" s="115"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="128"/>
       <c r="AC19" s="32"/>
     </row>
     <row r="20" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="3"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
       <c r="L20" s="3"/>
       <c r="M20" s="106"/>
       <c r="N20" s="106"/>
@@ -21607,13 +21593,13 @@
       <c r="S20" s="106"/>
       <c r="T20" s="106"/>
       <c r="U20" s="106"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="99"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="115"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="115"/>
+      <c r="AA20" s="114"/>
+      <c r="AB20" s="115"/>
       <c r="AC20" s="32" t="s">
         <v>27</v>
       </c>
@@ -21631,10 +21617,10 @@
     </row>
     <row r="21" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
       <c r="L21" s="16"/>
       <c r="M21" s="13"/>
       <c r="N21" s="17" t="s">
@@ -21654,7 +21640,7 @@
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="99"/>
+      <c r="V21" s="115"/>
       <c r="W21" s="27">
         <f>'[5]SB2-SU2'!$AD$56</f>
         <v>721119073.11995208</v>
@@ -21694,10 +21680,10 @@
     </row>
     <row r="22" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="3"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
       <c r="L22" s="3"/>
       <c r="M22" s="105"/>
       <c r="N22" s="105"/>
@@ -21708,13 +21694,13 @@
       <c r="S22" s="105"/>
       <c r="T22" s="105"/>
       <c r="U22" s="105"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="102"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="102"/>
-      <c r="Z22" s="103"/>
-      <c r="AA22" s="102"/>
-      <c r="AB22" s="103"/>
+      <c r="V22" s="115"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="128"/>
       <c r="AC22" s="32"/>
       <c r="AD22" s="23" t="s">
         <v>16</v>
@@ -21730,10 +21716,10 @@
     </row>
     <row r="23" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="3"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
       <c r="L23" s="3"/>
       <c r="M23" s="106"/>
       <c r="N23" s="106"/>
@@ -21744,13 +21730,13 @@
       <c r="S23" s="106"/>
       <c r="T23" s="106"/>
       <c r="U23" s="106"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="104"/>
-      <c r="AB23" s="99"/>
+      <c r="V23" s="115"/>
+      <c r="W23" s="114"/>
+      <c r="X23" s="115"/>
+      <c r="Y23" s="114"/>
+      <c r="Z23" s="115"/>
+      <c r="AA23" s="114"/>
+      <c r="AB23" s="115"/>
       <c r="AC23" s="32"/>
       <c r="AD23" s="21" t="s">
         <v>22</v>
@@ -21766,10 +21752,10 @@
     </row>
     <row r="24" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
       <c r="L24" s="16"/>
       <c r="M24" s="13"/>
       <c r="N24" s="17" t="s">
@@ -21789,7 +21775,7 @@
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="99"/>
+      <c r="V24" s="115"/>
       <c r="W24" s="27">
         <f>'[5]SB2-SU3'!$AD$56</f>
         <v>721385962.66819298</v>
@@ -21829,27 +21815,27 @@
     </row>
     <row r="25" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="3"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="99"/>
-      <c r="W25" s="102"/>
-      <c r="X25" s="103"/>
-      <c r="Y25" s="102"/>
-      <c r="Z25" s="103"/>
-      <c r="AA25" s="102"/>
-      <c r="AB25" s="103"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
+      <c r="U25" s="125"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="128"/>
+      <c r="AA25" s="127"/>
+      <c r="AB25" s="128"/>
       <c r="AC25" s="32"/>
       <c r="AD25" s="23" t="s">
         <v>20</v>
@@ -21892,23 +21878,23 @@
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
       <c r="K26" s="106"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="111"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="104"/>
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="104"/>
-      <c r="AB26" s="99"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="126"/>
+      <c r="T26" s="126"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="115"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="115"/>
+      <c r="Y26" s="114"/>
+      <c r="Z26" s="115"/>
+      <c r="AA26" s="114"/>
+      <c r="AB26" s="115"/>
       <c r="AC26" s="32"/>
       <c r="AD26" s="21" t="s">
         <v>17</v>
@@ -21951,7 +21937,7 @@
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="99"/>
+      <c r="V27" s="115"/>
       <c r="W27" s="27">
         <f>'[5]SB3-SU1'!$AD$56</f>
         <v>784585828.54977763</v>
@@ -21991,7 +21977,7 @@
       <c r="AP27" t="s">
         <v>4</v>
       </c>
-      <c r="AQ27" s="96" t="s">
+      <c r="AQ27" s="129" t="s">
         <v>37</v>
       </c>
       <c r="AR27" s="74">
@@ -22024,13 +22010,13 @@
       <c r="S28" s="105"/>
       <c r="T28" s="105"/>
       <c r="U28" s="105"/>
-      <c r="V28" s="99"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="102"/>
-      <c r="Z28" s="103"/>
-      <c r="AA28" s="102"/>
-      <c r="AB28" s="103"/>
+      <c r="V28" s="115"/>
+      <c r="W28" s="127"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="128"/>
+      <c r="AA28" s="127"/>
+      <c r="AB28" s="128"/>
       <c r="AC28" s="32"/>
       <c r="AD28" s="23" t="s">
         <v>19</v>
@@ -22046,7 +22032,7 @@
       <c r="AP28" t="s">
         <v>23</v>
       </c>
-      <c r="AQ28" s="96"/>
+      <c r="AQ28" s="129"/>
       <c r="AR28" s="75">
         <f>(AR6-$AQ$6)/$AQ$6</f>
         <v>2.3930403550196389E-4</v>
@@ -22075,20 +22061,20 @@
       <c r="S29" s="106"/>
       <c r="T29" s="106"/>
       <c r="U29" s="106"/>
-      <c r="V29" s="99"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="99"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="99"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="99"/>
+      <c r="V29" s="115"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="115"/>
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="115"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="115"/>
       <c r="AC29" s="32"/>
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" t="s">
         <v>24</v>
       </c>
-      <c r="AQ29" s="96"/>
+      <c r="AQ29" s="129"/>
       <c r="AR29" s="75">
         <f>(AR7-$AQ$7)/$AQ$7</f>
         <v>1.7378808209185165E-4</v>
@@ -22126,7 +22112,7 @@
       </c>
       <c r="T30" s="14"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="99"/>
+      <c r="V30" s="115"/>
       <c r="W30" s="27">
         <f>'[5]SB3-SU2'!$AD$56</f>
         <v>784852718.09877813</v>
@@ -22167,13 +22153,13 @@
       <c r="S31" s="105"/>
       <c r="T31" s="105"/>
       <c r="U31" s="105"/>
-      <c r="V31" s="99"/>
-      <c r="W31" s="102"/>
-      <c r="X31" s="103"/>
-      <c r="Y31" s="102"/>
-      <c r="Z31" s="103"/>
-      <c r="AA31" s="102"/>
-      <c r="AB31" s="103"/>
+      <c r="V31" s="115"/>
+      <c r="W31" s="127"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="128"/>
+      <c r="AA31" s="127"/>
+      <c r="AB31" s="128"/>
       <c r="AC31" s="32" t="s">
         <v>26</v>
       </c>
@@ -22208,13 +22194,13 @@
       <c r="S32" s="106"/>
       <c r="T32" s="106"/>
       <c r="U32" s="106"/>
-      <c r="V32" s="99"/>
-      <c r="W32" s="104"/>
-      <c r="X32" s="99"/>
-      <c r="Y32" s="104"/>
-      <c r="Z32" s="99"/>
-      <c r="AA32" s="104"/>
-      <c r="AB32" s="99"/>
+      <c r="V32" s="115"/>
+      <c r="W32" s="114"/>
+      <c r="X32" s="115"/>
+      <c r="Y32" s="114"/>
+      <c r="Z32" s="115"/>
+      <c r="AA32" s="114"/>
+      <c r="AB32" s="115"/>
       <c r="AC32" s="32"/>
       <c r="AD32" s="23" t="s">
         <v>15</v>
@@ -22256,7 +22242,7 @@
       </c>
       <c r="T33" s="14"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="99"/>
+      <c r="V33" s="115"/>
       <c r="W33" s="27">
         <f>'[5]SB3-SU3'!$AD$56</f>
         <v>785119607.64782846</v>
@@ -22303,11 +22289,11 @@
       <c r="AU33" s="2"/>
     </row>
     <row r="34" spans="12:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W34" s="100"/>
+      <c r="W34" s="132"/>
       <c r="X34" s="29"/>
-      <c r="Y34" s="100"/>
+      <c r="Y34" s="132"/>
       <c r="Z34" s="29"/>
-      <c r="AA34" s="100"/>
+      <c r="AA34" s="132"/>
       <c r="AB34" s="29"/>
       <c r="AC34" s="35"/>
       <c r="AD34" s="21" t="s">
@@ -22335,21 +22321,21 @@
         <f>SUM(S9:S33)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="97" t="s">
+      <c r="U35" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="98"/>
-      <c r="W35" s="101"/>
+      <c r="V35" s="131"/>
+      <c r="W35" s="133"/>
       <c r="X35" s="28">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
         <v>721206455.33757484</v>
       </c>
-      <c r="Y35" s="101"/>
+      <c r="Y35" s="133"/>
       <c r="Z35" s="28">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
         <v>683460615.60205793</v>
       </c>
-      <c r="AA35" s="101"/>
+      <c r="AA35" s="133"/>
       <c r="AB35" s="28">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
         <v>941116798.40938354</v>
@@ -22557,10 +22543,10 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="AC45" s="80"/>
-      <c r="AD45" s="90" t="s">
+      <c r="AD45" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="AE45" s="91"/>
+      <c r="AE45" s="108"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="81"/>
@@ -22579,8 +22565,8 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="AC46" s="80"/>
-      <c r="AD46" s="94"/>
-      <c r="AE46" s="95"/>
+      <c r="AD46" s="109"/>
+      <c r="AE46" s="110"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
       <c r="AH46" s="81"/>
@@ -22599,8 +22585,8 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="AC47" s="80"/>
-      <c r="AD47" s="92"/>
-      <c r="AE47" s="93"/>
+      <c r="AD47" s="111"/>
+      <c r="AE47" s="112"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="81"/>
@@ -22994,6 +22980,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="M28:U29"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="AD45:AE47"/>
+    <mergeCell ref="AQ27:AQ29"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="V7:V33"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="W28:X29"/>
+    <mergeCell ref="Y28:Z29"/>
+    <mergeCell ref="AA28:AB29"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="Y31:Z32"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="W25:X26"/>
+    <mergeCell ref="Y25:Z26"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="H19:K26"/>
+    <mergeCell ref="L25:U26"/>
+    <mergeCell ref="M22:U23"/>
+    <mergeCell ref="M19:U20"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="B2:D5"/>
     <mergeCell ref="B8:C10"/>
     <mergeCell ref="M31:U32"/>
@@ -23010,43 +23033,6 @@
     <mergeCell ref="L5:N6"/>
     <mergeCell ref="G5:I6"/>
     <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="H19:K26"/>
-    <mergeCell ref="L25:U26"/>
-    <mergeCell ref="M22:U23"/>
-    <mergeCell ref="M19:U20"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="AA16:AB17"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="W25:X26"/>
-    <mergeCell ref="Y25:Z26"/>
-    <mergeCell ref="M28:U29"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="AD45:AE47"/>
-    <mergeCell ref="AQ27:AQ29"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="V7:V33"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="W28:X29"/>
-    <mergeCell ref="Y28:Z29"/>
-    <mergeCell ref="AA28:AB29"/>
-    <mergeCell ref="W31:X32"/>
-    <mergeCell ref="Y31:Z32"/>
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="Y22:Z23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23058,7 +23044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AV62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH70" workbookViewId="0">
+    <sheetView topLeftCell="AH70" workbookViewId="0">
       <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
@@ -23100,10 +23086,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="91"/>
+      <c r="C1" s="108"/>
       <c r="AA1" s="87"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
@@ -23128,8 +23114,8 @@
       <c r="AV1" s="2"/>
     </row>
     <row r="2" spans="2:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -23337,20 +23323,20 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="AB7" s="90" t="s">
+      <c r="AB7" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="AC7" s="91"/>
+      <c r="AC7" s="108"/>
       <c r="AD7" s="50"/>
-      <c r="AI7" s="90" t="s">
+      <c r="AI7" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="91"/>
+      <c r="AJ7" s="108"/>
       <c r="AK7" s="50"/>
-      <c r="AP7" s="90" t="s">
+      <c r="AP7" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="AQ7" s="91"/>
+      <c r="AQ7" s="108"/>
       <c r="AR7" s="50"/>
     </row>
     <row r="8" spans="2:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -23360,12 +23346,12 @@
       <c r="S8" s="65"/>
       <c r="T8" s="66"/>
       <c r="U8" s="2"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="93"/>
-      <c r="AI8" s="92"/>
-      <c r="AJ8" s="93"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="93"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="112"/>
+      <c r="AI8" s="111"/>
+      <c r="AJ8" s="112"/>
+      <c r="AP8" s="111"/>
+      <c r="AQ8" s="112"/>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.3">
       <c r="E9" s="46" t="s">
@@ -23475,7 +23461,7 @@
         <f>'W''keitsbaum'!S9</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="L13" s="134" t="s">
+      <c r="L13" s="135" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="59" t="s">
@@ -23532,7 +23518,7 @@
       <c r="AB13" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AC13" s="134" t="s">
+      <c r="AC13" s="135" t="s">
         <v>4</v>
       </c>
       <c r="AD13" s="59" t="s">
@@ -23549,7 +23535,7 @@
       <c r="AI13" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AJ13" s="134" t="s">
+      <c r="AJ13" s="135" t="s">
         <v>4</v>
       </c>
       <c r="AK13" s="59" t="s">
@@ -23566,7 +23552,7 @@
       <c r="AP13" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AQ13" s="134" t="s">
+      <c r="AQ13" s="135" t="s">
         <v>4</v>
       </c>
       <c r="AR13" s="59" t="s">
@@ -23586,7 +23572,7 @@
         <f>'W''keitsbaum'!S12</f>
         <v>0.14374999999999999</v>
       </c>
-      <c r="L14" s="135"/>
+      <c r="L14" s="136"/>
       <c r="M14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23641,7 +23627,7 @@
       <c r="AB14" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AC14" s="135"/>
+      <c r="AC14" s="136"/>
       <c r="AD14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23656,7 +23642,7 @@
       <c r="AI14" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AJ14" s="135"/>
+      <c r="AJ14" s="136"/>
       <c r="AK14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23671,7 +23657,7 @@
       <c r="AP14" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AQ14" s="135"/>
+      <c r="AQ14" s="136"/>
       <c r="AR14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23689,7 +23675,7 @@
         <f>'W''keitsbaum'!S15</f>
         <v>9.375E-2</v>
       </c>
-      <c r="L15" s="136"/>
+      <c r="L15" s="137"/>
       <c r="M15" s="57" t="s">
         <v>16</v>
       </c>
@@ -23744,7 +23730,7 @@
       <c r="AB15" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AC15" s="136"/>
+      <c r="AC15" s="137"/>
       <c r="AD15" s="57" t="s">
         <v>16</v>
       </c>
@@ -23759,7 +23745,7 @@
       <c r="AI15" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AJ15" s="136"/>
+      <c r="AJ15" s="137"/>
       <c r="AK15" s="57" t="s">
         <v>16</v>
       </c>
@@ -23774,7 +23760,7 @@
       <c r="AP15" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AQ15" s="136"/>
+      <c r="AQ15" s="137"/>
       <c r="AR15" s="57" t="s">
         <v>16</v>
       </c>
@@ -24430,7 +24416,7 @@
       <c r="K25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="L25" s="134" t="s">
+      <c r="L25" s="135" t="s">
         <v>23</v>
       </c>
       <c r="M25" s="57" t="s">
@@ -24487,7 +24473,7 @@
       <c r="AB25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AC25" s="134" t="s">
+      <c r="AC25" s="135" t="s">
         <v>23</v>
       </c>
       <c r="AD25" s="57" t="s">
@@ -24504,7 +24490,7 @@
       <c r="AI25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AJ25" s="134" t="s">
+      <c r="AJ25" s="135" t="s">
         <v>23</v>
       </c>
       <c r="AK25" s="57" t="s">
@@ -24521,7 +24507,7 @@
       <c r="AP25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AQ25" s="134" t="s">
+      <c r="AQ25" s="135" t="s">
         <v>23</v>
       </c>
       <c r="AR25" s="57" t="s">
@@ -24540,7 +24526,7 @@
       <c r="K26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="L26" s="135"/>
+      <c r="L26" s="136"/>
       <c r="M26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24595,7 +24581,7 @@
       <c r="AB26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AC26" s="135"/>
+      <c r="AC26" s="136"/>
       <c r="AD26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24610,7 +24596,7 @@
       <c r="AI26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AJ26" s="135"/>
+      <c r="AJ26" s="136"/>
       <c r="AK26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24625,7 +24611,7 @@
       <c r="AP26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AQ26" s="135"/>
+      <c r="AQ26" s="136"/>
       <c r="AR26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24642,7 +24628,7 @@
       <c r="K27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="L27" s="136"/>
+      <c r="L27" s="137"/>
       <c r="M27" s="57" t="s">
         <v>16</v>
       </c>
@@ -24697,7 +24683,7 @@
       <c r="AB27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AC27" s="136"/>
+      <c r="AC27" s="137"/>
       <c r="AD27" s="57" t="s">
         <v>16</v>
       </c>
@@ -24712,7 +24698,7 @@
       <c r="AI27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AJ27" s="136"/>
+      <c r="AJ27" s="137"/>
       <c r="AK27" s="57" t="s">
         <v>16</v>
       </c>
@@ -24727,7 +24713,7 @@
       <c r="AP27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AQ27" s="136"/>
+      <c r="AQ27" s="137"/>
       <c r="AR27" s="57" t="s">
         <v>16</v>
       </c>
@@ -25367,7 +25353,7 @@
       <c r="K37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="L37" s="134" t="s">
+      <c r="L37" s="135" t="s">
         <v>24</v>
       </c>
       <c r="M37" s="57" t="s">
@@ -25424,7 +25410,7 @@
       <c r="AB37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AC37" s="134" t="s">
+      <c r="AC37" s="135" t="s">
         <v>24</v>
       </c>
       <c r="AD37" s="57" t="s">
@@ -25441,7 +25427,7 @@
       <c r="AI37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AJ37" s="134" t="s">
+      <c r="AJ37" s="135" t="s">
         <v>24</v>
       </c>
       <c r="AK37" s="57" t="s">
@@ -25458,7 +25444,7 @@
       <c r="AP37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AQ37" s="134" t="s">
+      <c r="AQ37" s="135" t="s">
         <v>24</v>
       </c>
       <c r="AR37" s="57" t="s">
@@ -25477,7 +25463,7 @@
       <c r="K38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="L38" s="135"/>
+      <c r="L38" s="136"/>
       <c r="M38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25532,7 +25518,7 @@
       <c r="AB38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AC38" s="135"/>
+      <c r="AC38" s="136"/>
       <c r="AD38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25547,7 +25533,7 @@
       <c r="AI38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AJ38" s="135"/>
+      <c r="AJ38" s="136"/>
       <c r="AK38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25562,7 +25548,7 @@
       <c r="AP38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AQ38" s="135"/>
+      <c r="AQ38" s="136"/>
       <c r="AR38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25579,7 +25565,7 @@
       <c r="K39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="L39" s="136"/>
+      <c r="L39" s="137"/>
       <c r="M39" s="57" t="s">
         <v>16</v>
       </c>
@@ -25634,7 +25620,7 @@
       <c r="AB39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AC39" s="136"/>
+      <c r="AC39" s="137"/>
       <c r="AD39" s="57" t="s">
         <v>16</v>
       </c>
@@ -25649,7 +25635,7 @@
       <c r="AI39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AJ39" s="136"/>
+      <c r="AJ39" s="137"/>
       <c r="AK39" s="57" t="s">
         <v>16</v>
       </c>
@@ -25664,7 +25650,7 @@
       <c r="AP39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AQ39" s="136"/>
+      <c r="AQ39" s="137"/>
       <c r="AR39" s="57" t="s">
         <v>16</v>
       </c>
@@ -26301,43 +26287,43 @@
     </row>
     <row r="50" spans="9:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="51" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AB51" s="90" t="s">
+      <c r="AB51" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="AC51" s="107"/>
-      <c r="AD51" s="91"/>
-      <c r="AI51" s="90" t="s">
+      <c r="AC51" s="123"/>
+      <c r="AD51" s="108"/>
+      <c r="AI51" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="AJ51" s="107"/>
-      <c r="AK51" s="91"/>
-      <c r="AP51" s="90" t="s">
+      <c r="AJ51" s="123"/>
+      <c r="AK51" s="108"/>
+      <c r="AP51" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="AQ51" s="107"/>
-      <c r="AR51" s="91"/>
+      <c r="AQ51" s="123"/>
+      <c r="AR51" s="108"/>
     </row>
     <row r="52" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AB52" s="94"/>
-      <c r="AC52" s="137"/>
-      <c r="AD52" s="95"/>
-      <c r="AI52" s="94"/>
-      <c r="AJ52" s="137"/>
-      <c r="AK52" s="95"/>
-      <c r="AP52" s="94"/>
-      <c r="AQ52" s="137"/>
-      <c r="AR52" s="95"/>
+      <c r="AB52" s="109"/>
+      <c r="AC52" s="134"/>
+      <c r="AD52" s="110"/>
+      <c r="AI52" s="109"/>
+      <c r="AJ52" s="134"/>
+      <c r="AK52" s="110"/>
+      <c r="AP52" s="109"/>
+      <c r="AQ52" s="134"/>
+      <c r="AR52" s="110"/>
     </row>
     <row r="53" spans="9:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB53" s="92"/>
-      <c r="AC53" s="108"/>
-      <c r="AD53" s="93"/>
-      <c r="AI53" s="92"/>
-      <c r="AJ53" s="108"/>
-      <c r="AK53" s="93"/>
-      <c r="AP53" s="92"/>
-      <c r="AQ53" s="108"/>
-      <c r="AR53" s="93"/>
+      <c r="AB53" s="111"/>
+      <c r="AC53" s="124"/>
+      <c r="AD53" s="112"/>
+      <c r="AI53" s="111"/>
+      <c r="AJ53" s="124"/>
+      <c r="AK53" s="112"/>
+      <c r="AP53" s="111"/>
+      <c r="AQ53" s="124"/>
+      <c r="AR53" s="112"/>
     </row>
     <row r="54" spans="9:47" x14ac:dyDescent="0.3">
       <c r="I54" s="5"/>
@@ -26450,8 +26436,8 @@
         <f>AF35</f>
         <v>748204.16237870441</v>
       </c>
-      <c r="AF59" s="109"/>
-      <c r="AG59" s="109"/>
+      <c r="AF59" s="113"/>
+      <c r="AG59" s="113"/>
       <c r="AJ59" t="s">
         <v>23</v>
       </c>
@@ -26496,8 +26482,8 @@
         <f>AF47</f>
         <v>748204.16237870441</v>
       </c>
-      <c r="AF60" s="109"/>
-      <c r="AG60" s="109"/>
+      <c r="AF60" s="113"/>
+      <c r="AG60" s="113"/>
       <c r="AJ60" t="s">
         <v>24</v>
       </c>
@@ -26532,16 +26518,16 @@
       <c r="AU60" s="5"/>
     </row>
     <row r="61" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AF61" s="109"/>
-      <c r="AG61" s="109"/>
+      <c r="AF61" s="113"/>
+      <c r="AG61" s="113"/>
       <c r="AM61" s="5"/>
       <c r="AN61" s="5"/>
       <c r="AT61" s="5"/>
       <c r="AU61" s="5"/>
     </row>
     <row r="62" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AF62" s="109"/>
-      <c r="AG62" s="109"/>
+      <c r="AF62" s="113"/>
+      <c r="AG62" s="113"/>
       <c r="AM62" s="5"/>
       <c r="AN62" s="5"/>
       <c r="AT62" s="5"/>
@@ -26549,6 +26535,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="AQ13:AQ15"/>
+    <mergeCell ref="AQ25:AQ27"/>
+    <mergeCell ref="AQ37:AQ39"/>
+    <mergeCell ref="AP51:AR53"/>
+    <mergeCell ref="AF59:AG62"/>
+    <mergeCell ref="AI51:AK53"/>
+    <mergeCell ref="AI7:AJ8"/>
+    <mergeCell ref="AJ13:AJ15"/>
+    <mergeCell ref="AJ25:AJ27"/>
+    <mergeCell ref="AJ37:AJ39"/>
     <mergeCell ref="AB51:AD53"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="L25:L27"/>
@@ -26558,17 +26555,6 @@
     <mergeCell ref="AC13:AC15"/>
     <mergeCell ref="AC25:AC27"/>
     <mergeCell ref="AC37:AC39"/>
-    <mergeCell ref="AF59:AG62"/>
-    <mergeCell ref="AI51:AK53"/>
-    <mergeCell ref="AI7:AJ8"/>
-    <mergeCell ref="AJ13:AJ15"/>
-    <mergeCell ref="AJ25:AJ27"/>
-    <mergeCell ref="AJ37:AJ39"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="AQ13:AQ15"/>
-    <mergeCell ref="AQ25:AQ27"/>
-    <mergeCell ref="AQ37:AQ39"/>
-    <mergeCell ref="AP51:AR53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/09-Excell/W'keitsbaum - Z0.xlsx
+++ b/09-Excell/W'keitsbaum - Z0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="W'keitsbaum" sheetId="6" r:id="rId1"/>
@@ -982,6 +982,66 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,39 +1087,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1087,36 +1114,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,6 +1121,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1458,11 +1458,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="185880336"/>
-        <c:axId val="185880728"/>
+        <c:axId val="480509544"/>
+        <c:axId val="480512680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185880336"/>
+        <c:axId val="480509544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1505,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185880728"/>
+        <c:crossAx val="480512680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1513,7 +1513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185880728"/>
+        <c:axId val="480512680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1564,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185880336"/>
+        <c:crossAx val="480509544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1694,6 +1694,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1804,6 +1805,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1924,6 +1926,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2063,8 +2066,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="490153088"/>
-        <c:axId val="490152304"/>
+        <c:axId val="480448520"/>
+        <c:axId val="480453224"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2190,7 +2193,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="490153088"/>
+        <c:axId val="480448520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2203,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490152304"/>
+        <c:crossAx val="480453224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2208,7 +2211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490152304"/>
+        <c:axId val="480453224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2262,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490153088"/>
+        <c:crossAx val="480448520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2403,6 +2406,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2513,6 +2517,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2596,7 +2601,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2744,6 +2751,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2797,11 +2805,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="490156224"/>
-        <c:axId val="490156616"/>
+        <c:axId val="480449696"/>
+        <c:axId val="480451656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="490156224"/>
+        <c:axId val="480449696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,7 +2819,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490156616"/>
+        <c:crossAx val="480451656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2819,7 +2827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490156616"/>
+        <c:axId val="480451656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2870,7 +2878,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490156224"/>
+        <c:crossAx val="480449696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3220,11 +3228,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="490158968"/>
-        <c:axId val="490157008"/>
+        <c:axId val="480455184"/>
+        <c:axId val="480455576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="490158968"/>
+        <c:axId val="480455184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3267,7 +3275,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490157008"/>
+        <c:crossAx val="480455576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3275,7 +3283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490157008"/>
+        <c:axId val="480455576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3326,7 +3334,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490158968"/>
+        <c:crossAx val="480455184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3470,6 +3478,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3580,6 +3589,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3700,6 +3710,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3820,6 +3831,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3887,11 +3899,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="490151520"/>
-        <c:axId val="489354872"/>
+        <c:axId val="480455968"/>
+        <c:axId val="480454008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="490151520"/>
+        <c:axId val="480455968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3901,7 +3913,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489354872"/>
+        <c:crossAx val="480454008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3909,7 +3921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="489354872"/>
+        <c:axId val="480454008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3960,7 +3972,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490151520"/>
+        <c:crossAx val="480455968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4310,11 +4322,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="489356048"/>
-        <c:axId val="489356832"/>
+        <c:axId val="480454400"/>
+        <c:axId val="480452048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="489356048"/>
+        <c:axId val="480454400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4357,7 +4369,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489356832"/>
+        <c:crossAx val="480452048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4365,7 +4377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="489356832"/>
+        <c:axId val="480452048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4416,7 +4428,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489356048"/>
+        <c:crossAx val="480454400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4658,6 +4670,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4778,6 +4791,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4845,8 +4859,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="491271776"/>
-        <c:axId val="491273344"/>
+        <c:axId val="74464328"/>
+        <c:axId val="508488664"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -4985,7 +4999,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="491271776"/>
+        <c:axId val="74464328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,7 +5042,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491273344"/>
+        <c:crossAx val="508488664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5036,7 +5050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="491273344"/>
+        <c:axId val="508488664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5087,7 +5101,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491271776"/>
+        <c:crossAx val="74464328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5504,11 +5518,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="489361144"/>
-        <c:axId val="489361536"/>
+        <c:axId val="480515816"/>
+        <c:axId val="480509152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="489361144"/>
+        <c:axId val="480515816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5551,7 +5565,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489361536"/>
+        <c:crossAx val="480509152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5559,7 +5573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="489361536"/>
+        <c:axId val="480509152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5610,7 +5624,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489361144"/>
+        <c:crossAx val="480515816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200000000"/>
@@ -5984,11 +5998,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="489357616"/>
-        <c:axId val="489356440"/>
+        <c:axId val="480516208"/>
+        <c:axId val="480511112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="489357616"/>
+        <c:axId val="480516208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6031,7 +6045,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489356440"/>
+        <c:crossAx val="480511112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6039,7 +6053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="489356440"/>
+        <c:axId val="480511112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6090,7 +6104,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489357616"/>
+        <c:crossAx val="480516208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6633,11 +6647,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="489359968"/>
-        <c:axId val="489360752"/>
+        <c:axId val="480512288"/>
+        <c:axId val="480511896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="489359968"/>
+        <c:axId val="480512288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6647,7 +6661,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489360752"/>
+        <c:crossAx val="480511896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6655,7 +6669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="489360752"/>
+        <c:axId val="480511896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6706,7 +6720,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489359968"/>
+        <c:crossAx val="480512288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7122,11 +7136,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="489357224"/>
-        <c:axId val="489358792"/>
+        <c:axId val="74458840"/>
+        <c:axId val="74464720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="489357224"/>
+        <c:axId val="74458840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7169,7 +7183,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489358792"/>
+        <c:crossAx val="74464720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7177,7 +7191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="489358792"/>
+        <c:axId val="74464720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7228,7 +7242,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489357224"/>
+        <c:crossAx val="74458840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7846,11 +7860,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="489359576"/>
-        <c:axId val="489360360"/>
+        <c:axId val="74463152"/>
+        <c:axId val="74463544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="489359576"/>
+        <c:axId val="74463152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7860,7 +7874,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489360360"/>
+        <c:crossAx val="74463544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7868,7 +7882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="489360360"/>
+        <c:axId val="74463544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7919,7 +7933,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489359576"/>
+        <c:crossAx val="74463152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8541,11 +8555,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="490155832"/>
-        <c:axId val="490153872"/>
+        <c:axId val="74457664"/>
+        <c:axId val="74460016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="490155832"/>
+        <c:axId val="74457664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8555,7 +8569,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490153872"/>
+        <c:crossAx val="74460016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8563,7 +8577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490153872"/>
+        <c:axId val="74460016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8614,7 +8628,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490155832"/>
+        <c:crossAx val="74457664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9238,11 +9252,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="490155440"/>
-        <c:axId val="490158184"/>
+        <c:axId val="74459232"/>
+        <c:axId val="328484240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="490155440"/>
+        <c:axId val="74459232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9252,7 +9266,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490158184"/>
+        <c:crossAx val="328484240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9260,7 +9274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490158184"/>
+        <c:axId val="328484240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9311,7 +9325,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490155440"/>
+        <c:crossAx val="74459232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9450,6 +9464,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9560,6 +9575,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -9667,6 +9683,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9787,6 +9804,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9926,11 +9944,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="490151912"/>
-        <c:axId val="490155048"/>
+        <c:axId val="480450088"/>
+        <c:axId val="480454792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="490151912"/>
+        <c:axId val="480450088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9940,7 +9958,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490155048"/>
+        <c:crossAx val="480454792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9948,7 +9966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490155048"/>
+        <c:axId val="480454792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9999,7 +10017,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490151912"/>
+        <c:crossAx val="480450088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20808,8 +20826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X2" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC4:AD6"/>
+    <sheetView topLeftCell="AV4" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BI14" sqref="BI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20843,49 +20861,49 @@
   <sheetData>
     <row r="1" spans="2:47" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:47" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="6"/>
-      <c r="AP2" s="107" t="s">
+      <c r="AP2" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="AQ2" s="108"/>
+      <c r="AQ2" s="97"/>
     </row>
     <row r="3" spans="2:47" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="6"/>
-      <c r="W3" s="107" t="s">
+      <c r="W3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="107" t="s">
+      <c r="X3" s="97"/>
+      <c r="Y3" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="107" t="s">
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="108"/>
+      <c r="AB3" s="97"/>
       <c r="AC3" s="34"/>
-      <c r="AP3" s="111"/>
-      <c r="AQ3" s="112"/>
+      <c r="AP3" s="98"/>
+      <c r="AQ3" s="99"/>
     </row>
     <row r="4" spans="2:47" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="6"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="110"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="101"/>
       <c r="AC4" s="34"/>
       <c r="AQ4" s="31" t="s">
         <v>29</v>
@@ -20904,32 +20922,32 @@
       </c>
     </row>
     <row r="5" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="96"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119"/>
-      <c r="L5" s="116" t="s">
+      <c r="H5" s="127"/>
+      <c r="I5" s="128"/>
+      <c r="L5" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="Q5" s="107" t="s">
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="Q5" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="108"/>
-      <c r="W5" s="111"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="111"/>
-      <c r="AB5" s="112"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="132"/>
+      <c r="T5" s="97"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="99"/>
       <c r="AC5" s="34"/>
       <c r="AP5" t="s">
         <v>4</v>
@@ -20960,16 +20978,16 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="122"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="112"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="131"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="99"/>
       <c r="AC6" s="36"/>
       <c r="AP6" t="s">
         <v>23</v>
@@ -20996,7 +21014,7 @@
       </c>
     </row>
     <row r="7" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V7" s="115"/>
+      <c r="V7" s="93"/>
       <c r="W7" s="42" t="s">
         <v>6</v>
       </c>
@@ -21047,25 +21065,25 @@
       </c>
     </row>
     <row r="8" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="100"/>
+      <c r="C8" s="120"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="128"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="128"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="128"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="91"/>
       <c r="AC8" s="32"/>
     </row>
     <row r="9" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="30" t="str">
         <f>IF(X35&lt;Z35,"Variante 1",IF(Z35&lt;AB35,"Variante 2","Variante 3"))</f>
         <v>Variante 2</v>
@@ -21100,7 +21118,7 @@
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="115"/>
+      <c r="V9" s="93"/>
       <c r="W9" s="27">
         <f>'[5]SB1-SU1'!$AD$56</f>
         <v>657121111.05117357</v>
@@ -21145,30 +21163,30 @@
       <c r="AT9" s="31"/>
     </row>
     <row r="10" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="124"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="115"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="93"/>
       <c r="AC10" s="32"/>
       <c r="AD10" s="23" t="s">
         <v>15</v>
@@ -21188,27 +21206,27 @@
     </row>
     <row r="11" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="3"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="115"/>
-      <c r="W11" s="114"/>
-      <c r="X11" s="115"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="115"/>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="115"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="93"/>
       <c r="AC11" s="32"/>
       <c r="AD11" s="23" t="s">
         <v>16</v>
@@ -21228,10 +21246,10 @@
     </row>
     <row r="12" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
       <c r="L12" s="16"/>
       <c r="M12" s="14"/>
       <c r="N12" s="17" t="s">
@@ -21251,7 +21269,7 @@
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="115"/>
+      <c r="V12" s="93"/>
       <c r="W12" s="27">
         <f>'[5]SB1-SU2'!$AD$56</f>
         <v>657388000.59881794</v>
@@ -21291,27 +21309,27 @@
     </row>
     <row r="13" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G13" s="3"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="105"/>
-      <c r="S13" s="105"/>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="115"/>
-      <c r="Y13" s="114"/>
-      <c r="Z13" s="115"/>
-      <c r="AA13" s="114"/>
-      <c r="AB13" s="115"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="93"/>
       <c r="AC13" s="32"/>
       <c r="AD13" s="23" t="s">
         <v>21</v>
@@ -21327,27 +21345,27 @@
     </row>
     <row r="14" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="3"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="115"/>
-      <c r="Y14" s="114"/>
-      <c r="Z14" s="115"/>
-      <c r="AA14" s="114"/>
-      <c r="AB14" s="115"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="93"/>
       <c r="AC14" s="32"/>
       <c r="AD14" s="23" t="s">
         <v>20</v>
@@ -21363,10 +21381,10 @@
     </row>
     <row r="15" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
       <c r="L15" s="16"/>
       <c r="M15" s="14"/>
       <c r="N15" s="17" t="s">
@@ -21386,7 +21404,7 @@
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="115"/>
+      <c r="V15" s="93"/>
       <c r="W15" s="27">
         <f>'[5]SB1-SU3'!$AD$56</f>
         <v>657654890.1464901</v>
@@ -21426,27 +21444,27 @@
     </row>
     <row r="16" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16" s="3"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="113"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="115"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="128"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="91"/>
       <c r="AC16" s="32"/>
       <c r="AD16" s="23" t="s">
         <v>18</v>
@@ -21462,27 +21480,27 @@
     </row>
     <row r="17" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="3"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="106"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="115"/>
-      <c r="W17" s="114"/>
-      <c r="X17" s="115"/>
-      <c r="Y17" s="114"/>
-      <c r="Z17" s="115"/>
-      <c r="AA17" s="114"/>
-      <c r="AB17" s="115"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="93"/>
       <c r="AC17" s="32"/>
       <c r="AD17" s="23" t="s">
         <v>19</v>
@@ -21525,7 +21543,7 @@
       </c>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="115"/>
+      <c r="V18" s="93"/>
       <c r="W18" s="27">
         <f>'[5]SB2-SU1'!$AD$56</f>
         <v>720852183.57174861</v>
@@ -21554,52 +21572,52 @@
     </row>
     <row r="19" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G19" s="3"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="105"/>
-      <c r="U19" s="105"/>
-      <c r="V19" s="115"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="128"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="91"/>
       <c r="AC19" s="32"/>
     </row>
     <row r="20" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="3"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="115"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="114"/>
-      <c r="Z20" s="115"/>
-      <c r="AA20" s="114"/>
-      <c r="AB20" s="115"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="93"/>
       <c r="AC20" s="32" t="s">
         <v>27</v>
       </c>
@@ -21617,10 +21635,10 @@
     </row>
     <row r="21" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
       <c r="L21" s="16"/>
       <c r="M21" s="13"/>
       <c r="N21" s="17" t="s">
@@ -21640,7 +21658,7 @@
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="115"/>
+      <c r="V21" s="93"/>
       <c r="W21" s="27">
         <f>'[5]SB2-SU2'!$AD$56</f>
         <v>721119073.11995208</v>
@@ -21680,27 +21698,27 @@
     </row>
     <row r="22" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="3"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="105"/>
-      <c r="P22" s="105"/>
-      <c r="Q22" s="105"/>
-      <c r="R22" s="105"/>
-      <c r="S22" s="105"/>
-      <c r="T22" s="105"/>
-      <c r="U22" s="105"/>
-      <c r="V22" s="115"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="128"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="91"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="91"/>
       <c r="AC22" s="32"/>
       <c r="AD22" s="23" t="s">
         <v>16</v>
@@ -21716,27 +21734,27 @@
     </row>
     <row r="23" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="3"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="115"/>
-      <c r="W23" s="114"/>
-      <c r="X23" s="115"/>
-      <c r="Y23" s="114"/>
-      <c r="Z23" s="115"/>
-      <c r="AA23" s="114"/>
-      <c r="AB23" s="115"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="92"/>
+      <c r="AB23" s="93"/>
       <c r="AC23" s="32"/>
       <c r="AD23" s="21" t="s">
         <v>22</v>
@@ -21752,10 +21770,10 @@
     </row>
     <row r="24" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
       <c r="L24" s="16"/>
       <c r="M24" s="13"/>
       <c r="N24" s="17" t="s">
@@ -21775,7 +21793,7 @@
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="115"/>
+      <c r="V24" s="93"/>
       <c r="W24" s="27">
         <f>'[5]SB2-SU3'!$AD$56</f>
         <v>721385962.66819298</v>
@@ -21815,27 +21833,27 @@
     </row>
     <row r="25" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="3"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="125"/>
-      <c r="T25" s="125"/>
-      <c r="U25" s="125"/>
-      <c r="V25" s="115"/>
-      <c r="W25" s="127"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="127"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="128"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="91"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="91"/>
       <c r="AC25" s="32"/>
       <c r="AD25" s="23" t="s">
         <v>20</v>
@@ -21874,27 +21892,27 @@
     </row>
     <row r="26" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="3"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="115"/>
-      <c r="W26" s="114"/>
-      <c r="X26" s="115"/>
-      <c r="Y26" s="114"/>
-      <c r="Z26" s="115"/>
-      <c r="AA26" s="114"/>
-      <c r="AB26" s="115"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="109"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="92"/>
+      <c r="AB26" s="93"/>
       <c r="AC26" s="32"/>
       <c r="AD26" s="21" t="s">
         <v>17</v>
@@ -21937,7 +21955,7 @@
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="115"/>
+      <c r="V27" s="93"/>
       <c r="W27" s="27">
         <f>'[5]SB3-SU1'!$AD$56</f>
         <v>784585828.54977763</v>
@@ -21977,7 +21995,7 @@
       <c r="AP27" t="s">
         <v>4</v>
       </c>
-      <c r="AQ27" s="129" t="s">
+      <c r="AQ27" s="102" t="s">
         <v>37</v>
       </c>
       <c r="AR27" s="74">
@@ -22001,22 +22019,22 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
-      <c r="O28" s="105"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="105"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="115"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="128"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="93"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="91"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="91"/>
       <c r="AC28" s="32"/>
       <c r="AD28" s="23" t="s">
         <v>19</v>
@@ -22032,7 +22050,7 @@
       <c r="AP28" t="s">
         <v>23</v>
       </c>
-      <c r="AQ28" s="129"/>
+      <c r="AQ28" s="102"/>
       <c r="AR28" s="75">
         <f>(AR6-$AQ$6)/$AQ$6</f>
         <v>2.3930403550196389E-4</v>
@@ -22052,29 +22070,29 @@
     </row>
     <row r="29" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="3"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="115"/>
-      <c r="W29" s="114"/>
-      <c r="X29" s="115"/>
-      <c r="Y29" s="114"/>
-      <c r="Z29" s="115"/>
-      <c r="AA29" s="114"/>
-      <c r="AB29" s="115"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="92"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="92"/>
+      <c r="AB29" s="93"/>
       <c r="AC29" s="32"/>
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" t="s">
         <v>24</v>
       </c>
-      <c r="AQ29" s="129"/>
+      <c r="AQ29" s="102"/>
       <c r="AR29" s="75">
         <f>(AR7-$AQ$7)/$AQ$7</f>
         <v>1.7378808209185165E-4</v>
@@ -22112,7 +22130,7 @@
       </c>
       <c r="T30" s="14"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="115"/>
+      <c r="V30" s="93"/>
       <c r="W30" s="27">
         <f>'[5]SB3-SU2'!$AD$56</f>
         <v>784852718.09877813</v>
@@ -22144,22 +22162,22 @@
     </row>
     <row r="31" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L31" s="3"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
-      <c r="O31" s="105"/>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="105"/>
-      <c r="R31" s="105"/>
-      <c r="S31" s="105"/>
-      <c r="T31" s="105"/>
-      <c r="U31" s="105"/>
-      <c r="V31" s="115"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="128"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="91"/>
       <c r="AC31" s="32" t="s">
         <v>26</v>
       </c>
@@ -22185,22 +22203,22 @@
     </row>
     <row r="32" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="3"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="106"/>
-      <c r="T32" s="106"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="115"/>
-      <c r="W32" s="114"/>
-      <c r="X32" s="115"/>
-      <c r="Y32" s="114"/>
-      <c r="Z32" s="115"/>
-      <c r="AA32" s="114"/>
-      <c r="AB32" s="115"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="93"/>
       <c r="AC32" s="32"/>
       <c r="AD32" s="23" t="s">
         <v>15</v>
@@ -22242,7 +22260,7 @@
       </c>
       <c r="T33" s="14"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="115"/>
+      <c r="V33" s="93"/>
       <c r="W33" s="27">
         <f>'[5]SB3-SU3'!$AD$56</f>
         <v>785119607.64782846</v>
@@ -22289,11 +22307,11 @@
       <c r="AU33" s="2"/>
     </row>
     <row r="34" spans="12:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W34" s="132"/>
+      <c r="W34" s="105"/>
       <c r="X34" s="29"/>
-      <c r="Y34" s="132"/>
+      <c r="Y34" s="105"/>
       <c r="Z34" s="29"/>
-      <c r="AA34" s="132"/>
+      <c r="AA34" s="105"/>
       <c r="AB34" s="29"/>
       <c r="AC34" s="35"/>
       <c r="AD34" s="21" t="s">
@@ -22321,21 +22339,21 @@
         <f>SUM(S9:S33)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="130" t="s">
+      <c r="U35" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="131"/>
-      <c r="W35" s="133"/>
+      <c r="V35" s="104"/>
+      <c r="W35" s="106"/>
       <c r="X35" s="28">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
         <v>721206455.33757484</v>
       </c>
-      <c r="Y35" s="133"/>
+      <c r="Y35" s="106"/>
       <c r="Z35" s="28">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
         <v>683460615.60205793</v>
       </c>
-      <c r="AA35" s="133"/>
+      <c r="AA35" s="106"/>
       <c r="AB35" s="28">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
         <v>941116798.40938354</v>
@@ -22543,10 +22561,10 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="AC45" s="80"/>
-      <c r="AD45" s="107" t="s">
+      <c r="AD45" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="AE45" s="108"/>
+      <c r="AE45" s="97"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="81"/>
@@ -22565,8 +22583,8 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="AC46" s="80"/>
-      <c r="AD46" s="109"/>
-      <c r="AE46" s="110"/>
+      <c r="AD46" s="100"/>
+      <c r="AE46" s="101"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
       <c r="AH46" s="81"/>
@@ -22585,8 +22603,8 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="AC47" s="80"/>
-      <c r="AD47" s="111"/>
-      <c r="AE47" s="112"/>
+      <c r="AD47" s="98"/>
+      <c r="AE47" s="99"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="81"/>
@@ -22980,12 +22998,28 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="Y22:Z23"/>
-    <mergeCell ref="M28:U29"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="B2:D5"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="M31:U32"/>
+    <mergeCell ref="Y3:Z5"/>
+    <mergeCell ref="AA3:AB5"/>
+    <mergeCell ref="H10:K17"/>
+    <mergeCell ref="L16:U17"/>
+    <mergeCell ref="M13:U14"/>
+    <mergeCell ref="M10:U11"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="AA10:AB11"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="H19:K26"/>
+    <mergeCell ref="L25:U26"/>
+    <mergeCell ref="M22:U23"/>
+    <mergeCell ref="M19:U20"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="AP2:AQ3"/>
     <mergeCell ref="AD45:AE47"/>
     <mergeCell ref="AQ27:AQ29"/>
@@ -23002,6 +23036,12 @@
     <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="M28:U29"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
     <mergeCell ref="W16:X17"/>
     <mergeCell ref="Y16:Z17"/>
     <mergeCell ref="AA16:AB17"/>
@@ -23011,28 +23051,6 @@
     <mergeCell ref="AA22:AB23"/>
     <mergeCell ref="W25:X26"/>
     <mergeCell ref="Y25:Z26"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="H19:K26"/>
-    <mergeCell ref="L25:U26"/>
-    <mergeCell ref="M22:U23"/>
-    <mergeCell ref="M19:U20"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="B2:D5"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="M31:U32"/>
-    <mergeCell ref="Y3:Z5"/>
-    <mergeCell ref="AA3:AB5"/>
-    <mergeCell ref="H10:K17"/>
-    <mergeCell ref="L16:U17"/>
-    <mergeCell ref="M13:U14"/>
-    <mergeCell ref="M10:U11"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="AA10:AB11"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="Q5:T6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23044,8 +23062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AV62"/>
   <sheetViews>
-    <sheetView topLeftCell="AH70" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView tabSelected="1" topLeftCell="AJ67" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23086,10 +23104,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="108"/>
+      <c r="C1" s="97"/>
       <c r="AA1" s="87"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
@@ -23114,8 +23132,8 @@
       <c r="AV1" s="2"/>
     </row>
     <row r="2" spans="2:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="111"/>
-      <c r="C2" s="112"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="99"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -23323,20 +23341,20 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="AB7" s="107" t="s">
+      <c r="AB7" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="AC7" s="108"/>
+      <c r="AC7" s="97"/>
       <c r="AD7" s="50"/>
-      <c r="AI7" s="107" t="s">
+      <c r="AI7" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="108"/>
+      <c r="AJ7" s="97"/>
       <c r="AK7" s="50"/>
-      <c r="AP7" s="107" t="s">
+      <c r="AP7" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="AQ7" s="108"/>
+      <c r="AQ7" s="97"/>
       <c r="AR7" s="50"/>
     </row>
     <row r="8" spans="2:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -23346,12 +23364,12 @@
       <c r="S8" s="65"/>
       <c r="T8" s="66"/>
       <c r="U8" s="2"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="112"/>
-      <c r="AI8" s="111"/>
-      <c r="AJ8" s="112"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="112"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="99"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="99"/>
+      <c r="AP8" s="98"/>
+      <c r="AQ8" s="99"/>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.3">
       <c r="E9" s="46" t="s">
@@ -23461,7 +23479,7 @@
         <f>'W''keitsbaum'!S9</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="L13" s="135" t="s">
+      <c r="L13" s="134" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="59" t="s">
@@ -23518,7 +23536,7 @@
       <c r="AB13" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AC13" s="135" t="s">
+      <c r="AC13" s="134" t="s">
         <v>4</v>
       </c>
       <c r="AD13" s="59" t="s">
@@ -23535,7 +23553,7 @@
       <c r="AI13" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AJ13" s="135" t="s">
+      <c r="AJ13" s="134" t="s">
         <v>4</v>
       </c>
       <c r="AK13" s="59" t="s">
@@ -23552,7 +23570,7 @@
       <c r="AP13" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AQ13" s="135" t="s">
+      <c r="AQ13" s="134" t="s">
         <v>4</v>
       </c>
       <c r="AR13" s="59" t="s">
@@ -23572,7 +23590,7 @@
         <f>'W''keitsbaum'!S12</f>
         <v>0.14374999999999999</v>
       </c>
-      <c r="L14" s="136"/>
+      <c r="L14" s="135"/>
       <c r="M14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23627,7 +23645,7 @@
       <c r="AB14" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AC14" s="136"/>
+      <c r="AC14" s="135"/>
       <c r="AD14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23642,7 +23660,7 @@
       <c r="AI14" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AJ14" s="136"/>
+      <c r="AJ14" s="135"/>
       <c r="AK14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23657,7 +23675,7 @@
       <c r="AP14" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AQ14" s="136"/>
+      <c r="AQ14" s="135"/>
       <c r="AR14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23675,7 +23693,7 @@
         <f>'W''keitsbaum'!S15</f>
         <v>9.375E-2</v>
       </c>
-      <c r="L15" s="137"/>
+      <c r="L15" s="136"/>
       <c r="M15" s="57" t="s">
         <v>16</v>
       </c>
@@ -23730,7 +23748,7 @@
       <c r="AB15" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AC15" s="137"/>
+      <c r="AC15" s="136"/>
       <c r="AD15" s="57" t="s">
         <v>16</v>
       </c>
@@ -23745,7 +23763,7 @@
       <c r="AI15" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AJ15" s="137"/>
+      <c r="AJ15" s="136"/>
       <c r="AK15" s="57" t="s">
         <v>16</v>
       </c>
@@ -23760,7 +23778,7 @@
       <c r="AP15" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AQ15" s="137"/>
+      <c r="AQ15" s="136"/>
       <c r="AR15" s="57" t="s">
         <v>16</v>
       </c>
@@ -24416,7 +24434,7 @@
       <c r="K25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="L25" s="135" t="s">
+      <c r="L25" s="134" t="s">
         <v>23</v>
       </c>
       <c r="M25" s="57" t="s">
@@ -24473,7 +24491,7 @@
       <c r="AB25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AC25" s="135" t="s">
+      <c r="AC25" s="134" t="s">
         <v>23</v>
       </c>
       <c r="AD25" s="57" t="s">
@@ -24490,7 +24508,7 @@
       <c r="AI25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AJ25" s="135" t="s">
+      <c r="AJ25" s="134" t="s">
         <v>23</v>
       </c>
       <c r="AK25" s="57" t="s">
@@ -24507,7 +24525,7 @@
       <c r="AP25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AQ25" s="135" t="s">
+      <c r="AQ25" s="134" t="s">
         <v>23</v>
       </c>
       <c r="AR25" s="57" t="s">
@@ -24526,7 +24544,7 @@
       <c r="K26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="L26" s="136"/>
+      <c r="L26" s="135"/>
       <c r="M26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24581,7 +24599,7 @@
       <c r="AB26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AC26" s="136"/>
+      <c r="AC26" s="135"/>
       <c r="AD26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24596,7 +24614,7 @@
       <c r="AI26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AJ26" s="136"/>
+      <c r="AJ26" s="135"/>
       <c r="AK26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24611,7 +24629,7 @@
       <c r="AP26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AQ26" s="136"/>
+      <c r="AQ26" s="135"/>
       <c r="AR26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24628,7 +24646,7 @@
       <c r="K27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="L27" s="137"/>
+      <c r="L27" s="136"/>
       <c r="M27" s="57" t="s">
         <v>16</v>
       </c>
@@ -24683,7 +24701,7 @@
       <c r="AB27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AC27" s="137"/>
+      <c r="AC27" s="136"/>
       <c r="AD27" s="57" t="s">
         <v>16</v>
       </c>
@@ -24698,7 +24716,7 @@
       <c r="AI27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AJ27" s="137"/>
+      <c r="AJ27" s="136"/>
       <c r="AK27" s="57" t="s">
         <v>16</v>
       </c>
@@ -24713,7 +24731,7 @@
       <c r="AP27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AQ27" s="137"/>
+      <c r="AQ27" s="136"/>
       <c r="AR27" s="57" t="s">
         <v>16</v>
       </c>
@@ -25353,7 +25371,7 @@
       <c r="K37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="L37" s="135" t="s">
+      <c r="L37" s="134" t="s">
         <v>24</v>
       </c>
       <c r="M37" s="57" t="s">
@@ -25410,7 +25428,7 @@
       <c r="AB37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AC37" s="135" t="s">
+      <c r="AC37" s="134" t="s">
         <v>24</v>
       </c>
       <c r="AD37" s="57" t="s">
@@ -25427,7 +25445,7 @@
       <c r="AI37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AJ37" s="135" t="s">
+      <c r="AJ37" s="134" t="s">
         <v>24</v>
       </c>
       <c r="AK37" s="57" t="s">
@@ -25444,7 +25462,7 @@
       <c r="AP37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AQ37" s="135" t="s">
+      <c r="AQ37" s="134" t="s">
         <v>24</v>
       </c>
       <c r="AR37" s="57" t="s">
@@ -25463,7 +25481,7 @@
       <c r="K38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="L38" s="136"/>
+      <c r="L38" s="135"/>
       <c r="M38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25518,7 +25536,7 @@
       <c r="AB38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AC38" s="136"/>
+      <c r="AC38" s="135"/>
       <c r="AD38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25533,7 +25551,7 @@
       <c r="AI38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AJ38" s="136"/>
+      <c r="AJ38" s="135"/>
       <c r="AK38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25548,7 +25566,7 @@
       <c r="AP38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AQ38" s="136"/>
+      <c r="AQ38" s="135"/>
       <c r="AR38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25565,7 +25583,7 @@
       <c r="K39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="L39" s="137"/>
+      <c r="L39" s="136"/>
       <c r="M39" s="57" t="s">
         <v>16</v>
       </c>
@@ -25620,7 +25638,7 @@
       <c r="AB39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AC39" s="137"/>
+      <c r="AC39" s="136"/>
       <c r="AD39" s="57" t="s">
         <v>16</v>
       </c>
@@ -25635,7 +25653,7 @@
       <c r="AI39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AJ39" s="137"/>
+      <c r="AJ39" s="136"/>
       <c r="AK39" s="57" t="s">
         <v>16</v>
       </c>
@@ -25650,7 +25668,7 @@
       <c r="AP39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AQ39" s="137"/>
+      <c r="AQ39" s="136"/>
       <c r="AR39" s="57" t="s">
         <v>16</v>
       </c>
@@ -26287,43 +26305,43 @@
     </row>
     <row r="50" spans="9:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="51" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AB51" s="107" t="s">
+      <c r="AB51" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="AC51" s="123"/>
-      <c r="AD51" s="108"/>
-      <c r="AI51" s="107" t="s">
+      <c r="AC51" s="132"/>
+      <c r="AD51" s="97"/>
+      <c r="AI51" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="AJ51" s="123"/>
-      <c r="AK51" s="108"/>
-      <c r="AP51" s="107" t="s">
+      <c r="AJ51" s="132"/>
+      <c r="AK51" s="97"/>
+      <c r="AP51" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="AQ51" s="123"/>
-      <c r="AR51" s="108"/>
+      <c r="AQ51" s="132"/>
+      <c r="AR51" s="97"/>
     </row>
     <row r="52" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AB52" s="109"/>
-      <c r="AC52" s="134"/>
-      <c r="AD52" s="110"/>
-      <c r="AI52" s="109"/>
-      <c r="AJ52" s="134"/>
-      <c r="AK52" s="110"/>
-      <c r="AP52" s="109"/>
-      <c r="AQ52" s="134"/>
-      <c r="AR52" s="110"/>
+      <c r="AB52" s="100"/>
+      <c r="AC52" s="137"/>
+      <c r="AD52" s="101"/>
+      <c r="AI52" s="100"/>
+      <c r="AJ52" s="137"/>
+      <c r="AK52" s="101"/>
+      <c r="AP52" s="100"/>
+      <c r="AQ52" s="137"/>
+      <c r="AR52" s="101"/>
     </row>
     <row r="53" spans="9:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB53" s="111"/>
-      <c r="AC53" s="124"/>
-      <c r="AD53" s="112"/>
-      <c r="AI53" s="111"/>
-      <c r="AJ53" s="124"/>
-      <c r="AK53" s="112"/>
-      <c r="AP53" s="111"/>
-      <c r="AQ53" s="124"/>
-      <c r="AR53" s="112"/>
+      <c r="AB53" s="98"/>
+      <c r="AC53" s="133"/>
+      <c r="AD53" s="99"/>
+      <c r="AI53" s="98"/>
+      <c r="AJ53" s="133"/>
+      <c r="AK53" s="99"/>
+      <c r="AP53" s="98"/>
+      <c r="AQ53" s="133"/>
+      <c r="AR53" s="99"/>
     </row>
     <row r="54" spans="9:47" x14ac:dyDescent="0.3">
       <c r="I54" s="5"/>
@@ -26436,8 +26454,8 @@
         <f>AF35</f>
         <v>748204.16237870441</v>
       </c>
-      <c r="AF59" s="113"/>
-      <c r="AG59" s="113"/>
+      <c r="AF59" s="107"/>
+      <c r="AG59" s="107"/>
       <c r="AJ59" t="s">
         <v>23</v>
       </c>
@@ -26482,8 +26500,8 @@
         <f>AF47</f>
         <v>748204.16237870441</v>
       </c>
-      <c r="AF60" s="113"/>
-      <c r="AG60" s="113"/>
+      <c r="AF60" s="107"/>
+      <c r="AG60" s="107"/>
       <c r="AJ60" t="s">
         <v>24</v>
       </c>
@@ -26518,16 +26536,16 @@
       <c r="AU60" s="5"/>
     </row>
     <row r="61" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AF61" s="113"/>
-      <c r="AG61" s="113"/>
+      <c r="AF61" s="107"/>
+      <c r="AG61" s="107"/>
       <c r="AM61" s="5"/>
       <c r="AN61" s="5"/>
       <c r="AT61" s="5"/>
       <c r="AU61" s="5"/>
     </row>
     <row r="62" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AF62" s="113"/>
-      <c r="AG62" s="113"/>
+      <c r="AF62" s="107"/>
+      <c r="AG62" s="107"/>
       <c r="AM62" s="5"/>
       <c r="AN62" s="5"/>
       <c r="AT62" s="5"/>
@@ -26535,17 +26553,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="AQ13:AQ15"/>
-    <mergeCell ref="AQ25:AQ27"/>
-    <mergeCell ref="AQ37:AQ39"/>
-    <mergeCell ref="AP51:AR53"/>
-    <mergeCell ref="AF59:AG62"/>
-    <mergeCell ref="AI51:AK53"/>
-    <mergeCell ref="AI7:AJ8"/>
-    <mergeCell ref="AJ13:AJ15"/>
-    <mergeCell ref="AJ25:AJ27"/>
-    <mergeCell ref="AJ37:AJ39"/>
     <mergeCell ref="AB51:AD53"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="L25:L27"/>
@@ -26555,6 +26562,17 @@
     <mergeCell ref="AC13:AC15"/>
     <mergeCell ref="AC25:AC27"/>
     <mergeCell ref="AC37:AC39"/>
+    <mergeCell ref="AF59:AG62"/>
+    <mergeCell ref="AI51:AK53"/>
+    <mergeCell ref="AI7:AJ8"/>
+    <mergeCell ref="AJ13:AJ15"/>
+    <mergeCell ref="AJ25:AJ27"/>
+    <mergeCell ref="AJ37:AJ39"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="AQ13:AQ15"/>
+    <mergeCell ref="AQ25:AQ27"/>
+    <mergeCell ref="AQ37:AQ39"/>
+    <mergeCell ref="AP51:AR53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/09-Excell/W'keitsbaum - Z0.xlsx
+++ b/09-Excell/W'keitsbaum - Z0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="W'keitsbaum" sheetId="6" r:id="rId1"/>
@@ -1458,11 +1458,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="480509544"/>
-        <c:axId val="480512680"/>
+        <c:axId val="197590864"/>
+        <c:axId val="197591256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="480509544"/>
+        <c:axId val="197590864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1505,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480512680"/>
+        <c:crossAx val="197591256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1513,7 +1513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480512680"/>
+        <c:axId val="197591256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1564,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480509544"/>
+        <c:crossAx val="197590864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2066,8 +2066,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="480448520"/>
-        <c:axId val="480453224"/>
+        <c:axId val="444518768"/>
+        <c:axId val="444520728"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2193,7 +2193,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="480448520"/>
+        <c:axId val="444518768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,7 +2203,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480453224"/>
+        <c:crossAx val="444520728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2211,7 +2211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480453224"/>
+        <c:axId val="444520728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,7 +2262,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480448520"/>
+        <c:crossAx val="444518768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2805,11 +2805,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="480449696"/>
-        <c:axId val="480451656"/>
+        <c:axId val="444519160"/>
+        <c:axId val="443422072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="480449696"/>
+        <c:axId val="444519160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,7 +2819,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480451656"/>
+        <c:crossAx val="443422072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2827,7 +2827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480451656"/>
+        <c:axId val="443422072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,7 +2878,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480449696"/>
+        <c:crossAx val="444519160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3228,11 +3228,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="480455184"/>
-        <c:axId val="480455576"/>
+        <c:axId val="443424032"/>
+        <c:axId val="443423640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="480455184"/>
+        <c:axId val="443424032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,7 +3275,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480455576"/>
+        <c:crossAx val="443423640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3283,7 +3283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480455576"/>
+        <c:axId val="443423640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,7 +3334,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480455184"/>
+        <c:crossAx val="443424032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3899,11 +3899,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="480455968"/>
-        <c:axId val="480454008"/>
+        <c:axId val="443424424"/>
+        <c:axId val="443427560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="480455968"/>
+        <c:axId val="443424424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3913,7 +3913,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480454008"/>
+        <c:crossAx val="443427560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3921,7 +3921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480454008"/>
+        <c:axId val="443427560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3972,7 +3972,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480455968"/>
+        <c:crossAx val="443424424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4322,11 +4322,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="480454400"/>
-        <c:axId val="480452048"/>
+        <c:axId val="443426776"/>
+        <c:axId val="443421680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="480454400"/>
+        <c:axId val="443426776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4369,7 +4369,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480452048"/>
+        <c:crossAx val="443421680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4377,7 +4377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480452048"/>
+        <c:axId val="443421680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4428,7 +4428,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480454400"/>
+        <c:crossAx val="443426776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4859,8 +4859,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="74464328"/>
-        <c:axId val="508488664"/>
+        <c:axId val="443425208"/>
+        <c:axId val="443420896"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -4999,7 +4999,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74464328"/>
+        <c:axId val="443425208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5042,7 +5042,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508488664"/>
+        <c:crossAx val="443420896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5050,7 +5050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="508488664"/>
+        <c:axId val="443420896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5101,7 +5101,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74464328"/>
+        <c:crossAx val="443425208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5518,11 +5518,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="480515816"/>
-        <c:axId val="480509152"/>
+        <c:axId val="197586552"/>
+        <c:axId val="197586944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="480515816"/>
+        <c:axId val="197586552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5565,7 +5565,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480509152"/>
+        <c:crossAx val="197586944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5573,7 +5573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480509152"/>
+        <c:axId val="197586944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5624,7 +5624,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480515816"/>
+        <c:crossAx val="197586552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200000000"/>
@@ -5998,11 +5998,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="480516208"/>
-        <c:axId val="480511112"/>
+        <c:axId val="197590080"/>
+        <c:axId val="197585768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="480516208"/>
+        <c:axId val="197590080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6045,7 +6045,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480511112"/>
+        <c:crossAx val="197585768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6053,7 +6053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480511112"/>
+        <c:axId val="197585768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6104,7 +6104,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480516208"/>
+        <c:crossAx val="197590080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6647,11 +6647,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="480512288"/>
-        <c:axId val="480511896"/>
+        <c:axId val="197586160"/>
+        <c:axId val="197589296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="480512288"/>
+        <c:axId val="197586160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6661,7 +6661,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480511896"/>
+        <c:crossAx val="197589296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6669,7 +6669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480511896"/>
+        <c:axId val="197589296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6720,7 +6720,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480512288"/>
+        <c:crossAx val="197586160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7136,11 +7136,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="74458840"/>
-        <c:axId val="74464720"/>
+        <c:axId val="444522688"/>
+        <c:axId val="444524648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74458840"/>
+        <c:axId val="444522688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7183,7 +7183,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74464720"/>
+        <c:crossAx val="444524648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7191,7 +7191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74464720"/>
+        <c:axId val="444524648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7242,7 +7242,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74458840"/>
+        <c:crossAx val="444522688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7860,11 +7860,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="74463152"/>
-        <c:axId val="74463544"/>
+        <c:axId val="444520336"/>
+        <c:axId val="444525824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74463152"/>
+        <c:axId val="444520336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7874,7 +7874,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74463544"/>
+        <c:crossAx val="444525824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7882,7 +7882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74463544"/>
+        <c:axId val="444525824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7933,7 +7933,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74463152"/>
+        <c:crossAx val="444520336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8555,11 +8555,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="74457664"/>
-        <c:axId val="74460016"/>
+        <c:axId val="444523080"/>
+        <c:axId val="444521120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74457664"/>
+        <c:axId val="444523080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8569,7 +8569,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74460016"/>
+        <c:crossAx val="444521120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8577,7 +8577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74460016"/>
+        <c:axId val="444521120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8628,7 +8628,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74457664"/>
+        <c:crossAx val="444523080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9252,11 +9252,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="74459232"/>
-        <c:axId val="328484240"/>
+        <c:axId val="444524256"/>
+        <c:axId val="444518376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74459232"/>
+        <c:axId val="444524256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9266,7 +9266,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="328484240"/>
+        <c:crossAx val="444518376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9274,7 +9274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328484240"/>
+        <c:axId val="444518376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9325,7 +9325,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74459232"/>
+        <c:crossAx val="444524256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9944,11 +9944,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="480450088"/>
-        <c:axId val="480454792"/>
+        <c:axId val="444523472"/>
+        <c:axId val="444522296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="480450088"/>
+        <c:axId val="444523472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9958,7 +9958,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480454792"/>
+        <c:crossAx val="444522296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9966,7 +9966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480454792"/>
+        <c:axId val="444522296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10017,7 +10017,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480450088"/>
+        <c:crossAx val="444523472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18319,10 +18319,10 @@
       <xdr:rowOff>110067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>1388533</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>57509</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35944</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20826,8 +20826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU61"/>
   <sheetViews>
-    <sheetView topLeftCell="AV4" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BI14" sqref="BI14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AU22" sqref="AU22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23062,8 +23062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AV62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ67" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="V12" workbookViewId="0">
+      <selection activeCell="AW64" sqref="AW64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/09-Excell/W'keitsbaum - Z0.xlsx
+++ b/09-Excell/W'keitsbaum - Z0.xlsx
@@ -270,12 +270,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="&quot;CHF&quot;\ #,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="168" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -795,7 +794,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -958,8 +957,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -982,66 +979,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1087,6 +1025,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,6 +1085,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1123,9 +1124,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1458,11 +1458,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="197590864"/>
-        <c:axId val="197591256"/>
+        <c:axId val="189901384"/>
+        <c:axId val="189904128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197590864"/>
+        <c:axId val="189901384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1505,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197591256"/>
+        <c:crossAx val="189904128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1513,7 +1513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197591256"/>
+        <c:axId val="189904128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1564,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197590864"/>
+        <c:crossAx val="189901384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1637,7 +1637,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2066,8 +2066,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="444518768"/>
-        <c:axId val="444520728"/>
+        <c:axId val="441518176"/>
+        <c:axId val="441513080"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2193,7 +2193,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444518768"/>
+        <c:axId val="441518176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,7 +2203,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444520728"/>
+        <c:crossAx val="441513080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2211,7 +2211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444520728"/>
+        <c:axId val="441513080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,7 +2262,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444518768"/>
+        <c:crossAx val="441518176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2805,11 +2805,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="444519160"/>
-        <c:axId val="443422072"/>
+        <c:axId val="441514648"/>
+        <c:axId val="441515432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444519160"/>
+        <c:axId val="441514648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,7 +2819,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443422072"/>
+        <c:crossAx val="441515432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2827,7 +2827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443422072"/>
+        <c:axId val="441515432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,7 +2878,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444519160"/>
+        <c:crossAx val="441514648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3228,11 +3228,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="443424032"/>
-        <c:axId val="443423640"/>
+        <c:axId val="441515040"/>
+        <c:axId val="442111440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443424032"/>
+        <c:axId val="441515040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,7 +3275,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443423640"/>
+        <c:crossAx val="442111440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3283,7 +3283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443423640"/>
+        <c:axId val="442111440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,7 +3334,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443424032"/>
+        <c:crossAx val="441515040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3899,11 +3899,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="443424424"/>
-        <c:axId val="443427560"/>
+        <c:axId val="442109872"/>
+        <c:axId val="442115360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443424424"/>
+        <c:axId val="442109872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3913,7 +3913,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443427560"/>
+        <c:crossAx val="442115360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3921,7 +3921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443427560"/>
+        <c:axId val="442115360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3972,7 +3972,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443424424"/>
+        <c:crossAx val="442109872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4322,11 +4322,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="443426776"/>
-        <c:axId val="443421680"/>
+        <c:axId val="442114184"/>
+        <c:axId val="442112224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443426776"/>
+        <c:axId val="442114184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4369,7 +4369,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443421680"/>
+        <c:crossAx val="442112224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4377,7 +4377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443421680"/>
+        <c:axId val="442112224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4428,7 +4428,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443426776"/>
+        <c:crossAx val="442114184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4859,8 +4859,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="443425208"/>
-        <c:axId val="443420896"/>
+        <c:axId val="442114968"/>
+        <c:axId val="442110264"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -4999,7 +4999,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443425208"/>
+        <c:axId val="442114968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5042,7 +5042,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443420896"/>
+        <c:crossAx val="442110264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5050,7 +5050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443420896"/>
+        <c:axId val="442110264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5101,7 +5101,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443425208"/>
+        <c:crossAx val="442114968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5235,7 +5235,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> der Varianten - Vergleich der Zustände</a:t>
+              <a:t> der Varianten - Vergleich der Zustände 1 bis 3</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:solidFill>
@@ -5318,47 +5318,49 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'W''keitsbaum'!$AQ$4:$AU$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'W''keitsbaum'!$AQ$4:$AU$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'W''keitsbaum'!$AR$4:$AT$4</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 0</c:v>
+                  <c:v>Zustand 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Zustand 1</c:v>
+                  <c:v>Zustand 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Zustand 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Zustand 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Zustand 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'W''keitsbaum'!$AQ$5:$AU$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'W''keitsbaum'!$AQ$5:$AU$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'W''keitsbaum'!$AR$5:$AT$5</c:f>
               <c:numCache>
                 <c:formatCode>"CHF"\ #,##0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>721370010.22099483</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>721206455.33757484</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>721370010.22099483</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>721206455.33757484</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>761086367.56332517</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>721206455.33757484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5390,47 +5392,49 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'W''keitsbaum'!$AQ$4:$AU$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'W''keitsbaum'!$AQ$4:$AU$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'W''keitsbaum'!$AR$4:$AT$4</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 0</c:v>
+                  <c:v>Zustand 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Zustand 1</c:v>
+                  <c:v>Zustand 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Zustand 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Zustand 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Zustand 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'W''keitsbaum'!$AQ$6:$AU$6</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'W''keitsbaum'!$AQ$6:$AU$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'W''keitsbaum'!$AR$6:$AT$6</c:f>
               <c:numCache>
                 <c:formatCode>"CHF"\ #,##0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>683460615.60205793</c:v>
+                  <c:v>683624170.48547816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>683624170.48547816</c:v>
+                  <c:v>683556530.23310637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>683556530.23310637</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>721170719.25956202</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>683460615.60205793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5462,47 +5466,49 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'W''keitsbaum'!$AQ$4:$AU$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'W''keitsbaum'!$AQ$4:$AU$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'W''keitsbaum'!$AR$4:$AT$4</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 0</c:v>
+                  <c:v>Zustand 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Zustand 1</c:v>
+                  <c:v>Zustand 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Zustand 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Zustand 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Zustand 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'W''keitsbaum'!$AQ$7:$AU$7</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'W''keitsbaum'!$AQ$7:$AU$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'W''keitsbaum'!$AR$7:$AT$7</c:f>
               <c:numCache>
                 <c:formatCode>"CHF"\ #,##0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>941116798.40938354</c:v>
+                  <c:v>941280353.29280353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>941280353.29280353</c:v>
+                  <c:v>940986978.60260463</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>940986978.60260463</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>993110930.55332208</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>683422520.4341836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5518,11 +5524,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="197586552"/>
-        <c:axId val="197586944"/>
+        <c:axId val="189902952"/>
+        <c:axId val="189906872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197586552"/>
+        <c:axId val="189902952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5565,7 +5571,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197586944"/>
+        <c:crossAx val="189906872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5573,7 +5579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197586944"/>
+        <c:axId val="189906872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5624,7 +5630,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197586552"/>
+        <c:crossAx val="189902952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200000000"/>
@@ -5705,7 +5711,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5998,11 +6004,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="197590080"/>
-        <c:axId val="197585768"/>
+        <c:axId val="189902168"/>
+        <c:axId val="189904912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197590080"/>
+        <c:axId val="189902168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6045,7 +6051,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197585768"/>
+        <c:crossAx val="189904912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6053,7 +6059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197585768"/>
+        <c:axId val="189904912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6104,7 +6110,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197590080"/>
+        <c:crossAx val="189902168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6647,11 +6653,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="197586160"/>
-        <c:axId val="197589296"/>
+        <c:axId val="189908048"/>
+        <c:axId val="189900992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197586160"/>
+        <c:axId val="189908048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6661,7 +6667,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197589296"/>
+        <c:crossAx val="189900992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6669,7 +6675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197589296"/>
+        <c:axId val="189900992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6720,7 +6726,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197586160"/>
+        <c:crossAx val="189908048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6802,7 +6808,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -7136,11 +7142,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="444522688"/>
-        <c:axId val="444524648"/>
+        <c:axId val="189900600"/>
+        <c:axId val="189901776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444522688"/>
+        <c:axId val="189900600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7183,7 +7189,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444524648"/>
+        <c:crossAx val="189901776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7191,7 +7197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444524648"/>
+        <c:axId val="189901776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7242,7 +7248,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444522688"/>
+        <c:crossAx val="189900600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7315,7 +7321,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -7860,11 +7866,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="444520336"/>
-        <c:axId val="444525824"/>
+        <c:axId val="441516216"/>
+        <c:axId val="441515824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444520336"/>
+        <c:axId val="441516216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7874,7 +7880,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444525824"/>
+        <c:crossAx val="441515824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7882,7 +7888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444525824"/>
+        <c:axId val="441515824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7933,7 +7939,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444520336"/>
+        <c:crossAx val="441516216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8015,7 +8021,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -8555,11 +8561,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="444523080"/>
-        <c:axId val="444521120"/>
+        <c:axId val="441517000"/>
+        <c:axId val="441518960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444523080"/>
+        <c:axId val="441517000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8569,7 +8575,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444521120"/>
+        <c:crossAx val="441518960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8577,7 +8583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444521120"/>
+        <c:axId val="441518960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8628,7 +8634,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444523080"/>
+        <c:crossAx val="441517000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8710,7 +8716,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -9252,11 +9258,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="444524256"/>
-        <c:axId val="444518376"/>
+        <c:axId val="441517392"/>
+        <c:axId val="441517784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444524256"/>
+        <c:axId val="441517392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9266,7 +9272,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444518376"/>
+        <c:crossAx val="441517784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9274,7 +9280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444518376"/>
+        <c:axId val="441517784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9325,7 +9331,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444524256"/>
+        <c:crossAx val="441517392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9765,6 +9771,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5994256304612629E-2"/>
+                  <c:y val="-6.8960642118527868E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -9944,11 +9971,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="444523472"/>
-        <c:axId val="444522296"/>
+        <c:axId val="441513864"/>
+        <c:axId val="441512296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444523472"/>
+        <c:axId val="441513864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9958,7 +9985,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444522296"/>
+        <c:crossAx val="441512296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9966,7 +9993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444522296"/>
+        <c:axId val="441512296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10017,7 +10044,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444523472"/>
+        <c:crossAx val="441513864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10099,7 +10126,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -19753,6 +19780,7 @@
       <sheetName val="SB3-SU2"/>
       <sheetName val="SB3-SU3"/>
       <sheetName val="Show File"/>
+      <sheetName val="DTV-Show-File"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -19954,6 +19982,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -20190,6 +20219,7 @@
       <sheetName val="SB3-SU1"/>
       <sheetName val="SB3-SU2"/>
       <sheetName val="SB3-SU3"/>
+      <sheetName val="Kosten PDF-Generator"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -20390,6 +20420,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -20826,8 +20857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AU22" sqref="AU22"/>
+    <sheetView tabSelected="1" topLeftCell="AO7" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AR27" sqref="AR27:AS29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20861,49 +20892,49 @@
   <sheetData>
     <row r="1" spans="2:47" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:47" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="112"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="6"/>
-      <c r="AP2" s="96" t="s">
+      <c r="AP2" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="AQ2" s="97"/>
+      <c r="AQ2" s="107"/>
     </row>
     <row r="3" spans="2:47" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="113"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="115"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="6"/>
-      <c r="W3" s="96" t="s">
+      <c r="W3" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="96" t="s">
+      <c r="X3" s="107"/>
+      <c r="Y3" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="96" t="s">
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="97"/>
+      <c r="AB3" s="107"/>
       <c r="AC3" s="34"/>
-      <c r="AP3" s="98"/>
-      <c r="AQ3" s="99"/>
+      <c r="AP3" s="110"/>
+      <c r="AQ3" s="111"/>
     </row>
     <row r="4" spans="2:47" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="6"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="101"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="109"/>
       <c r="AC4" s="34"/>
       <c r="AQ4" s="31" t="s">
         <v>29</v>
@@ -20922,32 +20953,32 @@
       </c>
     </row>
     <row r="5" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="127"/>
-      <c r="I5" s="128"/>
-      <c r="L5" s="125" t="s">
+      <c r="H5" s="117"/>
+      <c r="I5" s="118"/>
+      <c r="L5" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="Q5" s="96" t="s">
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="Q5" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="132"/>
-      <c r="S5" s="132"/>
-      <c r="T5" s="97"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="99"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="107"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="111"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="111"/>
       <c r="AC5" s="34"/>
       <c r="AP5" t="s">
         <v>4</v>
@@ -20978,16 +21009,16 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="99"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="121"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="111"/>
       <c r="AC6" s="36"/>
       <c r="AP6" t="s">
         <v>23</v>
@@ -21014,7 +21045,7 @@
       </c>
     </row>
     <row r="7" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V7" s="93"/>
+      <c r="V7" s="114"/>
       <c r="W7" s="42" t="s">
         <v>6</v>
       </c>
@@ -21065,25 +21096,25 @@
       </c>
     </row>
     <row r="8" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="120"/>
+      <c r="C8" s="99"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="91"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="127"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="127"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="127"/>
       <c r="AC8" s="32"/>
     </row>
     <row r="9" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="121"/>
-      <c r="C9" s="122"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="30" t="str">
         <f>IF(X35&lt;Z35,"Variante 1",IF(Z35&lt;AB35,"Variante 2","Variante 3"))</f>
         <v>Variante 2</v>
@@ -21118,7 +21149,7 @@
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="93"/>
+      <c r="V9" s="114"/>
       <c r="W9" s="27">
         <f>'[5]SB1-SU1'!$AD$56</f>
         <v>657121111.05117357</v>
@@ -21163,30 +21194,30 @@
       <c r="AT9" s="31"/>
     </row>
     <row r="10" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="123"/>
-      <c r="C10" s="124"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="93"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="114"/>
       <c r="AC10" s="32"/>
       <c r="AD10" s="23" t="s">
         <v>15</v>
@@ -21206,27 +21237,27 @@
     </row>
     <row r="11" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="3"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="93"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="113"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="114"/>
       <c r="AC11" s="32"/>
       <c r="AD11" s="23" t="s">
         <v>16</v>
@@ -21246,10 +21277,10 @@
     </row>
     <row r="12" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
       <c r="L12" s="16"/>
       <c r="M12" s="14"/>
       <c r="N12" s="17" t="s">
@@ -21269,7 +21300,7 @@
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="93"/>
+      <c r="V12" s="114"/>
       <c r="W12" s="27">
         <f>'[5]SB1-SU2'!$AD$56</f>
         <v>657388000.59881794</v>
@@ -21309,27 +21340,27 @@
     </row>
     <row r="13" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G13" s="3"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="93"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="114"/>
       <c r="AC13" s="32"/>
       <c r="AD13" s="23" t="s">
         <v>21</v>
@@ -21345,27 +21376,27 @@
     </row>
     <row r="14" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="3"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="93"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="114"/>
       <c r="AC14" s="32"/>
       <c r="AD14" s="23" t="s">
         <v>20</v>
@@ -21381,10 +21412,10 @@
     </row>
     <row r="15" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
       <c r="L15" s="16"/>
       <c r="M15" s="14"/>
       <c r="N15" s="17" t="s">
@@ -21404,7 +21435,7 @@
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="93"/>
+      <c r="V15" s="114"/>
       <c r="W15" s="27">
         <f>'[5]SB1-SU3'!$AD$56</f>
         <v>657654890.1464901</v>
@@ -21444,27 +21475,27 @@
     </row>
     <row r="16" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16" s="3"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="91"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="91"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="91"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="112"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="126"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="126"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="126"/>
+      <c r="AB16" s="127"/>
       <c r="AC16" s="32"/>
       <c r="AD16" s="23" t="s">
         <v>18</v>
@@ -21480,27 +21511,27 @@
     </row>
     <row r="17" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="3"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="93"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="114"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="114"/>
       <c r="AC17" s="32"/>
       <c r="AD17" s="23" t="s">
         <v>19</v>
@@ -21543,7 +21574,7 @@
       </c>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="93"/>
+      <c r="V18" s="114"/>
       <c r="W18" s="27">
         <f>'[5]SB2-SU1'!$AD$56</f>
         <v>720852183.57174861</v>
@@ -21572,52 +21603,52 @@
     </row>
     <row r="19" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G19" s="3"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="91"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="91"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="91"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="126"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="126"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="126"/>
+      <c r="AB19" s="127"/>
       <c r="AC19" s="32"/>
     </row>
     <row r="20" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="3"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="93"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="113"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="114"/>
       <c r="AC20" s="32" t="s">
         <v>27</v>
       </c>
@@ -21635,10 +21666,10 @@
     </row>
     <row r="21" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
       <c r="L21" s="16"/>
       <c r="M21" s="13"/>
       <c r="N21" s="17" t="s">
@@ -21658,7 +21689,7 @@
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="93"/>
+      <c r="V21" s="114"/>
       <c r="W21" s="27">
         <f>'[5]SB2-SU2'!$AD$56</f>
         <v>721119073.11995208</v>
@@ -21698,27 +21729,27 @@
     </row>
     <row r="22" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="3"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="91"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="91"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="126"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="126"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="126"/>
+      <c r="AB22" s="127"/>
       <c r="AC22" s="32"/>
       <c r="AD22" s="23" t="s">
         <v>16</v>
@@ -21734,27 +21765,27 @@
     </row>
     <row r="23" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="3"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="92"/>
-      <c r="AB23" s="93"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="114"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="114"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="114"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="114"/>
       <c r="AC23" s="32"/>
       <c r="AD23" s="21" t="s">
         <v>22</v>
@@ -21770,10 +21801,10 @@
     </row>
     <row r="24" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
       <c r="L24" s="16"/>
       <c r="M24" s="13"/>
       <c r="N24" s="17" t="s">
@@ -21793,7 +21824,7 @@
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="93"/>
+      <c r="V24" s="114"/>
       <c r="W24" s="27">
         <f>'[5]SB2-SU3'!$AD$56</f>
         <v>721385962.66819298</v>
@@ -21833,27 +21864,27 @@
     </row>
     <row r="25" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="3"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="108"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="108"/>
-      <c r="U25" s="108"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="91"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="91"/>
-      <c r="AA25" s="90"/>
-      <c r="AB25" s="91"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="124"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="124"/>
+      <c r="V25" s="114"/>
+      <c r="W25" s="126"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="126"/>
+      <c r="Z25" s="127"/>
+      <c r="AA25" s="126"/>
+      <c r="AB25" s="127"/>
       <c r="AC25" s="32"/>
       <c r="AD25" s="23" t="s">
         <v>20</v>
@@ -21892,27 +21923,27 @@
     </row>
     <row r="26" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="3"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="109"/>
-      <c r="U26" s="109"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="92"/>
-      <c r="AB26" s="93"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="125"/>
+      <c r="U26" s="125"/>
+      <c r="V26" s="114"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="114"/>
+      <c r="Y26" s="113"/>
+      <c r="Z26" s="114"/>
+      <c r="AA26" s="113"/>
+      <c r="AB26" s="114"/>
       <c r="AC26" s="32"/>
       <c r="AD26" s="21" t="s">
         <v>17</v>
@@ -21955,7 +21986,7 @@
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="93"/>
+      <c r="V27" s="114"/>
       <c r="W27" s="27">
         <f>'[5]SB3-SU1'!$AD$56</f>
         <v>784585828.54977763</v>
@@ -21995,22 +22026,22 @@
       <c r="AP27" t="s">
         <v>4</v>
       </c>
-      <c r="AQ27" s="102" t="s">
+      <c r="AQ27" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="AR27" s="74">
+      <c r="AR27" s="137">
         <f>(AR5-$AQ$5)/$AQ$5</f>
         <v>2.267795611222524E-4</v>
       </c>
-      <c r="AS27" s="74">
+      <c r="AS27" s="137">
         <f t="shared" ref="AS27:AU27" si="0">(AS5-$AQ$5)/$AQ$5</f>
         <v>0</v>
       </c>
-      <c r="AT27" s="74">
+      <c r="AT27" s="137">
         <f t="shared" si="0"/>
         <v>5.529611102424721E-2</v>
       </c>
-      <c r="AU27" s="74">
+      <c r="AU27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22019,22 +22050,22 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="93"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="91"/>
-      <c r="Y28" s="90"/>
-      <c r="Z28" s="91"/>
-      <c r="AA28" s="90"/>
-      <c r="AB28" s="91"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="114"/>
+      <c r="W28" s="126"/>
+      <c r="X28" s="127"/>
+      <c r="Y28" s="126"/>
+      <c r="Z28" s="127"/>
+      <c r="AA28" s="126"/>
+      <c r="AB28" s="127"/>
       <c r="AC28" s="32"/>
       <c r="AD28" s="23" t="s">
         <v>19</v>
@@ -22050,62 +22081,62 @@
       <c r="AP28" t="s">
         <v>23</v>
       </c>
-      <c r="AQ28" s="102"/>
-      <c r="AR28" s="75">
+      <c r="AQ28" s="128"/>
+      <c r="AR28" s="138">
         <f>(AR6-$AQ$6)/$AQ$6</f>
         <v>2.3930403550196389E-4</v>
       </c>
-      <c r="AS28" s="75">
+      <c r="AS28" s="138">
         <f t="shared" ref="AS28:AU28" si="1">(AS6-$AQ$6)/$AQ$6</f>
         <v>1.4033673463971307E-4</v>
       </c>
-      <c r="AT28" s="75">
+      <c r="AT28" s="138">
         <f t="shared" si="1"/>
         <v>5.5175240235730907E-2</v>
       </c>
-      <c r="AU28" s="75">
+      <c r="AU28" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="3"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="92"/>
-      <c r="AB29" s="93"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="113"/>
+      <c r="AB29" s="114"/>
       <c r="AC29" s="32"/>
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" t="s">
         <v>24</v>
       </c>
-      <c r="AQ29" s="102"/>
-      <c r="AR29" s="75">
+      <c r="AQ29" s="128"/>
+      <c r="AR29" s="138">
         <f>(AR7-$AQ$7)/$AQ$7</f>
         <v>1.7378808209185165E-4</v>
       </c>
-      <c r="AS29" s="75">
+      <c r="AS29" s="138">
         <f t="shared" ref="AS29:AU29" si="2">(AS7-$AQ$7)/$AQ$7</f>
         <v>-1.3794229047693236E-4</v>
       </c>
-      <c r="AT29" s="75">
+      <c r="AT29" s="138">
         <f t="shared" si="2"/>
         <v>5.5247268173106413E-2</v>
       </c>
-      <c r="AU29" s="75">
+      <c r="AU29" s="88">
         <f t="shared" si="2"/>
         <v>-0.2738175308428652</v>
       </c>
@@ -22130,7 +22161,7 @@
       </c>
       <c r="T30" s="14"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="93"/>
+      <c r="V30" s="114"/>
       <c r="W30" s="27">
         <f>'[5]SB3-SU2'!$AD$56</f>
         <v>784852718.09877813</v>
@@ -22162,22 +22193,22 @@
     </row>
     <row r="31" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L31" s="3"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="93"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="90"/>
-      <c r="AB31" s="91"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="114"/>
+      <c r="W31" s="126"/>
+      <c r="X31" s="127"/>
+      <c r="Y31" s="126"/>
+      <c r="Z31" s="127"/>
+      <c r="AA31" s="126"/>
+      <c r="AB31" s="127"/>
       <c r="AC31" s="32" t="s">
         <v>26</v>
       </c>
@@ -22203,22 +22234,22 @@
     </row>
     <row r="32" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="3"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="93"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="93"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="93"/>
-      <c r="AA32" s="92"/>
-      <c r="AB32" s="93"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
+      <c r="V32" s="114"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="114"/>
+      <c r="Y32" s="113"/>
+      <c r="Z32" s="114"/>
+      <c r="AA32" s="113"/>
+      <c r="AB32" s="114"/>
       <c r="AC32" s="32"/>
       <c r="AD32" s="23" t="s">
         <v>15</v>
@@ -22260,7 +22291,7 @@
       </c>
       <c r="T33" s="14"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="93"/>
+      <c r="V33" s="114"/>
       <c r="W33" s="27">
         <f>'[5]SB3-SU3'!$AD$56</f>
         <v>785119607.64782846</v>
@@ -22307,11 +22338,11 @@
       <c r="AU33" s="2"/>
     </row>
     <row r="34" spans="12:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W34" s="105"/>
+      <c r="W34" s="131"/>
       <c r="X34" s="29"/>
-      <c r="Y34" s="105"/>
+      <c r="Y34" s="131"/>
       <c r="Z34" s="29"/>
-      <c r="AA34" s="105"/>
+      <c r="AA34" s="131"/>
       <c r="AB34" s="29"/>
       <c r="AC34" s="35"/>
       <c r="AD34" s="21" t="s">
@@ -22339,21 +22370,21 @@
         <f>SUM(S9:S33)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="103" t="s">
+      <c r="U35" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="104"/>
-      <c r="W35" s="106"/>
+      <c r="V35" s="130"/>
+      <c r="W35" s="132"/>
       <c r="X35" s="28">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
         <v>721206455.33757484</v>
       </c>
-      <c r="Y35" s="106"/>
+      <c r="Y35" s="132"/>
       <c r="Z35" s="28">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
         <v>683460615.60205793</v>
       </c>
-      <c r="AA35" s="106"/>
+      <c r="AA35" s="132"/>
       <c r="AB35" s="28">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
         <v>941116798.40938354</v>
@@ -22540,12 +22571,12 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
-      <c r="AC44" s="77"/>
-      <c r="AD44" s="78"/>
-      <c r="AE44" s="78"/>
-      <c r="AF44" s="78"/>
-      <c r="AG44" s="78"/>
-      <c r="AH44" s="79"/>
+      <c r="AC44" s="75"/>
+      <c r="AD44" s="76"/>
+      <c r="AE44" s="76"/>
+      <c r="AF44" s="76"/>
+      <c r="AG44" s="76"/>
+      <c r="AH44" s="77"/>
     </row>
     <row r="45" spans="12:47" x14ac:dyDescent="0.3">
       <c r="M45" s="1"/>
@@ -22560,14 +22591,14 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="AC45" s="80"/>
-      <c r="AD45" s="96" t="s">
+      <c r="AC45" s="78"/>
+      <c r="AD45" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="AE45" s="97"/>
+      <c r="AE45" s="107"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="81"/>
+      <c r="AH45" s="79"/>
     </row>
     <row r="46" spans="12:47" x14ac:dyDescent="0.3">
       <c r="M46" s="1"/>
@@ -22582,12 +22613,12 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="AC46" s="80"/>
-      <c r="AD46" s="100"/>
-      <c r="AE46" s="101"/>
+      <c r="AC46" s="78"/>
+      <c r="AD46" s="108"/>
+      <c r="AE46" s="109"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="81"/>
+      <c r="AH46" s="79"/>
     </row>
     <row r="47" spans="12:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M47" s="1"/>
@@ -22602,12 +22633,12 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
-      <c r="AC47" s="80"/>
-      <c r="AD47" s="98"/>
-      <c r="AE47" s="99"/>
+      <c r="AC47" s="78"/>
+      <c r="AD47" s="110"/>
+      <c r="AE47" s="111"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="81"/>
+      <c r="AH47" s="79"/>
     </row>
     <row r="48" spans="12:47" x14ac:dyDescent="0.3">
       <c r="M48" s="1"/>
@@ -22622,12 +22653,12 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
-      <c r="AC48" s="80"/>
+      <c r="AC48" s="78"/>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="81"/>
+      <c r="AH48" s="79"/>
     </row>
     <row r="49" spans="13:37" x14ac:dyDescent="0.3">
       <c r="M49" s="1"/>
@@ -22642,7 +22673,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
-      <c r="AC49" s="80"/>
+      <c r="AC49" s="78"/>
       <c r="AD49" s="2"/>
       <c r="AE49" s="39" t="s">
         <v>4</v>
@@ -22653,7 +22684,7 @@
       <c r="AG49" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AH49" s="81"/>
+      <c r="AH49" s="79"/>
     </row>
     <row r="50" spans="13:37" x14ac:dyDescent="0.3">
       <c r="M50" s="1"/>
@@ -22668,7 +22699,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
-      <c r="AC50" s="80"/>
+      <c r="AC50" s="78"/>
       <c r="AD50" s="39" t="s">
         <v>12</v>
       </c>
@@ -22684,7 +22715,7 @@
         <f>'[3]W''keitsbaum'!$AB9</f>
         <v>16086426.337849889</v>
       </c>
-      <c r="AH50" s="81"/>
+      <c r="AH50" s="79"/>
     </row>
     <row r="51" spans="13:37" x14ac:dyDescent="0.3">
       <c r="M51" s="1"/>
@@ -22699,7 +22730,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
-      <c r="AC51" s="80"/>
+      <c r="AC51" s="78"/>
       <c r="AD51" s="39" t="s">
         <v>15</v>
       </c>
@@ -22715,10 +22746,10 @@
         <f>'[3]W''keitsbaum'!$AB12</f>
         <v>21448840.425084267</v>
       </c>
-      <c r="AH51" s="81"/>
-      <c r="AI51" s="76"/>
+      <c r="AH51" s="79"/>
+      <c r="AI51" s="74"/>
       <c r="AJ51" s="1"/>
-      <c r="AK51" s="76"/>
+      <c r="AK51" s="74"/>
     </row>
     <row r="52" spans="13:37" x14ac:dyDescent="0.3">
       <c r="M52" s="1"/>
@@ -22733,7 +22764,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
-      <c r="AC52" s="80"/>
+      <c r="AC52" s="78"/>
       <c r="AD52" s="39" t="s">
         <v>16</v>
       </c>
@@ -22749,7 +22780,7 @@
         <f>'[3]W''keitsbaum'!$AB15</f>
         <v>69709615.299031883</v>
       </c>
-      <c r="AH52" s="81"/>
+      <c r="AH52" s="79"/>
       <c r="AI52" s="37"/>
       <c r="AK52" s="37"/>
     </row>
@@ -22766,7 +22797,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
-      <c r="AC53" s="80"/>
+      <c r="AC53" s="78"/>
       <c r="AD53" s="39" t="s">
         <v>22</v>
       </c>
@@ -22782,7 +22813,7 @@
         <f>'[3]W''keitsbaum'!$AB18</f>
         <v>17645431.74444396</v>
       </c>
-      <c r="AH53" s="81"/>
+      <c r="AH53" s="79"/>
       <c r="AI53" s="37"/>
       <c r="AK53" s="37"/>
     </row>
@@ -22799,7 +22830,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
-      <c r="AC54" s="80"/>
+      <c r="AC54" s="78"/>
       <c r="AD54" s="39" t="s">
         <v>21</v>
       </c>
@@ -22815,7 +22846,7 @@
         <f>'[3]W''keitsbaum'!$AB21</f>
         <v>23527514.300544996</v>
       </c>
-      <c r="AH54" s="81"/>
+      <c r="AH54" s="79"/>
       <c r="AI54" s="37"/>
       <c r="AK54" s="37"/>
     </row>
@@ -22832,7 +22863,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
-      <c r="AC55" s="80"/>
+      <c r="AC55" s="78"/>
       <c r="AD55" s="39" t="s">
         <v>20</v>
       </c>
@@ -22848,7 +22879,7 @@
         <f>'[3]W''keitsbaum'!$AB24</f>
         <v>76465305.394285738</v>
       </c>
-      <c r="AH55" s="81"/>
+      <c r="AH55" s="79"/>
       <c r="AI55" s="37"/>
       <c r="AK55" s="37"/>
     </row>
@@ -22865,7 +22896,7 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
-      <c r="AC56" s="80"/>
+      <c r="AC56" s="78"/>
       <c r="AD56" s="39" t="s">
         <v>17</v>
       </c>
@@ -22881,7 +22912,7 @@
         <f>'[3]W''keitsbaum'!$AB27</f>
         <v>115232333.72910967</v>
       </c>
-      <c r="AH56" s="81"/>
+      <c r="AH56" s="79"/>
       <c r="AI56" s="37"/>
       <c r="AK56" s="37"/>
     </row>
@@ -22898,7 +22929,7 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
-      <c r="AC57" s="80"/>
+      <c r="AC57" s="78"/>
       <c r="AD57" s="39" t="s">
         <v>18</v>
       </c>
@@ -22914,7 +22945,7 @@
         <f>'[3]W''keitsbaum'!$AB30</f>
         <v>153644743.48654804</v>
       </c>
-      <c r="AH57" s="81"/>
+      <c r="AH57" s="79"/>
       <c r="AI57" s="37"/>
       <c r="AK57" s="37"/>
     </row>
@@ -22931,7 +22962,7 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
-      <c r="AC58" s="80"/>
+      <c r="AC58" s="78"/>
       <c r="AD58" s="39" t="s">
         <v>19</v>
       </c>
@@ -22947,7 +22978,7 @@
         <f>'[3]W''keitsbaum'!$AB33</f>
         <v>499350719.8364237</v>
       </c>
-      <c r="AH58" s="81"/>
+      <c r="AH58" s="79"/>
       <c r="AI58" s="37"/>
       <c r="AK58" s="37"/>
     </row>
@@ -22964,12 +22995,12 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="AC59" s="82"/>
-      <c r="AD59" s="83"/>
-      <c r="AE59" s="83"/>
-      <c r="AF59" s="83"/>
-      <c r="AG59" s="83"/>
-      <c r="AH59" s="84"/>
+      <c r="AC59" s="80"/>
+      <c r="AD59" s="81"/>
+      <c r="AE59" s="81"/>
+      <c r="AF59" s="81"/>
+      <c r="AG59" s="81"/>
+      <c r="AH59" s="82"/>
       <c r="AI59" s="37"/>
       <c r="AK59" s="37"/>
     </row>
@@ -22998,6 +23029,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="M28:U29"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="W25:X26"/>
+    <mergeCell ref="Y25:Z26"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="AD45:AE47"/>
+    <mergeCell ref="AQ27:AQ29"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="V7:V33"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="W28:X29"/>
+    <mergeCell ref="Y28:Z29"/>
+    <mergeCell ref="AA28:AB29"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="Y31:Z32"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="H19:K26"/>
+    <mergeCell ref="L25:U26"/>
+    <mergeCell ref="M22:U23"/>
+    <mergeCell ref="M19:U20"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="B2:D5"/>
     <mergeCell ref="B8:C10"/>
     <mergeCell ref="M31:U32"/>
@@ -23014,46 +23082,9 @@
     <mergeCell ref="L5:N6"/>
     <mergeCell ref="G5:I6"/>
     <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="H19:K26"/>
-    <mergeCell ref="L25:U26"/>
-    <mergeCell ref="M22:U23"/>
-    <mergeCell ref="M19:U20"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="AD45:AE47"/>
-    <mergeCell ref="AQ27:AQ29"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="V7:V33"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="W28:X29"/>
-    <mergeCell ref="Y28:Z29"/>
-    <mergeCell ref="AA28:AB29"/>
-    <mergeCell ref="W31:X32"/>
-    <mergeCell ref="Y31:Z32"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="Y22:Z23"/>
-    <mergeCell ref="M28:U29"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="AA16:AB17"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="W25:X26"/>
-    <mergeCell ref="Y25:Z26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -23062,15 +23093,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AV62"/>
   <sheetViews>
-    <sheetView topLeftCell="V12" workbookViewId="0">
-      <selection activeCell="AW64" sqref="AW64"/>
+    <sheetView topLeftCell="V37" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" customWidth="1"/>
     <col min="5" max="5" width="15.8984375" customWidth="1"/>
     <col min="6" max="6" width="20.59765625" customWidth="1"/>
@@ -23085,44 +23116,44 @@
     <col min="18" max="19" width="14.09765625" customWidth="1"/>
     <col min="20" max="21" width="13.296875" customWidth="1"/>
     <col min="22" max="23" width="12.5" customWidth="1"/>
-    <col min="27" max="27" width="3.3984375" style="88" customWidth="1"/>
+    <col min="27" max="27" width="3.3984375" style="86" customWidth="1"/>
     <col min="29" max="29" width="11.69921875" customWidth="1"/>
     <col min="30" max="30" width="13.5" customWidth="1"/>
     <col min="31" max="31" width="15.3984375" customWidth="1"/>
     <col min="32" max="32" width="13.8984375" customWidth="1"/>
     <col min="33" max="33" width="13.19921875" customWidth="1"/>
-    <col min="34" max="34" width="3.3984375" style="88" customWidth="1"/>
+    <col min="34" max="34" width="3.3984375" style="86" customWidth="1"/>
     <col min="35" max="35" width="13.09765625" customWidth="1"/>
     <col min="36" max="36" width="10.796875" customWidth="1"/>
     <col min="37" max="37" width="14.3984375" customWidth="1"/>
     <col min="38" max="38" width="13.5" customWidth="1"/>
     <col min="39" max="39" width="15.09765625" customWidth="1"/>
     <col min="40" max="40" width="14.19921875" customWidth="1"/>
-    <col min="41" max="41" width="3.19921875" style="88" customWidth="1"/>
+    <col min="41" max="41" width="3.19921875" style="86" customWidth="1"/>
     <col min="44" max="45" width="17" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="AA1" s="87"/>
+      <c r="C1" s="107"/>
+      <c r="AA1" s="85"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
-      <c r="AH1" s="87"/>
+      <c r="AH1" s="85"/>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
-      <c r="AO1" s="87"/>
+      <c r="AO1" s="85"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
@@ -23132,8 +23163,8 @@
       <c r="AV1" s="2"/>
     </row>
     <row r="2" spans="2:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="98"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -23233,11 +23264,11 @@
         <v>721119073.11995208</v>
       </c>
       <c r="L4" s="51"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -23341,35 +23372,38 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="AB7" s="96" t="s">
+      <c r="AB7" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="AC7" s="97"/>
+      <c r="AC7" s="107"/>
       <c r="AD7" s="50"/>
-      <c r="AI7" s="96" t="s">
+      <c r="AI7" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="97"/>
+      <c r="AJ7" s="107"/>
       <c r="AK7" s="50"/>
-      <c r="AP7" s="96" t="s">
+      <c r="AP7" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="AQ7" s="97"/>
+      <c r="AQ7" s="107"/>
       <c r="AR7" s="50"/>
     </row>
     <row r="8" spans="2:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="36">
+        <f>E5-E4</f>
+        <v>1238600</v>
+      </c>
       <c r="P8" s="63"/>
       <c r="Q8" s="64"/>
-      <c r="R8" s="65"/>
       <c r="S8" s="65"/>
       <c r="T8" s="66"/>
       <c r="U8" s="2"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="99"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="99"/>
-      <c r="AP8" s="98"/>
-      <c r="AQ8" s="99"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="111"/>
+      <c r="AI8" s="110"/>
+      <c r="AJ8" s="111"/>
+      <c r="AP8" s="110"/>
+      <c r="AQ8" s="111"/>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.3">
       <c r="E9" s="46" t="s">
@@ -23383,12 +23417,18 @@
       </c>
       <c r="P9" s="63"/>
       <c r="Q9" s="64"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="2"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
     </row>
     <row r="10" spans="2:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="36">
+        <f>F4-F5</f>
+        <v>38984439.735516667</v>
+      </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
@@ -23447,13 +23487,13 @@
         <v>42</v>
       </c>
       <c r="W11" s="50"/>
-      <c r="AE11" s="86" t="s">
+      <c r="AE11" s="84" t="s">
         <v>41</v>
       </c>
       <c r="AL11" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="AS11" s="85" t="s">
+      <c r="AS11" s="83" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26305,43 +26345,43 @@
     </row>
     <row r="50" spans="9:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="51" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AB51" s="96" t="s">
+      <c r="AB51" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="AC51" s="132"/>
-      <c r="AD51" s="97"/>
-      <c r="AI51" s="96" t="s">
+      <c r="AC51" s="122"/>
+      <c r="AD51" s="107"/>
+      <c r="AI51" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="AJ51" s="132"/>
-      <c r="AK51" s="97"/>
-      <c r="AP51" s="96" t="s">
+      <c r="AJ51" s="122"/>
+      <c r="AK51" s="107"/>
+      <c r="AP51" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="AQ51" s="132"/>
-      <c r="AR51" s="97"/>
+      <c r="AQ51" s="122"/>
+      <c r="AR51" s="107"/>
     </row>
     <row r="52" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AB52" s="100"/>
-      <c r="AC52" s="137"/>
-      <c r="AD52" s="101"/>
-      <c r="AI52" s="100"/>
-      <c r="AJ52" s="137"/>
-      <c r="AK52" s="101"/>
-      <c r="AP52" s="100"/>
-      <c r="AQ52" s="137"/>
-      <c r="AR52" s="101"/>
+      <c r="AB52" s="108"/>
+      <c r="AC52" s="133"/>
+      <c r="AD52" s="109"/>
+      <c r="AI52" s="108"/>
+      <c r="AJ52" s="133"/>
+      <c r="AK52" s="109"/>
+      <c r="AP52" s="108"/>
+      <c r="AQ52" s="133"/>
+      <c r="AR52" s="109"/>
     </row>
     <row r="53" spans="9:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB53" s="98"/>
-      <c r="AC53" s="133"/>
-      <c r="AD53" s="99"/>
-      <c r="AI53" s="98"/>
-      <c r="AJ53" s="133"/>
-      <c r="AK53" s="99"/>
-      <c r="AP53" s="98"/>
-      <c r="AQ53" s="133"/>
-      <c r="AR53" s="99"/>
+      <c r="AB53" s="110"/>
+      <c r="AC53" s="123"/>
+      <c r="AD53" s="111"/>
+      <c r="AI53" s="110"/>
+      <c r="AJ53" s="123"/>
+      <c r="AK53" s="111"/>
+      <c r="AP53" s="110"/>
+      <c r="AQ53" s="123"/>
+      <c r="AR53" s="111"/>
     </row>
     <row r="54" spans="9:47" x14ac:dyDescent="0.3">
       <c r="I54" s="5"/>
@@ -26454,8 +26494,8 @@
         <f>AF35</f>
         <v>748204.16237870441</v>
       </c>
-      <c r="AF59" s="107"/>
-      <c r="AG59" s="107"/>
+      <c r="AF59" s="112"/>
+      <c r="AG59" s="112"/>
       <c r="AJ59" t="s">
         <v>23</v>
       </c>
@@ -26500,8 +26540,8 @@
         <f>AF47</f>
         <v>748204.16237870441</v>
       </c>
-      <c r="AF60" s="107"/>
-      <c r="AG60" s="107"/>
+      <c r="AF60" s="112"/>
+      <c r="AG60" s="112"/>
       <c r="AJ60" t="s">
         <v>24</v>
       </c>
@@ -26536,16 +26576,16 @@
       <c r="AU60" s="5"/>
     </row>
     <row r="61" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AF61" s="107"/>
-      <c r="AG61" s="107"/>
+      <c r="AF61" s="112"/>
+      <c r="AG61" s="112"/>
       <c r="AM61" s="5"/>
       <c r="AN61" s="5"/>
       <c r="AT61" s="5"/>
       <c r="AU61" s="5"/>
     </row>
     <row r="62" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AF62" s="107"/>
-      <c r="AG62" s="107"/>
+      <c r="AF62" s="112"/>
+      <c r="AG62" s="112"/>
       <c r="AM62" s="5"/>
       <c r="AN62" s="5"/>
       <c r="AT62" s="5"/>
@@ -26553,6 +26593,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="AQ13:AQ15"/>
+    <mergeCell ref="AQ25:AQ27"/>
+    <mergeCell ref="AQ37:AQ39"/>
+    <mergeCell ref="AP51:AR53"/>
+    <mergeCell ref="AF59:AG62"/>
+    <mergeCell ref="AI51:AK53"/>
+    <mergeCell ref="AI7:AJ8"/>
+    <mergeCell ref="AJ13:AJ15"/>
+    <mergeCell ref="AJ25:AJ27"/>
+    <mergeCell ref="AJ37:AJ39"/>
     <mergeCell ref="AB51:AD53"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="L25:L27"/>
@@ -26562,17 +26613,6 @@
     <mergeCell ref="AC13:AC15"/>
     <mergeCell ref="AC25:AC27"/>
     <mergeCell ref="AC37:AC39"/>
-    <mergeCell ref="AF59:AG62"/>
-    <mergeCell ref="AI51:AK53"/>
-    <mergeCell ref="AI7:AJ8"/>
-    <mergeCell ref="AJ13:AJ15"/>
-    <mergeCell ref="AJ25:AJ27"/>
-    <mergeCell ref="AJ37:AJ39"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="AQ13:AQ15"/>
-    <mergeCell ref="AQ25:AQ27"/>
-    <mergeCell ref="AQ37:AQ39"/>
-    <mergeCell ref="AP51:AR53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/09-Excell/W'keitsbaum - Z0.xlsx
+++ b/09-Excell/W'keitsbaum - Z0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="W'keitsbaum" sheetId="6" r:id="rId1"/>
@@ -794,7 +794,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -980,6 +980,68 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1025,39 +1087,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1085,36 +1114,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,8 +1123,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1458,11 +1464,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="189901384"/>
-        <c:axId val="189904128"/>
+        <c:axId val="428259200"/>
+        <c:axId val="428259592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189901384"/>
+        <c:axId val="428259200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1511,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189904128"/>
+        <c:crossAx val="428259592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1513,7 +1519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189904128"/>
+        <c:axId val="428259592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1570,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189901384"/>
+        <c:crossAx val="428259200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2066,8 +2072,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="441518176"/>
-        <c:axId val="441513080"/>
+        <c:axId val="431943576"/>
+        <c:axId val="431944360"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2193,7 +2199,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="441518176"/>
+        <c:axId val="431943576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,7 +2209,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441513080"/>
+        <c:crossAx val="431944360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2211,7 +2217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441513080"/>
+        <c:axId val="431944360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,7 +2268,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441518176"/>
+        <c:crossAx val="431943576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2805,11 +2811,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="441514648"/>
-        <c:axId val="441515432"/>
+        <c:axId val="431949064"/>
+        <c:axId val="431946712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="441514648"/>
+        <c:axId val="431949064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,7 +2825,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441515432"/>
+        <c:crossAx val="431946712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2827,7 +2833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441515432"/>
+        <c:axId val="431946712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,7 +2884,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441514648"/>
+        <c:crossAx val="431949064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3188,6 +3194,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.4160870814323525E-17"/>
+                  <c:y val="-1.1600928074245939E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'--Kostenvergleich--'!$AR$57:$AS$57</c:f>
@@ -3228,11 +3300,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="441515040"/>
-        <c:axId val="442111440"/>
+        <c:axId val="431943968"/>
+        <c:axId val="431944752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="441515040"/>
+        <c:axId val="431943968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,7 +3347,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442111440"/>
+        <c:crossAx val="431944752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3283,7 +3355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442111440"/>
+        <c:axId val="431944752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,7 +3406,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441515040"/>
+        <c:crossAx val="431943968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3416,7 +3488,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3899,11 +3971,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="442109872"/>
-        <c:axId val="442115360"/>
+        <c:axId val="431946320"/>
+        <c:axId val="431947104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="442109872"/>
+        <c:axId val="431946320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3913,7 +3985,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442115360"/>
+        <c:crossAx val="431947104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3921,7 +3993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442115360"/>
+        <c:axId val="431947104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3972,7 +4044,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442109872"/>
+        <c:crossAx val="431946320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4322,11 +4394,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="442114184"/>
-        <c:axId val="442112224"/>
+        <c:axId val="431947496"/>
+        <c:axId val="431947888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="442114184"/>
+        <c:axId val="431947496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4369,7 +4441,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442112224"/>
+        <c:crossAx val="431947888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4377,7 +4449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442112224"/>
+        <c:axId val="431947888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4428,7 +4500,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442114184"/>
+        <c:crossAx val="431947496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4859,8 +4931,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="442114968"/>
-        <c:axId val="442110264"/>
+        <c:axId val="431948672"/>
+        <c:axId val="431949848"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -4999,7 +5071,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="442114968"/>
+        <c:axId val="431948672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5042,7 +5114,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442110264"/>
+        <c:crossAx val="431949848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5050,7 +5122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442110264"/>
+        <c:axId val="431949848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5101,7 +5173,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442114968"/>
+        <c:crossAx val="431948672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5183,7 +5255,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5524,11 +5596,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="189902952"/>
-        <c:axId val="189906872"/>
+        <c:axId val="428261944"/>
+        <c:axId val="428262336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189902952"/>
+        <c:axId val="428261944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5571,7 +5643,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189906872"/>
+        <c:crossAx val="428262336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5579,7 +5651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189906872"/>
+        <c:axId val="428262336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5630,7 +5702,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189902952"/>
+        <c:crossAx val="428261944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200000000"/>
@@ -6004,11 +6076,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="189902168"/>
-        <c:axId val="189904912"/>
+        <c:axId val="430464752"/>
+        <c:axId val="430462792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189902168"/>
+        <c:axId val="430464752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6051,7 +6123,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189904912"/>
+        <c:crossAx val="430462792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6059,7 +6131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189904912"/>
+        <c:axId val="430462792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6110,7 +6182,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189902168"/>
+        <c:crossAx val="430464752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6653,11 +6725,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="189908048"/>
-        <c:axId val="189900992"/>
+        <c:axId val="430463184"/>
+        <c:axId val="430467496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189908048"/>
+        <c:axId val="430463184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6667,7 +6739,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189900992"/>
+        <c:crossAx val="430467496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6675,7 +6747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189900992"/>
+        <c:axId val="430467496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6726,7 +6798,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189908048"/>
+        <c:crossAx val="430463184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7142,11 +7214,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="189900600"/>
-        <c:axId val="189901776"/>
+        <c:axId val="430464360"/>
+        <c:axId val="430460832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189900600"/>
+        <c:axId val="430464360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7189,7 +7261,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189901776"/>
+        <c:crossAx val="430460832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7197,7 +7269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189901776"/>
+        <c:axId val="430460832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7248,7 +7320,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189900600"/>
+        <c:crossAx val="430464360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7866,11 +7938,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="441516216"/>
-        <c:axId val="441515824"/>
+        <c:axId val="430461616"/>
+        <c:axId val="430462008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="441516216"/>
+        <c:axId val="430461616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7880,7 +7952,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441515824"/>
+        <c:crossAx val="430462008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7888,7 +7960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441515824"/>
+        <c:axId val="430462008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7939,7 +8011,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441516216"/>
+        <c:crossAx val="430461616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8561,11 +8633,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="441517000"/>
-        <c:axId val="441518960"/>
+        <c:axId val="430465928"/>
+        <c:axId val="430467104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="441517000"/>
+        <c:axId val="430465928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8575,7 +8647,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441518960"/>
+        <c:crossAx val="430467104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8583,7 +8655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441518960"/>
+        <c:axId val="430467104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8634,7 +8706,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441517000"/>
+        <c:crossAx val="430465928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9258,11 +9330,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="441517392"/>
-        <c:axId val="441517784"/>
+        <c:axId val="430460440"/>
+        <c:axId val="430461224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="441517392"/>
+        <c:axId val="430460440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9272,7 +9344,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441517784"/>
+        <c:crossAx val="430461224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9280,7 +9352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441517784"/>
+        <c:axId val="430461224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9331,7 +9403,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441517392"/>
+        <c:crossAx val="430460440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9831,7 +9903,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9971,11 +10042,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="441513864"/>
-        <c:axId val="441512296"/>
+        <c:axId val="430465536"/>
+        <c:axId val="431950240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="441513864"/>
+        <c:axId val="430465536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9985,7 +10056,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441512296"/>
+        <c:crossAx val="431950240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9993,7 +10064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441512296"/>
+        <c:axId val="431950240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10044,7 +10115,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441513864"/>
+        <c:crossAx val="430465536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20420,7 +20491,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -20857,13 +20928,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO7" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AR27" sqref="AR27:AS29"/>
+    <sheetView topLeftCell="AV46" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="5" max="5" width="8.09765625" customWidth="1"/>
     <col min="6" max="6" width="14.09765625" customWidth="1"/>
     <col min="7" max="7" width="2.3984375" customWidth="1"/>
@@ -20892,49 +20965,53 @@
   <sheetData>
     <row r="1" spans="2:47" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:47" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="113"/>
       <c r="E2" s="6"/>
-      <c r="AP2" s="106" t="s">
+      <c r="AP2" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="AQ2" s="107"/>
+      <c r="AQ2" s="98"/>
+      <c r="AU2" s="36">
+        <f>AU6-AU7</f>
+        <v>38095.167874336243</v>
+      </c>
     </row>
     <row r="3" spans="2:47" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="6"/>
-      <c r="W3" s="106" t="s">
+      <c r="W3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="106" t="s">
+      <c r="X3" s="98"/>
+      <c r="Y3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="106" t="s">
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="107"/>
+      <c r="AB3" s="98"/>
       <c r="AC3" s="34"/>
-      <c r="AP3" s="110"/>
-      <c r="AQ3" s="111"/>
+      <c r="AP3" s="99"/>
+      <c r="AQ3" s="100"/>
     </row>
     <row r="4" spans="2:47" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="92"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="6"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="109"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="102"/>
       <c r="AC4" s="34"/>
       <c r="AQ4" s="31" t="s">
         <v>29</v>
@@ -20953,32 +21030,32 @@
       </c>
     </row>
     <row r="5" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="119"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="116" t="s">
+      <c r="G5" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="117"/>
-      <c r="I5" s="118"/>
-      <c r="L5" s="115" t="s">
+      <c r="H5" s="128"/>
+      <c r="I5" s="129"/>
+      <c r="L5" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="Q5" s="106" t="s">
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="Q5" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="107"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="111"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="98"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="100"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="100"/>
       <c r="AC5" s="34"/>
       <c r="AP5" t="s">
         <v>4</v>
@@ -21009,16 +21086,16 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="111"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="100"/>
       <c r="AC6" s="36"/>
       <c r="AP6" t="s">
         <v>23</v>
@@ -21045,7 +21122,7 @@
       </c>
     </row>
     <row r="7" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V7" s="114"/>
+      <c r="V7" s="94"/>
       <c r="W7" s="42" t="s">
         <v>6</v>
       </c>
@@ -21096,25 +21173,25 @@
       </c>
     </row>
     <row r="8" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="99"/>
+      <c r="C8" s="121"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="127"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="92"/>
       <c r="AC8" s="32"/>
     </row>
     <row r="9" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="100"/>
-      <c r="C9" s="101"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="30" t="str">
         <f>IF(X35&lt;Z35,"Variante 1",IF(Z35&lt;AB35,"Variante 2","Variante 3"))</f>
         <v>Variante 2</v>
@@ -21149,7 +21226,7 @@
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="114"/>
+      <c r="V9" s="94"/>
       <c r="W9" s="27">
         <f>'[5]SB1-SU1'!$AD$56</f>
         <v>657121111.05117357</v>
@@ -21194,30 +21271,30 @@
       <c r="AT9" s="31"/>
     </row>
     <row r="10" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="114"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="94"/>
       <c r="AC10" s="32"/>
       <c r="AD10" s="23" t="s">
         <v>15</v>
@@ -21237,27 +21314,27 @@
     </row>
     <row r="11" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="3"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="113"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="113"/>
-      <c r="AB11" s="114"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="94"/>
       <c r="AC11" s="32"/>
       <c r="AD11" s="23" t="s">
         <v>16</v>
@@ -21277,10 +21354,10 @@
     </row>
     <row r="12" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
       <c r="L12" s="16"/>
       <c r="M12" s="14"/>
       <c r="N12" s="17" t="s">
@@ -21300,7 +21377,7 @@
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="114"/>
+      <c r="V12" s="94"/>
       <c r="W12" s="27">
         <f>'[5]SB1-SU2'!$AD$56</f>
         <v>657388000.59881794</v>
@@ -21340,27 +21417,27 @@
     </row>
     <row r="13" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G13" s="3"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="114"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="114"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="94"/>
       <c r="AC13" s="32"/>
       <c r="AD13" s="23" t="s">
         <v>21</v>
@@ -21376,27 +21453,27 @@
     </row>
     <row r="14" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="3"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="105"/>
-      <c r="T14" s="105"/>
-      <c r="U14" s="105"/>
-      <c r="V14" s="114"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="114"/>
-      <c r="AA14" s="113"/>
-      <c r="AB14" s="114"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="94"/>
       <c r="AC14" s="32"/>
       <c r="AD14" s="23" t="s">
         <v>20</v>
@@ -21412,10 +21489,10 @@
     </row>
     <row r="15" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
       <c r="L15" s="16"/>
       <c r="M15" s="14"/>
       <c r="N15" s="17" t="s">
@@ -21435,7 +21512,7 @@
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="114"/>
+      <c r="V15" s="94"/>
       <c r="W15" s="27">
         <f>'[5]SB1-SU3'!$AD$56</f>
         <v>657654890.1464901</v>
@@ -21474,28 +21551,31 @@
       </c>
     </row>
     <row r="16" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="139">
+        <v>1507750</v>
+      </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="112"/>
-      <c r="U16" s="112"/>
-      <c r="V16" s="114"/>
-      <c r="W16" s="126"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="126"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="126"/>
-      <c r="AB16" s="127"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="92"/>
       <c r="AC16" s="32"/>
       <c r="AD16" s="23" t="s">
         <v>18</v>
@@ -21509,29 +21589,29 @@
         <v>784852718.09877813</v>
       </c>
     </row>
-    <row r="17" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="3"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="105"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="105"/>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="105"/>
-      <c r="S17" s="105"/>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="114"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="113"/>
-      <c r="Z17" s="114"/>
-      <c r="AA17" s="113"/>
-      <c r="AB17" s="114"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="94"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="94"/>
       <c r="AC17" s="32"/>
       <c r="AD17" s="23" t="s">
         <v>19</v>
@@ -21545,7 +21625,10 @@
         <v>785119607.64782846</v>
       </c>
     </row>
-    <row r="18" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="140">
+        <v>1160000</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="12"/>
       <c r="I18" s="10" t="s">
@@ -21574,7 +21657,7 @@
       </c>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="114"/>
+      <c r="V18" s="94"/>
       <c r="W18" s="27">
         <f>'[5]SB2-SU1'!$AD$56</f>
         <v>720852183.57174861</v>
@@ -21601,54 +21684,58 @@
       </c>
       <c r="AC18" s="2"/>
     </row>
-    <row r="19" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G19" s="3"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="126"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="126"/>
-      <c r="AB19" s="127"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="92"/>
       <c r="AC19" s="32"/>
     </row>
-    <row r="20" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="36">
+        <f>C16-C18</f>
+        <v>347750</v>
+      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="105"/>
-      <c r="O20" s="105"/>
-      <c r="P20" s="105"/>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="105"/>
-      <c r="S20" s="105"/>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="113"/>
-      <c r="X20" s="114"/>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="114"/>
-      <c r="AA20" s="113"/>
-      <c r="AB20" s="114"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="93"/>
+      <c r="AB20" s="94"/>
       <c r="AC20" s="32" t="s">
         <v>27</v>
       </c>
@@ -21664,12 +21751,12 @@
         <v>623110678.4202764</v>
       </c>
     </row>
-    <row r="21" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
       <c r="L21" s="16"/>
       <c r="M21" s="13"/>
       <c r="N21" s="17" t="s">
@@ -21689,7 +21776,7 @@
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="114"/>
+      <c r="V21" s="94"/>
       <c r="W21" s="27">
         <f>'[5]SB2-SU2'!$AD$56</f>
         <v>721119073.11995208</v>
@@ -21727,29 +21814,29 @@
         <v>623125526.56134331</v>
       </c>
     </row>
-    <row r="22" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="3"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="126"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="126"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="126"/>
-      <c r="AB22" s="127"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="92"/>
       <c r="AC22" s="32"/>
       <c r="AD22" s="23" t="s">
         <v>16</v>
@@ -21763,29 +21850,29 @@
         <v>623140374.70242345</v>
       </c>
     </row>
-    <row r="23" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="3"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="105"/>
-      <c r="T23" s="105"/>
-      <c r="U23" s="105"/>
-      <c r="V23" s="114"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="114"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="114"/>
-      <c r="AA23" s="113"/>
-      <c r="AB23" s="114"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="93"/>
+      <c r="Z23" s="94"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="94"/>
       <c r="AC23" s="32"/>
       <c r="AD23" s="21" t="s">
         <v>22</v>
@@ -21799,12 +21886,12 @@
         <v>683440148.64320278</v>
       </c>
     </row>
-    <row r="24" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
       <c r="L24" s="16"/>
       <c r="M24" s="13"/>
       <c r="N24" s="17" t="s">
@@ -21824,7 +21911,7 @@
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="114"/>
+      <c r="V24" s="94"/>
       <c r="W24" s="27">
         <f>'[5]SB2-SU3'!$AD$56</f>
         <v>721385962.66819298</v>
@@ -21862,29 +21949,29 @@
         <v>683454996.78453207</v>
       </c>
     </row>
-    <row r="25" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="3"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="124"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="114"/>
-      <c r="W25" s="126"/>
-      <c r="X25" s="127"/>
-      <c r="Y25" s="126"/>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="126"/>
-      <c r="AB25" s="127"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="109"/>
+      <c r="T25" s="109"/>
+      <c r="U25" s="109"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="92"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="91"/>
+      <c r="AB25" s="92"/>
       <c r="AC25" s="32"/>
       <c r="AD25" s="23" t="s">
         <v>20</v>
@@ -21921,29 +22008,29 @@
         <v>37745839.735516906</v>
       </c>
     </row>
-    <row r="26" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="3"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="125"/>
-      <c r="S26" s="125"/>
-      <c r="T26" s="125"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="114"/>
-      <c r="W26" s="113"/>
-      <c r="X26" s="114"/>
-      <c r="Y26" s="113"/>
-      <c r="Z26" s="114"/>
-      <c r="AA26" s="113"/>
-      <c r="AB26" s="114"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="94"/>
       <c r="AC26" s="32"/>
       <c r="AD26" s="21" t="s">
         <v>17</v>
@@ -21957,7 +22044,7 @@
         <v>743772791.55233002</v>
       </c>
     </row>
-    <row r="27" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G27" s="16"/>
       <c r="H27" s="14"/>
       <c r="I27" s="10" t="s">
@@ -21986,7 +22073,7 @@
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="114"/>
+      <c r="V27" s="94"/>
       <c r="W27" s="27">
         <f>'[5]SB3-SU1'!$AD$56</f>
         <v>784585828.54977763</v>
@@ -22026,18 +22113,18 @@
       <c r="AP27" t="s">
         <v>4</v>
       </c>
-      <c r="AQ27" s="128" t="s">
+      <c r="AQ27" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="AR27" s="137">
+      <c r="AR27" s="89">
         <f>(AR5-$AQ$5)/$AQ$5</f>
         <v>2.267795611222524E-4</v>
       </c>
-      <c r="AS27" s="137">
+      <c r="AS27" s="89">
         <f t="shared" ref="AS27:AU27" si="0">(AS5-$AQ$5)/$AQ$5</f>
         <v>0</v>
       </c>
-      <c r="AT27" s="137">
+      <c r="AT27" s="89">
         <f t="shared" si="0"/>
         <v>5.529611102424721E-2</v>
       </c>
@@ -22046,26 +22133,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="114"/>
-      <c r="W28" s="126"/>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="126"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="126"/>
-      <c r="AB28" s="127"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="91"/>
+      <c r="AB28" s="92"/>
       <c r="AC28" s="32"/>
       <c r="AD28" s="23" t="s">
         <v>19</v>
@@ -22081,16 +22168,16 @@
       <c r="AP28" t="s">
         <v>23</v>
       </c>
-      <c r="AQ28" s="128"/>
-      <c r="AR28" s="138">
+      <c r="AQ28" s="103"/>
+      <c r="AR28" s="90">
         <f>(AR6-$AQ$6)/$AQ$6</f>
         <v>2.3930403550196389E-4</v>
       </c>
-      <c r="AS28" s="138">
+      <c r="AS28" s="90">
         <f t="shared" ref="AS28:AU28" si="1">(AS6-$AQ$6)/$AQ$6</f>
         <v>1.4033673463971307E-4</v>
       </c>
-      <c r="AT28" s="138">
+      <c r="AT28" s="90">
         <f t="shared" si="1"/>
         <v>5.5175240235730907E-2</v>
       </c>
@@ -22099,40 +22186,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="3"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="105"/>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="105"/>
-      <c r="T29" s="105"/>
-      <c r="U29" s="105"/>
-      <c r="V29" s="114"/>
-      <c r="W29" s="113"/>
-      <c r="X29" s="114"/>
-      <c r="Y29" s="113"/>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="113"/>
-      <c r="AB29" s="114"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="96"/>
+      <c r="U29" s="96"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="94"/>
       <c r="AC29" s="32"/>
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" t="s">
         <v>24</v>
       </c>
-      <c r="AQ29" s="128"/>
-      <c r="AR29" s="138">
+      <c r="AQ29" s="103"/>
+      <c r="AR29" s="90">
         <f>(AR7-$AQ$7)/$AQ$7</f>
         <v>1.7378808209185165E-4</v>
       </c>
-      <c r="AS29" s="138">
+      <c r="AS29" s="90">
         <f t="shared" ref="AS29:AU29" si="2">(AS7-$AQ$7)/$AQ$7</f>
         <v>-1.3794229047693236E-4</v>
       </c>
-      <c r="AT29" s="138">
+      <c r="AT29" s="90">
         <f t="shared" si="2"/>
         <v>5.5247268173106413E-2</v>
       </c>
@@ -22141,7 +22228,7 @@
         <v>-0.2738175308428652</v>
       </c>
     </row>
-    <row r="30" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="16"/>
       <c r="M30" s="13"/>
       <c r="N30" s="17" t="s">
@@ -22161,7 +22248,7 @@
       </c>
       <c r="T30" s="14"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="114"/>
+      <c r="V30" s="94"/>
       <c r="W30" s="27">
         <f>'[5]SB3-SU2'!$AD$56</f>
         <v>784852718.09877813</v>
@@ -22191,24 +22278,24 @@
       <c r="AO30" s="2"/>
       <c r="AU30" s="2"/>
     </row>
-    <row r="31" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L31" s="3"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="114"/>
-      <c r="W31" s="126"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="126"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="126"/>
-      <c r="AB31" s="127"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="92"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="92"/>
       <c r="AC31" s="32" t="s">
         <v>26</v>
       </c>
@@ -22232,24 +22319,24 @@
       <c r="AT31" s="32"/>
       <c r="AU31" s="2"/>
     </row>
-    <row r="32" spans="7:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="3"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="105"/>
-      <c r="S32" s="105"/>
-      <c r="T32" s="105"/>
-      <c r="U32" s="105"/>
-      <c r="V32" s="114"/>
-      <c r="W32" s="113"/>
-      <c r="X32" s="114"/>
-      <c r="Y32" s="113"/>
-      <c r="Z32" s="114"/>
-      <c r="AA32" s="113"/>
-      <c r="AB32" s="114"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="96"/>
+      <c r="R32" s="96"/>
+      <c r="S32" s="96"/>
+      <c r="T32" s="96"/>
+      <c r="U32" s="96"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="94"/>
       <c r="AC32" s="32"/>
       <c r="AD32" s="23" t="s">
         <v>15</v>
@@ -22291,7 +22378,7 @@
       </c>
       <c r="T33" s="14"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="114"/>
+      <c r="V33" s="94"/>
       <c r="W33" s="27">
         <f>'[5]SB3-SU3'!$AD$56</f>
         <v>785119607.64782846</v>
@@ -22338,11 +22425,11 @@
       <c r="AU33" s="2"/>
     </row>
     <row r="34" spans="12:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W34" s="131"/>
+      <c r="W34" s="106"/>
       <c r="X34" s="29"/>
-      <c r="Y34" s="131"/>
+      <c r="Y34" s="106"/>
       <c r="Z34" s="29"/>
-      <c r="AA34" s="131"/>
+      <c r="AA34" s="106"/>
       <c r="AB34" s="29"/>
       <c r="AC34" s="35"/>
       <c r="AD34" s="21" t="s">
@@ -22370,21 +22457,21 @@
         <f>SUM(S9:S33)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="129" t="s">
+      <c r="U35" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="130"/>
-      <c r="W35" s="132"/>
+      <c r="V35" s="105"/>
+      <c r="W35" s="107"/>
       <c r="X35" s="28">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
         <v>721206455.33757484</v>
       </c>
-      <c r="Y35" s="132"/>
+      <c r="Y35" s="107"/>
       <c r="Z35" s="28">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
         <v>683460615.60205793</v>
       </c>
-      <c r="AA35" s="132"/>
+      <c r="AA35" s="107"/>
       <c r="AB35" s="28">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
         <v>941116798.40938354</v>
@@ -22592,10 +22679,10 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="AC45" s="78"/>
-      <c r="AD45" s="106" t="s">
+      <c r="AD45" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="AE45" s="107"/>
+      <c r="AE45" s="98"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="79"/>
@@ -22614,8 +22701,8 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="AC46" s="78"/>
-      <c r="AD46" s="108"/>
-      <c r="AE46" s="109"/>
+      <c r="AD46" s="101"/>
+      <c r="AE46" s="102"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
       <c r="AH46" s="79"/>
@@ -22634,8 +22721,8 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="AC47" s="78"/>
-      <c r="AD47" s="110"/>
-      <c r="AE47" s="111"/>
+      <c r="AD47" s="99"/>
+      <c r="AE47" s="100"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="79"/>
@@ -23029,21 +23116,28 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="Y22:Z23"/>
-    <mergeCell ref="M28:U29"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="AA16:AB17"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="W25:X26"/>
-    <mergeCell ref="Y25:Z26"/>
+    <mergeCell ref="B2:D5"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="M31:U32"/>
+    <mergeCell ref="Y3:Z5"/>
+    <mergeCell ref="AA3:AB5"/>
+    <mergeCell ref="H10:K17"/>
+    <mergeCell ref="L16:U17"/>
+    <mergeCell ref="M13:U14"/>
+    <mergeCell ref="M10:U11"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="AA10:AB11"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="H19:K26"/>
+    <mergeCell ref="L25:U26"/>
+    <mergeCell ref="M22:U23"/>
+    <mergeCell ref="M19:U20"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="AP2:AQ3"/>
     <mergeCell ref="AD45:AE47"/>
     <mergeCell ref="AQ27:AQ29"/>
@@ -23060,28 +23154,21 @@
     <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="H19:K26"/>
-    <mergeCell ref="L25:U26"/>
-    <mergeCell ref="M22:U23"/>
-    <mergeCell ref="M19:U20"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="B2:D5"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="M31:U32"/>
-    <mergeCell ref="Y3:Z5"/>
-    <mergeCell ref="AA3:AB5"/>
-    <mergeCell ref="H10:K17"/>
-    <mergeCell ref="L16:U17"/>
-    <mergeCell ref="M13:U14"/>
-    <mergeCell ref="M10:U11"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="AA10:AB11"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="M28:U29"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="W25:X26"/>
+    <mergeCell ref="Y25:Z26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
@@ -23091,10 +23178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AV62"/>
+  <dimension ref="B1:AV63"/>
   <sheetViews>
-    <sheetView topLeftCell="V37" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="AJ85" workbookViewId="0">
+      <selection activeCell="AT107" sqref="AT107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23132,13 +23219,14 @@
     <col min="41" max="41" width="3.19921875" style="86" customWidth="1"/>
     <col min="44" max="45" width="17" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="107"/>
+      <c r="C1" s="98"/>
       <c r="AA1" s="85"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
@@ -23163,8 +23251,8 @@
       <c r="AV1" s="2"/>
     </row>
     <row r="2" spans="2:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="100"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -23372,20 +23460,20 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="AB7" s="106" t="s">
+      <c r="AB7" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="AC7" s="107"/>
+      <c r="AC7" s="98"/>
       <c r="AD7" s="50"/>
-      <c r="AI7" s="106" t="s">
+      <c r="AI7" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="107"/>
+      <c r="AJ7" s="98"/>
       <c r="AK7" s="50"/>
-      <c r="AP7" s="106" t="s">
+      <c r="AP7" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="AQ7" s="107"/>
+      <c r="AQ7" s="98"/>
       <c r="AR7" s="50"/>
     </row>
     <row r="8" spans="2:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -23398,12 +23486,12 @@
       <c r="S8" s="65"/>
       <c r="T8" s="66"/>
       <c r="U8" s="2"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="111"/>
-      <c r="AI8" s="110"/>
-      <c r="AJ8" s="111"/>
-      <c r="AP8" s="110"/>
-      <c r="AQ8" s="111"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="100"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="100"/>
+      <c r="AP8" s="99"/>
+      <c r="AQ8" s="100"/>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.3">
       <c r="E9" s="46" t="s">
@@ -23519,7 +23607,7 @@
         <f>'W''keitsbaum'!S9</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="L13" s="134" t="s">
+      <c r="L13" s="135" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="59" t="s">
@@ -23576,7 +23664,7 @@
       <c r="AB13" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AC13" s="134" t="s">
+      <c r="AC13" s="135" t="s">
         <v>4</v>
       </c>
       <c r="AD13" s="59" t="s">
@@ -23593,7 +23681,7 @@
       <c r="AI13" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AJ13" s="134" t="s">
+      <c r="AJ13" s="135" t="s">
         <v>4</v>
       </c>
       <c r="AK13" s="59" t="s">
@@ -23610,7 +23698,7 @@
       <c r="AP13" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AQ13" s="134" t="s">
+      <c r="AQ13" s="135" t="s">
         <v>4</v>
       </c>
       <c r="AR13" s="59" t="s">
@@ -23630,7 +23718,7 @@
         <f>'W''keitsbaum'!S12</f>
         <v>0.14374999999999999</v>
       </c>
-      <c r="L14" s="135"/>
+      <c r="L14" s="136"/>
       <c r="M14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23685,7 +23773,7 @@
       <c r="AB14" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AC14" s="135"/>
+      <c r="AC14" s="136"/>
       <c r="AD14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23700,7 +23788,7 @@
       <c r="AI14" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AJ14" s="135"/>
+      <c r="AJ14" s="136"/>
       <c r="AK14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23715,7 +23803,7 @@
       <c r="AP14" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AQ14" s="135"/>
+      <c r="AQ14" s="136"/>
       <c r="AR14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23733,7 +23821,7 @@
         <f>'W''keitsbaum'!S15</f>
         <v>9.375E-2</v>
       </c>
-      <c r="L15" s="136"/>
+      <c r="L15" s="137"/>
       <c r="M15" s="57" t="s">
         <v>16</v>
       </c>
@@ -23788,7 +23876,7 @@
       <c r="AB15" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AC15" s="136"/>
+      <c r="AC15" s="137"/>
       <c r="AD15" s="57" t="s">
         <v>16</v>
       </c>
@@ -23803,7 +23891,7 @@
       <c r="AI15" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AJ15" s="136"/>
+      <c r="AJ15" s="137"/>
       <c r="AK15" s="57" t="s">
         <v>16</v>
       </c>
@@ -23818,7 +23906,7 @@
       <c r="AP15" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AQ15" s="136"/>
+      <c r="AQ15" s="137"/>
       <c r="AR15" s="57" t="s">
         <v>16</v>
       </c>
@@ -24474,7 +24562,7 @@
       <c r="K25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="L25" s="134" t="s">
+      <c r="L25" s="135" t="s">
         <v>23</v>
       </c>
       <c r="M25" s="57" t="s">
@@ -24531,7 +24619,7 @@
       <c r="AB25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AC25" s="134" t="s">
+      <c r="AC25" s="135" t="s">
         <v>23</v>
       </c>
       <c r="AD25" s="57" t="s">
@@ -24548,7 +24636,7 @@
       <c r="AI25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AJ25" s="134" t="s">
+      <c r="AJ25" s="135" t="s">
         <v>23</v>
       </c>
       <c r="AK25" s="57" t="s">
@@ -24565,7 +24653,7 @@
       <c r="AP25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AQ25" s="134" t="s">
+      <c r="AQ25" s="135" t="s">
         <v>23</v>
       </c>
       <c r="AR25" s="57" t="s">
@@ -24584,7 +24672,7 @@
       <c r="K26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="L26" s="135"/>
+      <c r="L26" s="136"/>
       <c r="M26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24639,7 +24727,7 @@
       <c r="AB26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AC26" s="135"/>
+      <c r="AC26" s="136"/>
       <c r="AD26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24654,7 +24742,7 @@
       <c r="AI26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AJ26" s="135"/>
+      <c r="AJ26" s="136"/>
       <c r="AK26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24669,7 +24757,7 @@
       <c r="AP26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AQ26" s="135"/>
+      <c r="AQ26" s="136"/>
       <c r="AR26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24686,7 +24774,7 @@
       <c r="K27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="L27" s="136"/>
+      <c r="L27" s="137"/>
       <c r="M27" s="57" t="s">
         <v>16</v>
       </c>
@@ -24741,7 +24829,7 @@
       <c r="AB27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AC27" s="136"/>
+      <c r="AC27" s="137"/>
       <c r="AD27" s="57" t="s">
         <v>16</v>
       </c>
@@ -24756,7 +24844,7 @@
       <c r="AI27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AJ27" s="136"/>
+      <c r="AJ27" s="137"/>
       <c r="AK27" s="57" t="s">
         <v>16</v>
       </c>
@@ -24771,7 +24859,7 @@
       <c r="AP27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AQ27" s="136"/>
+      <c r="AQ27" s="137"/>
       <c r="AR27" s="57" t="s">
         <v>16</v>
       </c>
@@ -25411,7 +25499,7 @@
       <c r="K37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="L37" s="134" t="s">
+      <c r="L37" s="135" t="s">
         <v>24</v>
       </c>
       <c r="M37" s="57" t="s">
@@ -25468,7 +25556,7 @@
       <c r="AB37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AC37" s="134" t="s">
+      <c r="AC37" s="135" t="s">
         <v>24</v>
       </c>
       <c r="AD37" s="57" t="s">
@@ -25485,7 +25573,7 @@
       <c r="AI37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AJ37" s="134" t="s">
+      <c r="AJ37" s="135" t="s">
         <v>24</v>
       </c>
       <c r="AK37" s="57" t="s">
@@ -25502,7 +25590,7 @@
       <c r="AP37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AQ37" s="134" t="s">
+      <c r="AQ37" s="135" t="s">
         <v>24</v>
       </c>
       <c r="AR37" s="57" t="s">
@@ -25521,7 +25609,7 @@
       <c r="K38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="L38" s="135"/>
+      <c r="L38" s="136"/>
       <c r="M38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25576,7 +25664,7 @@
       <c r="AB38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AC38" s="135"/>
+      <c r="AC38" s="136"/>
       <c r="AD38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25591,7 +25679,7 @@
       <c r="AI38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AJ38" s="135"/>
+      <c r="AJ38" s="136"/>
       <c r="AK38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25606,7 +25694,7 @@
       <c r="AP38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AQ38" s="135"/>
+      <c r="AQ38" s="136"/>
       <c r="AR38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25623,7 +25711,7 @@
       <c r="K39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="L39" s="136"/>
+      <c r="L39" s="137"/>
       <c r="M39" s="57" t="s">
         <v>16</v>
       </c>
@@ -25678,7 +25766,7 @@
       <c r="AB39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AC39" s="136"/>
+      <c r="AC39" s="137"/>
       <c r="AD39" s="57" t="s">
         <v>16</v>
       </c>
@@ -25693,7 +25781,7 @@
       <c r="AI39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AJ39" s="136"/>
+      <c r="AJ39" s="137"/>
       <c r="AK39" s="57" t="s">
         <v>16</v>
       </c>
@@ -25708,7 +25796,7 @@
       <c r="AP39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AQ39" s="136"/>
+      <c r="AQ39" s="137"/>
       <c r="AR39" s="57" t="s">
         <v>16</v>
       </c>
@@ -26343,47 +26431,47 @@
         <v>666409525.2289046</v>
       </c>
     </row>
-    <row r="50" spans="9:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AB51" s="106" t="s">
+    <row r="50" spans="9:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="9:48" x14ac:dyDescent="0.3">
+      <c r="AB51" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="AC51" s="122"/>
-      <c r="AD51" s="107"/>
-      <c r="AI51" s="106" t="s">
+      <c r="AC51" s="133"/>
+      <c r="AD51" s="98"/>
+      <c r="AI51" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="AJ51" s="122"/>
-      <c r="AK51" s="107"/>
-      <c r="AP51" s="106" t="s">
+      <c r="AJ51" s="133"/>
+      <c r="AK51" s="98"/>
+      <c r="AP51" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="AQ51" s="122"/>
-      <c r="AR51" s="107"/>
+      <c r="AQ51" s="133"/>
+      <c r="AR51" s="98"/>
     </row>
-    <row r="52" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AB52" s="108"/>
-      <c r="AC52" s="133"/>
-      <c r="AD52" s="109"/>
-      <c r="AI52" s="108"/>
-      <c r="AJ52" s="133"/>
-      <c r="AK52" s="109"/>
-      <c r="AP52" s="108"/>
-      <c r="AQ52" s="133"/>
-      <c r="AR52" s="109"/>
+    <row r="52" spans="9:48" x14ac:dyDescent="0.3">
+      <c r="AB52" s="101"/>
+      <c r="AC52" s="138"/>
+      <c r="AD52" s="102"/>
+      <c r="AI52" s="101"/>
+      <c r="AJ52" s="138"/>
+      <c r="AK52" s="102"/>
+      <c r="AP52" s="101"/>
+      <c r="AQ52" s="138"/>
+      <c r="AR52" s="102"/>
     </row>
-    <row r="53" spans="9:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB53" s="110"/>
-      <c r="AC53" s="123"/>
-      <c r="AD53" s="111"/>
-      <c r="AI53" s="110"/>
-      <c r="AJ53" s="123"/>
-      <c r="AK53" s="111"/>
-      <c r="AP53" s="110"/>
-      <c r="AQ53" s="123"/>
-      <c r="AR53" s="111"/>
+    <row r="53" spans="9:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB53" s="99"/>
+      <c r="AC53" s="134"/>
+      <c r="AD53" s="100"/>
+      <c r="AI53" s="99"/>
+      <c r="AJ53" s="134"/>
+      <c r="AK53" s="100"/>
+      <c r="AP53" s="99"/>
+      <c r="AQ53" s="134"/>
+      <c r="AR53" s="100"/>
     </row>
-    <row r="54" spans="9:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:48" x14ac:dyDescent="0.3">
       <c r="I54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
@@ -26392,7 +26480,7 @@
       <c r="AT54" s="5"/>
       <c r="AU54" s="5"/>
     </row>
-    <row r="55" spans="9:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:48" x14ac:dyDescent="0.3">
       <c r="I55" s="5"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
@@ -26401,7 +26489,7 @@
       <c r="AT55" s="5"/>
       <c r="AU55" s="5"/>
     </row>
-    <row r="56" spans="9:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:48" x14ac:dyDescent="0.3">
       <c r="I56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
@@ -26410,7 +26498,7 @@
       <c r="AT56" s="5"/>
       <c r="AU56" s="5"/>
     </row>
-    <row r="57" spans="9:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:48" x14ac:dyDescent="0.3">
       <c r="I57" s="5"/>
       <c r="AD57" s="51" t="s">
         <v>52</v>
@@ -26437,7 +26525,7 @@
       <c r="AT57" s="5"/>
       <c r="AU57" s="5"/>
     </row>
-    <row r="58" spans="9:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:48" x14ac:dyDescent="0.3">
       <c r="AC58" t="s">
         <v>4</v>
       </c>
@@ -26483,7 +26571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="9:47" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:48" x14ac:dyDescent="0.3">
       <c r="AC59" t="s">
         <v>23</v>
       </c>
@@ -26494,8 +26582,8 @@
         <f>AF35</f>
         <v>748204.16237870441</v>
       </c>
-      <c r="AF59" s="112"/>
-      <c r="AG59" s="112"/>
+      <c r="AF59" s="108"/>
+      <c r="AG59" s="108"/>
       <c r="AJ59" t="s">
         <v>23</v>
       </c>
@@ -26529,7 +26617,7 @@
       </c>
       <c r="AU59" s="5"/>
     </row>
-    <row r="60" spans="9:47" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:48" x14ac:dyDescent="0.3">
       <c r="AC60" t="s">
         <v>24</v>
       </c>
@@ -26540,8 +26628,8 @@
         <f>AF47</f>
         <v>748204.16237870441</v>
       </c>
-      <c r="AF60" s="112"/>
-      <c r="AG60" s="112"/>
+      <c r="AF60" s="108"/>
+      <c r="AG60" s="108"/>
       <c r="AJ60" t="s">
         <v>24</v>
       </c>
@@ -26574,36 +26662,35 @@
         <v>-0.2788585839401459</v>
       </c>
       <c r="AU60" s="5"/>
+      <c r="AV60" s="36">
+        <f>AS59-AS60</f>
+        <v>480845.16787445545</v>
+      </c>
     </row>
-    <row r="61" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AF61" s="112"/>
-      <c r="AG61" s="112"/>
+    <row r="61" spans="9:48" x14ac:dyDescent="0.3">
+      <c r="AF61" s="108"/>
+      <c r="AG61" s="108"/>
       <c r="AM61" s="5"/>
       <c r="AN61" s="5"/>
       <c r="AT61" s="5"/>
       <c r="AU61" s="5"/>
     </row>
-    <row r="62" spans="9:47" x14ac:dyDescent="0.3">
-      <c r="AF62" s="112"/>
-      <c r="AG62" s="112"/>
+    <row r="62" spans="9:48" x14ac:dyDescent="0.3">
+      <c r="AF62" s="108"/>
+      <c r="AG62" s="108"/>
       <c r="AM62" s="5"/>
       <c r="AN62" s="5"/>
       <c r="AT62" s="5"/>
       <c r="AU62" s="5"/>
     </row>
+    <row r="63" spans="9:48" x14ac:dyDescent="0.3">
+      <c r="AV63" s="36">
+        <f>AR60-AS60</f>
+        <v>257694277.97519982</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="AQ13:AQ15"/>
-    <mergeCell ref="AQ25:AQ27"/>
-    <mergeCell ref="AQ37:AQ39"/>
-    <mergeCell ref="AP51:AR53"/>
-    <mergeCell ref="AF59:AG62"/>
-    <mergeCell ref="AI51:AK53"/>
-    <mergeCell ref="AI7:AJ8"/>
-    <mergeCell ref="AJ13:AJ15"/>
-    <mergeCell ref="AJ25:AJ27"/>
-    <mergeCell ref="AJ37:AJ39"/>
     <mergeCell ref="AB51:AD53"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="L25:L27"/>
@@ -26613,9 +26700,20 @@
     <mergeCell ref="AC13:AC15"/>
     <mergeCell ref="AC25:AC27"/>
     <mergeCell ref="AC37:AC39"/>
+    <mergeCell ref="AF59:AG62"/>
+    <mergeCell ref="AI51:AK53"/>
+    <mergeCell ref="AI7:AJ8"/>
+    <mergeCell ref="AJ13:AJ15"/>
+    <mergeCell ref="AJ25:AJ27"/>
+    <mergeCell ref="AJ37:AJ39"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="AQ13:AQ15"/>
+    <mergeCell ref="AQ25:AQ27"/>
+    <mergeCell ref="AQ37:AQ39"/>
+    <mergeCell ref="AP51:AR53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/09-Excell/W'keitsbaum - Z0.xlsx
+++ b/09-Excell/W'keitsbaum - Z0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="W'keitsbaum" sheetId="6" r:id="rId1"/>
@@ -140,25 +140,10 @@
     <t>V1</t>
   </si>
   <si>
-    <t>Zustand 0</t>
-  </si>
-  <si>
-    <t>Zustand 1</t>
-  </si>
-  <si>
-    <t>Zustand 2</t>
-  </si>
-  <si>
-    <t>Zustand 3</t>
-  </si>
-  <si>
     <t>Risiken</t>
   </si>
   <si>
     <t>Kosten</t>
-  </si>
-  <si>
-    <t>Zustand 4</t>
   </si>
   <si>
     <t>V1 - V2</t>
@@ -264,6 +249,21 @@
   </si>
   <si>
     <t>Reisezeitkosten Vergleich Z0 vs. Z4</t>
+  </si>
+  <si>
+    <t>Grundzustand</t>
+  </si>
+  <si>
+    <t>Parameterauswahl 1</t>
+  </si>
+  <si>
+    <t>Parameterauswahl 2</t>
+  </si>
+  <si>
+    <t>Parameterauswahl 3</t>
+  </si>
+  <si>
+    <t>Parameterauswahl 4</t>
   </si>
 </sst>
 </file>
@@ -982,64 +982,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1087,6 +1033,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,6 +1093,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,15 +1131,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1198,21 +1198,8 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Risiken der Szenarien - Zustand</a:t>
+              <a:t>Risiken der Szenarien - Grundzustand</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="de-CH" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> 0</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-CH">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1464,11 +1451,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="428259200"/>
-        <c:axId val="428259592"/>
+        <c:axId val="441200936"/>
+        <c:axId val="441204464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="428259200"/>
+        <c:axId val="441200936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1511,7 +1498,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428259592"/>
+        <c:crossAx val="441204464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1519,7 +1506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="428259592"/>
+        <c:axId val="441204464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,7 +1557,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428259200"/>
+        <c:crossAx val="441200936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1695,7 +1682,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> der Varianten 2 und 3 - Zustand 4</a:t>
+              <a:t> der Varianten 2 und 3 - Parameterauswahl 4</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1843,7 +1830,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 4</c:v>
+                  <c:v>Parameterauswahl 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1964,7 +1951,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 4</c:v>
+                  <c:v>Parameterauswahl 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2072,8 +2059,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="431943576"/>
-        <c:axId val="431944360"/>
+        <c:axId val="441886560"/>
+        <c:axId val="441890088"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2166,7 +2153,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Zustand 4</c:v>
+                        <c:v>Parameterauswahl 4</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2199,7 +2186,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="431943576"/>
+        <c:axId val="441886560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2196,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431944360"/>
+        <c:crossAx val="441890088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2217,7 +2204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431944360"/>
+        <c:axId val="441890088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2255,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431943576"/>
+        <c:crossAx val="441886560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2350,7 +2337,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2394,7 +2381,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Unterhalts- und Baukosten -</a:t>
+              <a:t>Bau-</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH" baseline="0">
@@ -2402,7 +2389,23 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Zustand 0</a:t>
+              <a:t> und Wartungskosten </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-CH">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Grundzustand</a:t>
             </a:r>
             <a:endParaRPr lang="de-CH">
               <a:solidFill>
@@ -2811,11 +2814,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="431949064"/>
-        <c:axId val="431946712"/>
+        <c:axId val="441888912"/>
+        <c:axId val="441203288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="431949064"/>
+        <c:axId val="441888912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2825,7 +2828,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431946712"/>
+        <c:crossAx val="441203288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2833,7 +2836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431946712"/>
+        <c:axId val="441203288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,7 +2887,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431949064"/>
+        <c:crossAx val="441888912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2966,7 +2969,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3092,10 +3095,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 0</c:v>
+                  <c:v>Grundzustand</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Zustand 4</c:v>
+                  <c:v>Parameterauswahl 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3146,10 +3149,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 0</c:v>
+                  <c:v>Grundzustand</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Zustand 4</c:v>
+                  <c:v>Parameterauswahl 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3266,10 +3269,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 0</c:v>
+                  <c:v>Grundzustand</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Zustand 4</c:v>
+                  <c:v>Parameterauswahl 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3300,11 +3303,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="431943968"/>
-        <c:axId val="431944752"/>
+        <c:axId val="441199760"/>
+        <c:axId val="441200152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="431943968"/>
+        <c:axId val="441199760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3347,7 +3350,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431944752"/>
+        <c:crossAx val="441200152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3355,7 +3358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431944752"/>
+        <c:axId val="441200152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3406,7 +3409,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431943968"/>
+        <c:crossAx val="441199760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3540,7 +3543,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Zustand 0</a:t>
+              <a:t> Grundzustand</a:t>
             </a:r>
             <a:endParaRPr lang="de-CH">
               <a:solidFill>
@@ -3971,11 +3974,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="431946320"/>
-        <c:axId val="431947104"/>
+        <c:axId val="443032960"/>
+        <c:axId val="443032176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="431946320"/>
+        <c:axId val="443032960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3985,7 +3988,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431947104"/>
+        <c:crossAx val="443032176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3993,7 +3996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431947104"/>
+        <c:axId val="443032176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4044,7 +4047,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431946320"/>
+        <c:crossAx val="443032960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4126,7 +4129,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4252,10 +4255,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 0</c:v>
+                  <c:v>Grundzustand</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Zustand 2</c:v>
+                  <c:v>Parameterauswahl 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4306,10 +4309,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 0</c:v>
+                  <c:v>Grundzustand</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Zustand 2</c:v>
+                  <c:v>Parameterauswahl 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4360,10 +4363,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 0</c:v>
+                  <c:v>Grundzustand</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Zustand 2</c:v>
+                  <c:v>Parameterauswahl 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4394,11 +4397,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="431947496"/>
-        <c:axId val="431947888"/>
+        <c:axId val="443033744"/>
+        <c:axId val="443034136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="431947496"/>
+        <c:axId val="443033744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4441,7 +4444,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431947888"/>
+        <c:crossAx val="443034136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4449,7 +4452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431947888"/>
+        <c:axId val="443034136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4500,7 +4503,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431947496"/>
+        <c:crossAx val="443033744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4582,7 +4585,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4774,7 +4777,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 4</c:v>
+                  <c:v>Parameterauswahl 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4895,7 +4898,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 4</c:v>
+                  <c:v>Parameterauswahl 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4931,8 +4934,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="431948672"/>
-        <c:axId val="431949848"/>
+        <c:axId val="443033352"/>
+        <c:axId val="443034528"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -5039,7 +5042,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Zustand 4</c:v>
+                        <c:v>Parameterauswahl 4</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5071,7 +5074,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="431948672"/>
+        <c:axId val="443033352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5114,7 +5117,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431949848"/>
+        <c:crossAx val="443034528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5122,7 +5125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431949848"/>
+        <c:axId val="443034528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5173,7 +5176,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431948672"/>
+        <c:crossAx val="443033352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5307,7 +5310,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> der Varianten - Vergleich der Zustände 1 bis 3</a:t>
+              <a:t> der Varianten - Vergleich der Parameterauswahl 1, 2 und 3</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:solidFill>
@@ -5401,13 +5404,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 1</c:v>
+                  <c:v>Parameterauswahl 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Zustand 2</c:v>
+                  <c:v>Parameterauswahl 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Zustand 3</c:v>
+                  <c:v>Parameterauswahl 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5475,13 +5478,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 1</c:v>
+                  <c:v>Parameterauswahl 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Zustand 2</c:v>
+                  <c:v>Parameterauswahl 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Zustand 3</c:v>
+                  <c:v>Parameterauswahl 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5549,13 +5552,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 1</c:v>
+                  <c:v>Parameterauswahl 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Zustand 2</c:v>
+                  <c:v>Parameterauswahl 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Zustand 3</c:v>
+                  <c:v>Parameterauswahl 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5596,11 +5599,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="428261944"/>
-        <c:axId val="428262336"/>
+        <c:axId val="441205248"/>
+        <c:axId val="441204856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="428261944"/>
+        <c:axId val="441205248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5643,7 +5646,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428262336"/>
+        <c:crossAx val="441204856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5651,7 +5654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="428262336"/>
+        <c:axId val="441204856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5702,7 +5705,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428261944"/>
+        <c:crossAx val="441205248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200000000"/>
@@ -6076,11 +6079,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="430464752"/>
-        <c:axId val="430462792"/>
+        <c:axId val="441202504"/>
+        <c:axId val="441198584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="430464752"/>
+        <c:axId val="441202504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6123,7 +6126,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430462792"/>
+        <c:crossAx val="441198584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6131,7 +6134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430462792"/>
+        <c:axId val="441198584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6182,7 +6185,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430464752"/>
+        <c:crossAx val="441202504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6310,7 +6313,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> der Varianten - Zustand 0</a:t>
+              <a:t> der Varianten - Grundzustand</a:t>
             </a:r>
             <a:endParaRPr lang="de-CH">
               <a:solidFill>
@@ -6462,7 +6465,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 0</c:v>
+                  <c:v>Grundzustand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6569,7 +6572,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 0</c:v>
+                  <c:v>Grundzustand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6696,7 +6699,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 0</c:v>
+                  <c:v>Grundzustand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6725,11 +6728,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="430463184"/>
-        <c:axId val="430467496"/>
+        <c:axId val="441198976"/>
+        <c:axId val="441199368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="430463184"/>
+        <c:axId val="441198976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6739,7 +6742,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430467496"/>
+        <c:crossAx val="441199368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6747,7 +6750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430467496"/>
+        <c:axId val="441199368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6798,7 +6801,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430463184"/>
+        <c:crossAx val="441198976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6924,7 +6927,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Risiken der Szenarien - Zustand</a:t>
+              <a:t>Risiken der Szenarien - Parameterauswahl</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH" baseline="0">
@@ -7214,11 +7217,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="430464360"/>
-        <c:axId val="430460832"/>
+        <c:axId val="441890480"/>
+        <c:axId val="441884992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="430464360"/>
+        <c:axId val="441890480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7261,7 +7264,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430460832"/>
+        <c:crossAx val="441884992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7269,7 +7272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430460832"/>
+        <c:axId val="441884992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7320,7 +7323,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430464360"/>
+        <c:crossAx val="441890480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7584,7 +7587,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 1</c:v>
+                  <c:v>Parameterauswahl 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7733,7 +7736,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 1</c:v>
+                  <c:v>Parameterauswahl 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7874,7 +7877,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 1</c:v>
+                  <c:v>Parameterauswahl 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7938,11 +7941,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="430461616"/>
-        <c:axId val="430462008"/>
+        <c:axId val="441890872"/>
+        <c:axId val="441889696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="430461616"/>
+        <c:axId val="441890872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7952,7 +7955,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430462008"/>
+        <c:crossAx val="441889696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7960,7 +7963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430462008"/>
+        <c:axId val="441889696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8011,7 +8014,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430461616"/>
+        <c:crossAx val="441890872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8284,7 +8287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 2</c:v>
+                  <c:v>Parameterauswahl 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8406,7 +8409,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 2</c:v>
+                  <c:v>Parameterauswahl 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8547,7 +8550,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 2</c:v>
+                  <c:v>Parameterauswahl 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8633,11 +8636,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="430465928"/>
-        <c:axId val="430467104"/>
+        <c:axId val="441885384"/>
+        <c:axId val="441891264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="430465928"/>
+        <c:axId val="441885384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8647,7 +8650,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430467104"/>
+        <c:crossAx val="441891264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8655,7 +8658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430467104"/>
+        <c:axId val="441891264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8706,7 +8709,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430465928"/>
+        <c:crossAx val="441885384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8979,7 +8982,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 3</c:v>
+                  <c:v>Parameterauswahl 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9101,7 +9104,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 3</c:v>
+                  <c:v>Parameterauswahl 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9222,7 +9225,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 3</c:v>
+                  <c:v>Parameterauswahl 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9330,11 +9333,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="430460440"/>
-        <c:axId val="430461224"/>
+        <c:axId val="441888520"/>
+        <c:axId val="441891656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="430460440"/>
+        <c:axId val="441888520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9344,7 +9347,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430461224"/>
+        <c:crossAx val="441891656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9352,7 +9355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430461224"/>
+        <c:axId val="441891656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9403,7 +9406,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430460440"/>
+        <c:crossAx val="441888520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9537,7 +9540,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> der Varianten - Zustand 4</a:t>
+              <a:t> der Varianten - Parameterauswahl 4</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9671,7 +9674,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 4</c:v>
+                  <c:v>Parameterauswahl 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9793,7 +9796,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 4</c:v>
+                  <c:v>Parameterauswahl 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9934,7 +9937,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zustand 4</c:v>
+                  <c:v>Parameterauswahl 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10042,11 +10045,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="430465536"/>
-        <c:axId val="431950240"/>
+        <c:axId val="441886168"/>
+        <c:axId val="441892048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="430465536"/>
+        <c:axId val="441886168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10056,7 +10059,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431950240"/>
+        <c:crossAx val="441892048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10064,7 +10067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431950240"/>
+        <c:axId val="441892048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10115,7 +10118,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430465536"/>
+        <c:crossAx val="441886168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20491,7 +20494,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -20928,8 +20931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU61"/>
   <sheetViews>
-    <sheetView topLeftCell="AV46" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AK44" sqref="AK44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20965,97 +20968,97 @@
   <sheetData>
     <row r="1" spans="2:47" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:47" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="6"/>
-      <c r="AP2" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ2" s="98"/>
+      <c r="AP2" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="111"/>
       <c r="AU2" s="36">
         <f>AU6-AU7</f>
         <v>38095.167874336243</v>
       </c>
     </row>
     <row r="3" spans="2:47" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="6"/>
-      <c r="W3" s="97" t="s">
+      <c r="W3" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="97" t="s">
+      <c r="X3" s="111"/>
+      <c r="Y3" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="97" t="s">
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="98"/>
+      <c r="AB3" s="111"/>
       <c r="AC3" s="34"/>
-      <c r="AP3" s="99"/>
-      <c r="AQ3" s="100"/>
+      <c r="AP3" s="114"/>
+      <c r="AQ3" s="115"/>
     </row>
     <row r="4" spans="2:47" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="6"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="102"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="102"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="113"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="112"/>
+      <c r="AB4" s="113"/>
       <c r="AC4" s="34"/>
       <c r="AQ4" s="31" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="AR4" s="31" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="AS4" s="31" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="AT4" s="31" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="AU4" s="44" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="127" t="s">
+      <c r="G5" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="128"/>
-      <c r="I5" s="129"/>
-      <c r="L5" s="126" t="s">
+      <c r="H5" s="121"/>
+      <c r="I5" s="122"/>
+      <c r="L5" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="Q5" s="97" t="s">
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="Q5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="98"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="99"/>
-      <c r="AB5" s="100"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="111"/>
+      <c r="W5" s="114"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="114"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="114"/>
+      <c r="AB5" s="115"/>
       <c r="AC5" s="34"/>
       <c r="AP5" t="s">
         <v>4</v>
@@ -21086,16 +21089,16 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="100"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="125"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="115"/>
       <c r="AC6" s="36"/>
       <c r="AP6" t="s">
         <v>23</v>
@@ -21122,7 +21125,7 @@
       </c>
     </row>
     <row r="7" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V7" s="94"/>
+      <c r="V7" s="118"/>
       <c r="W7" s="42" t="s">
         <v>6</v>
       </c>
@@ -21143,10 +21146,10 @@
       </c>
       <c r="AC7" s="32"/>
       <c r="AE7" s="40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AF7" s="41" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AP7" t="s">
         <v>24</v>
@@ -21173,25 +21176,25 @@
       </c>
     </row>
     <row r="8" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="121"/>
+      <c r="C8" s="103"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="92"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="130"/>
+      <c r="Z8" s="131"/>
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="131"/>
       <c r="AC8" s="32"/>
     </row>
     <row r="9" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="122"/>
-      <c r="C9" s="123"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="30" t="str">
         <f>IF(X35&lt;Z35,"Variante 1",IF(Z35&lt;AB35,"Variante 2","Variante 3"))</f>
         <v>Variante 2</v>
@@ -21226,7 +21229,7 @@
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="94"/>
+      <c r="V9" s="118"/>
       <c r="W9" s="27">
         <f>'[5]SB1-SU1'!$AD$56</f>
         <v>657121111.05117357</v>
@@ -21271,30 +21274,30 @@
       <c r="AT9" s="31"/>
     </row>
     <row r="10" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="124"/>
-      <c r="C10" s="125"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="94"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="118"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="118"/>
       <c r="AC10" s="32"/>
       <c r="AD10" s="23" t="s">
         <v>15</v>
@@ -21314,27 +21317,27 @@
     </row>
     <row r="11" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="3"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="94"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="118"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="118"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="118"/>
+      <c r="AA11" s="117"/>
+      <c r="AB11" s="118"/>
       <c r="AC11" s="32"/>
       <c r="AD11" s="23" t="s">
         <v>16</v>
@@ -21354,10 +21357,10 @@
     </row>
     <row r="12" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
       <c r="L12" s="16"/>
       <c r="M12" s="14"/>
       <c r="N12" s="17" t="s">
@@ -21377,7 +21380,7 @@
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="94"/>
+      <c r="V12" s="118"/>
       <c r="W12" s="27">
         <f>'[5]SB1-SU2'!$AD$56</f>
         <v>657388000.59881794</v>
@@ -21417,27 +21420,27 @@
     </row>
     <row r="13" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G13" s="3"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="94"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="118"/>
       <c r="AC13" s="32"/>
       <c r="AD13" s="23" t="s">
         <v>21</v>
@@ -21453,27 +21456,27 @@
     </row>
     <row r="14" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="3"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="94"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="117"/>
+      <c r="Z14" s="118"/>
+      <c r="AA14" s="117"/>
+      <c r="AB14" s="118"/>
       <c r="AC14" s="32"/>
       <c r="AD14" s="23" t="s">
         <v>20</v>
@@ -21489,10 +21492,10 @@
     </row>
     <row r="15" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
       <c r="L15" s="16"/>
       <c r="M15" s="14"/>
       <c r="N15" s="17" t="s">
@@ -21512,7 +21515,7 @@
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="94"/>
+      <c r="V15" s="118"/>
       <c r="W15" s="27">
         <f>'[5]SB1-SU3'!$AD$56</f>
         <v>657654890.1464901</v>
@@ -21551,31 +21554,31 @@
       </c>
     </row>
     <row r="16" spans="2:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="139">
+      <c r="C16" s="91">
         <v>1507750</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="108"/>
-      <c r="U16" s="108"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="91"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="91"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="91"/>
-      <c r="AB16" s="92"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="131"/>
+      <c r="AA16" s="130"/>
+      <c r="AB16" s="131"/>
       <c r="AC16" s="32"/>
       <c r="AD16" s="23" t="s">
         <v>18</v>
@@ -21591,27 +21594,27 @@
     </row>
     <row r="17" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="3"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="94"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="94"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="118"/>
       <c r="AC17" s="32"/>
       <c r="AD17" s="23" t="s">
         <v>19</v>
@@ -21626,7 +21629,7 @@
       </c>
     </row>
     <row r="18" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="140">
+      <c r="C18" s="92">
         <v>1160000</v>
       </c>
       <c r="G18" s="3"/>
@@ -21657,7 +21660,7 @@
       </c>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="94"/>
+      <c r="V18" s="118"/>
       <c r="W18" s="27">
         <f>'[5]SB2-SU1'!$AD$56</f>
         <v>720852183.57174861</v>
@@ -21686,27 +21689,27 @@
     </row>
     <row r="19" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G19" s="3"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="91"/>
-      <c r="AB19" s="92"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="108"/>
+      <c r="T19" s="108"/>
+      <c r="U19" s="108"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="130"/>
+      <c r="X19" s="131"/>
+      <c r="Y19" s="130"/>
+      <c r="Z19" s="131"/>
+      <c r="AA19" s="130"/>
+      <c r="AB19" s="131"/>
       <c r="AC19" s="32"/>
     </row>
     <row r="20" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -21715,27 +21718,27 @@
         <v>347750</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="94"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="109"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="118"/>
       <c r="AC20" s="32" t="s">
         <v>27</v>
       </c>
@@ -21753,10 +21756,10 @@
     </row>
     <row r="21" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
       <c r="L21" s="16"/>
       <c r="M21" s="13"/>
       <c r="N21" s="17" t="s">
@@ -21776,7 +21779,7 @@
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="94"/>
+      <c r="V21" s="118"/>
       <c r="W21" s="27">
         <f>'[5]SB2-SU2'!$AD$56</f>
         <v>721119073.11995208</v>
@@ -21816,27 +21819,27 @@
     </row>
     <row r="22" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="3"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="91"/>
-      <c r="AB22" s="92"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="130"/>
+      <c r="X22" s="131"/>
+      <c r="Y22" s="130"/>
+      <c r="Z22" s="131"/>
+      <c r="AA22" s="130"/>
+      <c r="AB22" s="131"/>
       <c r="AC22" s="32"/>
       <c r="AD22" s="23" t="s">
         <v>16</v>
@@ -21852,27 +21855,27 @@
     </row>
     <row r="23" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="3"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="94"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="94"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="109"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="109"/>
+      <c r="R23" s="109"/>
+      <c r="S23" s="109"/>
+      <c r="T23" s="109"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="117"/>
+      <c r="AB23" s="118"/>
       <c r="AC23" s="32"/>
       <c r="AD23" s="21" t="s">
         <v>22</v>
@@ -21888,10 +21891,10 @@
     </row>
     <row r="24" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
       <c r="L24" s="16"/>
       <c r="M24" s="13"/>
       <c r="N24" s="17" t="s">
@@ -21911,7 +21914,7 @@
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="94"/>
+      <c r="V24" s="118"/>
       <c r="W24" s="27">
         <f>'[5]SB2-SU3'!$AD$56</f>
         <v>721385962.66819298</v>
@@ -21951,27 +21954,27 @@
     </row>
     <row r="25" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="3"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
-      <c r="U25" s="109"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="91"/>
-      <c r="AB25" s="92"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="130"/>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="130"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="130"/>
+      <c r="AB25" s="131"/>
       <c r="AC25" s="32"/>
       <c r="AD25" s="23" t="s">
         <v>20</v>
@@ -21985,7 +21988,7 @@
         <v>683469844.92587924</v>
       </c>
       <c r="AP25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AQ25" s="36">
         <f>AQ5-AQ6</f>
@@ -22010,27 +22013,27 @@
     </row>
     <row r="26" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="3"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="93"/>
-      <c r="AB26" s="94"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="129"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="118"/>
+      <c r="AA26" s="117"/>
+      <c r="AB26" s="118"/>
       <c r="AC26" s="32"/>
       <c r="AD26" s="21" t="s">
         <v>17</v>
@@ -22073,7 +22076,7 @@
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="94"/>
+      <c r="V27" s="118"/>
       <c r="W27" s="27">
         <f>'[5]SB3-SU1'!$AD$56</f>
         <v>784585828.54977763</v>
@@ -22113,8 +22116,8 @@
       <c r="AP27" t="s">
         <v>4</v>
       </c>
-      <c r="AQ27" s="103" t="s">
-        <v>37</v>
+      <c r="AQ27" s="132" t="s">
+        <v>32</v>
       </c>
       <c r="AR27" s="89">
         <f>(AR5-$AQ$5)/$AQ$5</f>
@@ -22137,22 +22140,22 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="92"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="108"/>
+      <c r="R28" s="108"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="130"/>
+      <c r="X28" s="131"/>
+      <c r="Y28" s="130"/>
+      <c r="Z28" s="131"/>
+      <c r="AA28" s="130"/>
+      <c r="AB28" s="131"/>
       <c r="AC28" s="32"/>
       <c r="AD28" s="23" t="s">
         <v>19</v>
@@ -22168,7 +22171,7 @@
       <c r="AP28" t="s">
         <v>23</v>
       </c>
-      <c r="AQ28" s="103"/>
+      <c r="AQ28" s="132"/>
       <c r="AR28" s="90">
         <f>(AR6-$AQ$6)/$AQ$6</f>
         <v>2.3930403550196389E-4</v>
@@ -22188,29 +22191,29 @@
     </row>
     <row r="29" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="3"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="93"/>
-      <c r="AB29" s="94"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="109"/>
+      <c r="V29" s="118"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="118"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="117"/>
+      <c r="AB29" s="118"/>
       <c r="AC29" s="32"/>
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" t="s">
         <v>24</v>
       </c>
-      <c r="AQ29" s="103"/>
+      <c r="AQ29" s="132"/>
       <c r="AR29" s="90">
         <f>(AR7-$AQ$7)/$AQ$7</f>
         <v>1.7378808209185165E-4</v>
@@ -22248,7 +22251,7 @@
       </c>
       <c r="T30" s="14"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="94"/>
+      <c r="V30" s="118"/>
       <c r="W30" s="27">
         <f>'[5]SB3-SU2'!$AD$56</f>
         <v>784852718.09877813</v>
@@ -22280,22 +22283,22 @@
     </row>
     <row r="31" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L31" s="3"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="92"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="108"/>
+      <c r="U31" s="108"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="130"/>
+      <c r="X31" s="131"/>
+      <c r="Y31" s="130"/>
+      <c r="Z31" s="131"/>
+      <c r="AA31" s="130"/>
+      <c r="AB31" s="131"/>
       <c r="AC31" s="32" t="s">
         <v>26</v>
       </c>
@@ -22321,22 +22324,22 @@
     </row>
     <row r="32" spans="3:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="3"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="93"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="93"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="93"/>
-      <c r="AB32" s="94"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="117"/>
+      <c r="X32" s="118"/>
+      <c r="Y32" s="117"/>
+      <c r="Z32" s="118"/>
+      <c r="AA32" s="117"/>
+      <c r="AB32" s="118"/>
       <c r="AC32" s="32"/>
       <c r="AD32" s="23" t="s">
         <v>15</v>
@@ -22378,7 +22381,7 @@
       </c>
       <c r="T33" s="14"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="94"/>
+      <c r="V33" s="118"/>
       <c r="W33" s="27">
         <f>'[5]SB3-SU3'!$AD$56</f>
         <v>785119607.64782846</v>
@@ -22425,11 +22428,11 @@
       <c r="AU33" s="2"/>
     </row>
     <row r="34" spans="12:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W34" s="106"/>
+      <c r="W34" s="135"/>
       <c r="X34" s="29"/>
-      <c r="Y34" s="106"/>
+      <c r="Y34" s="135"/>
       <c r="Z34" s="29"/>
-      <c r="AA34" s="106"/>
+      <c r="AA34" s="135"/>
       <c r="AB34" s="29"/>
       <c r="AC34" s="35"/>
       <c r="AD34" s="21" t="s">
@@ -22457,21 +22460,21 @@
         <f>SUM(S9:S33)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="104" t="s">
+      <c r="U35" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="105"/>
-      <c r="W35" s="107"/>
+      <c r="V35" s="134"/>
+      <c r="W35" s="136"/>
       <c r="X35" s="28">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
         <v>721206455.33757484</v>
       </c>
-      <c r="Y35" s="107"/>
+      <c r="Y35" s="136"/>
       <c r="Z35" s="28">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
         <v>683460615.60205793</v>
       </c>
-      <c r="AA35" s="107"/>
+      <c r="AA35" s="136"/>
       <c r="AB35" s="28">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
         <v>941116798.40938354</v>
@@ -22679,10 +22682,10 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="AC45" s="78"/>
-      <c r="AD45" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE45" s="98"/>
+      <c r="AD45" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE45" s="111"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="79"/>
@@ -22701,8 +22704,8 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="AC46" s="78"/>
-      <c r="AD46" s="101"/>
-      <c r="AE46" s="102"/>
+      <c r="AD46" s="112"/>
+      <c r="AE46" s="113"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
       <c r="AH46" s="79"/>
@@ -22721,8 +22724,8 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="AC47" s="78"/>
-      <c r="AD47" s="99"/>
-      <c r="AE47" s="100"/>
+      <c r="AD47" s="114"/>
+      <c r="AE47" s="115"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="79"/>
@@ -23116,6 +23119,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="M28:U29"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="W25:X26"/>
+    <mergeCell ref="Y25:Z26"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="AD45:AE47"/>
+    <mergeCell ref="AQ27:AQ29"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="V7:V33"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="W28:X29"/>
+    <mergeCell ref="Y28:Z29"/>
+    <mergeCell ref="AA28:AB29"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="Y31:Z32"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="H19:K26"/>
+    <mergeCell ref="L25:U26"/>
+    <mergeCell ref="M22:U23"/>
+    <mergeCell ref="M19:U20"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="B2:D5"/>
     <mergeCell ref="B8:C10"/>
     <mergeCell ref="M31:U32"/>
@@ -23132,43 +23172,6 @@
     <mergeCell ref="L5:N6"/>
     <mergeCell ref="G5:I6"/>
     <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="H19:K26"/>
-    <mergeCell ref="L25:U26"/>
-    <mergeCell ref="M22:U23"/>
-    <mergeCell ref="M19:U20"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="AD45:AE47"/>
-    <mergeCell ref="AQ27:AQ29"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="V7:V33"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="W28:X29"/>
-    <mergeCell ref="Y28:Z29"/>
-    <mergeCell ref="AA28:AB29"/>
-    <mergeCell ref="W31:X32"/>
-    <mergeCell ref="Y31:Z32"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="Y22:Z23"/>
-    <mergeCell ref="M28:U29"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="AA16:AB17"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="W25:X26"/>
-    <mergeCell ref="Y25:Z26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
@@ -23180,8 +23183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AV63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ85" workbookViewId="0">
-      <selection activeCell="AT107" sqref="AT107"/>
+    <sheetView topLeftCell="AJ73" workbookViewId="0">
+      <selection activeCell="AW91" sqref="AW91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23223,10 +23226,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B1" s="97" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="98"/>
+      <c r="B1" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="111"/>
       <c r="AA1" s="85"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
@@ -23251,8 +23254,8 @@
       <c r="AV1" s="2"/>
     </row>
     <row r="2" spans="2:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="99"/>
-      <c r="C2" s="100"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="115"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -23280,22 +23283,22 @@
     </row>
     <row r="3" spans="2:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="53" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="53" t="s">
-        <v>43</v>
       </c>
       <c r="L3" s="58"/>
       <c r="N3" s="2"/>
@@ -23460,20 +23463,20 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="AB7" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC7" s="98"/>
+      <c r="AB7" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC7" s="111"/>
       <c r="AD7" s="50"/>
-      <c r="AI7" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ7" s="98"/>
+      <c r="AI7" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ7" s="111"/>
       <c r="AK7" s="50"/>
-      <c r="AP7" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ7" s="98"/>
+      <c r="AP7" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ7" s="111"/>
       <c r="AR7" s="50"/>
     </row>
     <row r="8" spans="2:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -23486,22 +23489,22 @@
       <c r="S8" s="65"/>
       <c r="T8" s="66"/>
       <c r="U8" s="2"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="100"/>
-      <c r="AI8" s="99"/>
-      <c r="AJ8" s="100"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="100"/>
+      <c r="AB8" s="114"/>
+      <c r="AC8" s="115"/>
+      <c r="AI8" s="114"/>
+      <c r="AJ8" s="115"/>
+      <c r="AP8" s="114"/>
+      <c r="AQ8" s="115"/>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.3">
       <c r="E9" s="46" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P9" s="63"/>
       <c r="Q9" s="64"/>
@@ -23556,33 +23559,33 @@
         <v>1036118.1546136093</v>
       </c>
       <c r="N11" s="52" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O11" s="49"/>
       <c r="P11" s="61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="61"/>
       <c r="R11" s="62" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="S11" s="62"/>
       <c r="T11" s="62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="U11" s="62"/>
       <c r="V11" s="52" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W11" s="50"/>
       <c r="AE11" s="84" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AL11" s="71" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AS11" s="83" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -23607,7 +23610,7 @@
         <f>'W''keitsbaum'!S9</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="L13" s="135" t="s">
+      <c r="L13" s="138" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="59" t="s">
@@ -23664,7 +23667,7 @@
       <c r="AB13" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AC13" s="135" t="s">
+      <c r="AC13" s="138" t="s">
         <v>4</v>
       </c>
       <c r="AD13" s="59" t="s">
@@ -23681,7 +23684,7 @@
       <c r="AI13" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AJ13" s="135" t="s">
+      <c r="AJ13" s="138" t="s">
         <v>4</v>
       </c>
       <c r="AK13" s="59" t="s">
@@ -23698,7 +23701,7 @@
       <c r="AP13" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AQ13" s="135" t="s">
+      <c r="AQ13" s="138" t="s">
         <v>4</v>
       </c>
       <c r="AR13" s="59" t="s">
@@ -23718,7 +23721,7 @@
         <f>'W''keitsbaum'!S12</f>
         <v>0.14374999999999999</v>
       </c>
-      <c r="L14" s="136"/>
+      <c r="L14" s="139"/>
       <c r="M14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23773,7 +23776,7 @@
       <c r="AB14" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AC14" s="136"/>
+      <c r="AC14" s="139"/>
       <c r="AD14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23788,7 +23791,7 @@
       <c r="AI14" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AJ14" s="136"/>
+      <c r="AJ14" s="139"/>
       <c r="AK14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23803,7 +23806,7 @@
       <c r="AP14" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AQ14" s="136"/>
+      <c r="AQ14" s="139"/>
       <c r="AR14" s="59" t="s">
         <v>15</v>
       </c>
@@ -23821,7 +23824,7 @@
         <f>'W''keitsbaum'!S15</f>
         <v>9.375E-2</v>
       </c>
-      <c r="L15" s="137"/>
+      <c r="L15" s="140"/>
       <c r="M15" s="57" t="s">
         <v>16</v>
       </c>
@@ -23876,7 +23879,7 @@
       <c r="AB15" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AC15" s="137"/>
+      <c r="AC15" s="140"/>
       <c r="AD15" s="57" t="s">
         <v>16</v>
       </c>
@@ -23891,7 +23894,7 @@
       <c r="AI15" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AJ15" s="137"/>
+      <c r="AJ15" s="140"/>
       <c r="AK15" s="57" t="s">
         <v>16</v>
       </c>
@@ -23906,7 +23909,7 @@
       <c r="AP15" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AQ15" s="137"/>
+      <c r="AQ15" s="140"/>
       <c r="AR15" s="57" t="s">
         <v>16</v>
       </c>
@@ -24562,7 +24565,7 @@
       <c r="K25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="L25" s="135" t="s">
+      <c r="L25" s="138" t="s">
         <v>23</v>
       </c>
       <c r="M25" s="57" t="s">
@@ -24619,7 +24622,7 @@
       <c r="AB25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AC25" s="135" t="s">
+      <c r="AC25" s="138" t="s">
         <v>23</v>
       </c>
       <c r="AD25" s="57" t="s">
@@ -24636,7 +24639,7 @@
       <c r="AI25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AJ25" s="135" t="s">
+      <c r="AJ25" s="138" t="s">
         <v>23</v>
       </c>
       <c r="AK25" s="57" t="s">
@@ -24653,7 +24656,7 @@
       <c r="AP25" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AQ25" s="135" t="s">
+      <c r="AQ25" s="138" t="s">
         <v>23</v>
       </c>
       <c r="AR25" s="57" t="s">
@@ -24672,7 +24675,7 @@
       <c r="K26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="L26" s="136"/>
+      <c r="L26" s="139"/>
       <c r="M26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24727,7 +24730,7 @@
       <c r="AB26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AC26" s="136"/>
+      <c r="AC26" s="139"/>
       <c r="AD26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24742,7 +24745,7 @@
       <c r="AI26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AJ26" s="136"/>
+      <c r="AJ26" s="139"/>
       <c r="AK26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24757,7 +24760,7 @@
       <c r="AP26" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AQ26" s="136"/>
+      <c r="AQ26" s="139"/>
       <c r="AR26" s="57" t="s">
         <v>15</v>
       </c>
@@ -24774,7 +24777,7 @@
       <c r="K27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="L27" s="137"/>
+      <c r="L27" s="140"/>
       <c r="M27" s="57" t="s">
         <v>16</v>
       </c>
@@ -24829,7 +24832,7 @@
       <c r="AB27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AC27" s="137"/>
+      <c r="AC27" s="140"/>
       <c r="AD27" s="57" t="s">
         <v>16</v>
       </c>
@@ -24844,7 +24847,7 @@
       <c r="AI27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AJ27" s="137"/>
+      <c r="AJ27" s="140"/>
       <c r="AK27" s="57" t="s">
         <v>16</v>
       </c>
@@ -24859,7 +24862,7 @@
       <c r="AP27" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AQ27" s="137"/>
+      <c r="AQ27" s="140"/>
       <c r="AR27" s="57" t="s">
         <v>16</v>
       </c>
@@ -25499,7 +25502,7 @@
       <c r="K37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="L37" s="135" t="s">
+      <c r="L37" s="138" t="s">
         <v>24</v>
       </c>
       <c r="M37" s="57" t="s">
@@ -25556,7 +25559,7 @@
       <c r="AB37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AC37" s="135" t="s">
+      <c r="AC37" s="138" t="s">
         <v>24</v>
       </c>
       <c r="AD37" s="57" t="s">
@@ -25573,7 +25576,7 @@
       <c r="AI37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AJ37" s="135" t="s">
+      <c r="AJ37" s="138" t="s">
         <v>24</v>
       </c>
       <c r="AK37" s="57" t="s">
@@ -25590,7 +25593,7 @@
       <c r="AP37" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AQ37" s="135" t="s">
+      <c r="AQ37" s="138" t="s">
         <v>24</v>
       </c>
       <c r="AR37" s="57" t="s">
@@ -25609,7 +25612,7 @@
       <c r="K38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="L38" s="136"/>
+      <c r="L38" s="139"/>
       <c r="M38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25664,7 +25667,7 @@
       <c r="AB38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AC38" s="136"/>
+      <c r="AC38" s="139"/>
       <c r="AD38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25679,7 +25682,7 @@
       <c r="AI38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AJ38" s="136"/>
+      <c r="AJ38" s="139"/>
       <c r="AK38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25694,7 +25697,7 @@
       <c r="AP38" s="8">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AQ38" s="136"/>
+      <c r="AQ38" s="139"/>
       <c r="AR38" s="57" t="s">
         <v>15</v>
       </c>
@@ -25711,7 +25714,7 @@
       <c r="K39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="L39" s="137"/>
+      <c r="L39" s="140"/>
       <c r="M39" s="57" t="s">
         <v>16</v>
       </c>
@@ -25766,7 +25769,7 @@
       <c r="AB39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AC39" s="137"/>
+      <c r="AC39" s="140"/>
       <c r="AD39" s="57" t="s">
         <v>16</v>
       </c>
@@ -25781,7 +25784,7 @@
       <c r="AI39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AJ39" s="137"/>
+      <c r="AJ39" s="140"/>
       <c r="AK39" s="57" t="s">
         <v>16</v>
       </c>
@@ -25796,7 +25799,7 @@
       <c r="AP39" s="8">
         <v>9.375E-2</v>
       </c>
-      <c r="AQ39" s="137"/>
+      <c r="AQ39" s="140"/>
       <c r="AR39" s="57" t="s">
         <v>16</v>
       </c>
@@ -26433,43 +26436,43 @@
     </row>
     <row r="50" spans="9:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="51" spans="9:48" x14ac:dyDescent="0.3">
-      <c r="AB51" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC51" s="133"/>
-      <c r="AD51" s="98"/>
-      <c r="AI51" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ51" s="133"/>
-      <c r="AK51" s="98"/>
-      <c r="AP51" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ51" s="133"/>
-      <c r="AR51" s="98"/>
+      <c r="AB51" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC51" s="126"/>
+      <c r="AD51" s="111"/>
+      <c r="AI51" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ51" s="126"/>
+      <c r="AK51" s="111"/>
+      <c r="AP51" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ51" s="126"/>
+      <c r="AR51" s="111"/>
     </row>
     <row r="52" spans="9:48" x14ac:dyDescent="0.3">
-      <c r="AB52" s="101"/>
-      <c r="AC52" s="138"/>
-      <c r="AD52" s="102"/>
-      <c r="AI52" s="101"/>
-      <c r="AJ52" s="138"/>
-      <c r="AK52" s="102"/>
-      <c r="AP52" s="101"/>
-      <c r="AQ52" s="138"/>
-      <c r="AR52" s="102"/>
+      <c r="AB52" s="112"/>
+      <c r="AC52" s="137"/>
+      <c r="AD52" s="113"/>
+      <c r="AI52" s="112"/>
+      <c r="AJ52" s="137"/>
+      <c r="AK52" s="113"/>
+      <c r="AP52" s="112"/>
+      <c r="AQ52" s="137"/>
+      <c r="AR52" s="113"/>
     </row>
     <row r="53" spans="9:48" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB53" s="99"/>
-      <c r="AC53" s="134"/>
-      <c r="AD53" s="100"/>
-      <c r="AI53" s="99"/>
-      <c r="AJ53" s="134"/>
-      <c r="AK53" s="100"/>
-      <c r="AP53" s="99"/>
-      <c r="AQ53" s="134"/>
-      <c r="AR53" s="100"/>
+      <c r="AB53" s="114"/>
+      <c r="AC53" s="127"/>
+      <c r="AD53" s="115"/>
+      <c r="AI53" s="114"/>
+      <c r="AJ53" s="127"/>
+      <c r="AK53" s="115"/>
+      <c r="AP53" s="114"/>
+      <c r="AQ53" s="127"/>
+      <c r="AR53" s="115"/>
     </row>
     <row r="54" spans="9:48" x14ac:dyDescent="0.3">
       <c r="I54" s="5"/>
@@ -26501,26 +26504,26 @@
     <row r="57" spans="9:48" x14ac:dyDescent="0.3">
       <c r="I57" s="5"/>
       <c r="AD57" s="51" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AE57" s="48" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
       <c r="AK57" s="51" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="AL57" s="48" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="AM57" s="5"/>
       <c r="AN57" s="5"/>
       <c r="AR57" s="51" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="AS57" s="48" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AT57" s="5"/>
       <c r="AU57" s="5"/>
@@ -26582,8 +26585,8 @@
         <f>AF35</f>
         <v>748204.16237870441</v>
       </c>
-      <c r="AF59" s="108"/>
-      <c r="AG59" s="108"/>
+      <c r="AF59" s="116"/>
+      <c r="AG59" s="116"/>
       <c r="AJ59" t="s">
         <v>23</v>
       </c>
@@ -26628,8 +26631,8 @@
         <f>AF47</f>
         <v>748204.16237870441</v>
       </c>
-      <c r="AF60" s="108"/>
-      <c r="AG60" s="108"/>
+      <c r="AF60" s="116"/>
+      <c r="AG60" s="116"/>
       <c r="AJ60" t="s">
         <v>24</v>
       </c>
@@ -26668,16 +26671,16 @@
       </c>
     </row>
     <row r="61" spans="9:48" x14ac:dyDescent="0.3">
-      <c r="AF61" s="108"/>
-      <c r="AG61" s="108"/>
+      <c r="AF61" s="116"/>
+      <c r="AG61" s="116"/>
       <c r="AM61" s="5"/>
       <c r="AN61" s="5"/>
       <c r="AT61" s="5"/>
       <c r="AU61" s="5"/>
     </row>
     <row r="62" spans="9:48" x14ac:dyDescent="0.3">
-      <c r="AF62" s="108"/>
-      <c r="AG62" s="108"/>
+      <c r="AF62" s="116"/>
+      <c r="AG62" s="116"/>
       <c r="AM62" s="5"/>
       <c r="AN62" s="5"/>
       <c r="AT62" s="5"/>
@@ -26691,6 +26694,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="AQ13:AQ15"/>
+    <mergeCell ref="AQ25:AQ27"/>
+    <mergeCell ref="AQ37:AQ39"/>
+    <mergeCell ref="AP51:AR53"/>
+    <mergeCell ref="AF59:AG62"/>
+    <mergeCell ref="AI51:AK53"/>
+    <mergeCell ref="AI7:AJ8"/>
+    <mergeCell ref="AJ13:AJ15"/>
+    <mergeCell ref="AJ25:AJ27"/>
+    <mergeCell ref="AJ37:AJ39"/>
     <mergeCell ref="AB51:AD53"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="L25:L27"/>
@@ -26700,17 +26714,6 @@
     <mergeCell ref="AC13:AC15"/>
     <mergeCell ref="AC25:AC27"/>
     <mergeCell ref="AC37:AC39"/>
-    <mergeCell ref="AF59:AG62"/>
-    <mergeCell ref="AI51:AK53"/>
-    <mergeCell ref="AI7:AJ8"/>
-    <mergeCell ref="AJ13:AJ15"/>
-    <mergeCell ref="AJ25:AJ27"/>
-    <mergeCell ref="AJ37:AJ39"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="AQ13:AQ15"/>
-    <mergeCell ref="AQ25:AQ27"/>
-    <mergeCell ref="AQ37:AQ39"/>
-    <mergeCell ref="AP51:AR53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
